--- a/Chapter10/Chapter 10 - Dynamic Arrays.xlsx
+++ b/Chapter10/Chapter 10 - Dynamic Arrays.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25321"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Packt\Chapter 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A122B3B-C77D-4893-B23C-68607D216790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AEE997-8B16-4DD6-BA31-FE80BFA67E25}" xr6:coauthVersionLast="48" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="465" windowWidth="14430" windowHeight="7635" firstSheet="8" activeTab="8" xr2:uid="{34308FCB-668B-4E5F-B915-B3DC17B557AA}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{34308FCB-668B-4E5F-B915-B3DC17B557AA}"/>
   </bookViews>
   <sheets>
     <sheet name="VLOOKUP" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VLOOKUP!$C$1:$C$11</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -127,22 +127,22 @@
     <author>David Ringstrom</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{C727144C-E01E-4B6E-8642-689E686B1C53}">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{C34BB8E2-6659-4E7F-BE1B-2AF511681207}">
       <text/>
     </comment>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{9CF16E81-69CF-4A5F-BF50-220905D4BC58}">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{6728CFE5-9D7D-47CF-B18A-8E8C1A230F35}">
       <text/>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{FB3530D8-98C0-4ED6-B0E5-CCD9B93D18DC}">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{8DE0C938-B5BF-40AB-B2AB-113B2856F3AC}">
       <text/>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{14B7C19D-E318-4D0B-8372-E35B0A66654B}">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{E1EB6843-2296-4EDE-BA0E-1DC35C22A97E}">
       <text/>
     </comment>
-    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{DE983B27-3527-4EDC-97E7-59293FA5F3E8}">
+    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{AD5907EC-A1FB-47B6-BAB0-DAF514281809}">
       <text/>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{165473A8-44A6-42F7-BCA1-5485E9A79A08}">
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{1FCE18AA-C6CC-4E12-A5EC-ADE1E160DDFC}">
       <text/>
     </comment>
   </commentList>
@@ -282,7 +282,7 @@
     <comment ref="C11" authorId="0" shapeId="0" xr:uid="{1C87F6EF-ACA5-42E5-9DFC-CC9651343A2E}">
       <text/>
     </comment>
-    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{2C7786B6-CA45-44ED-BAF6-2ACA139D6CD2}">
+    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{BA65F414-BCA3-47FE-B157-0C285602A698}">
       <text/>
     </comment>
   </commentList>
@@ -331,6 +331,9 @@
   </authors>
   <commentList>
     <comment ref="H3" authorId="0" shapeId="0" xr:uid="{B61DC066-B653-4726-8E66-7106237A0C0E}">
+      <text/>
+    </comment>
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{8A069644-2188-486F-A35E-7F7BF4D6BBEB}">
       <text/>
     </comment>
     <comment ref="H8" authorId="0" shapeId="0" xr:uid="{A2C5104C-1B84-4C44-B06C-36AC1E9C10D8}">
@@ -407,7 +410,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="108">
   <si>
     <t>Beach</t>
   </si>
@@ -478,9 +481,6 @@
     <t>Unique List of Countries</t>
   </si>
   <si>
-    <t>Duplication of the orginal list</t>
-  </si>
-  <si>
     <t>United States</t>
   </si>
   <si>
@@ -641,9 +641,6 @@
   </si>
   <si>
     <t>FILTER Function (Country equal to cell K2)</t>
-  </si>
-  <si>
-    <t>Dynamic Amortization Table</t>
   </si>
   <si>
     <t>&gt;=Miles:</t>
@@ -732,16 +729,23 @@
   </si>
   <si>
     <t>XLOOKUP &gt;=50 miles in length (1 cell)</t>
+  </si>
+  <si>
+    <t>Duplication of the original list</t>
+  </si>
+  <si>
+    <t>Dynamic Amortization Table (United States Dollars)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -980,27 +984,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -1024,7 +1026,6 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1035,7 +1036,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -1046,10 +1047,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1068,10 +1068,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1081,55 +1081,35 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" wrapText="1"/>
     </xf>
@@ -1142,16 +1122,16 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1159,14 +1139,16 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -1568,206 +1550,205 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:I12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="6" width="10.7109375" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
     <col min="7" max="7" width="28.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="G1" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="H2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="58" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="23">
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
         <v>75</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="21">
         <v>120.7008</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="32">
         <f>VLOOKUP($G3,$B$3:$E$12,3,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="I3" s="67">
+      <c r="I3" s="61">
         <f>VLOOKUP($G3,$B$3:$E$12,4,FALSE)</f>
         <v>45.061631999999996</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>28</v>
+      </c>
+      <c r="E4" s="21">
+        <v>45.061631999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5" s="21">
+        <v>40.233599999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D6">
+        <v>94</v>
+      </c>
+      <c r="E6" s="21">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
+      <c r="E7" s="21">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>70</v>
+      </c>
+      <c r="E8" s="21">
+        <v>112.65408000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>56</v>
+      </c>
+      <c r="E9" s="21">
+        <v>90.123263999999992</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="25">
-        <v>45.061631999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="23">
-        <v>25</v>
-      </c>
-      <c r="E5" s="25">
-        <v>40.233599999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="23">
-        <v>94</v>
-      </c>
-      <c r="E6" s="25">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="23">
-        <v>55</v>
-      </c>
-      <c r="E7" s="25">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="23" t="s">
+      <c r="D10">
+        <v>150</v>
+      </c>
+      <c r="E10" s="21">
+        <v>241.4016</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="23">
-        <v>70</v>
-      </c>
-      <c r="E8" s="25">
-        <v>112.65408000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="23">
-        <v>56</v>
-      </c>
-      <c r="E9" s="25">
-        <v>90.123263999999992</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="23">
-        <v>150</v>
-      </c>
-      <c r="E10" s="25">
-        <v>241.4016</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="23">
+      <c r="D11">
         <v>20</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="21">
         <v>32.186880000000002</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="27">
+      <c r="C12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="23">
         <v>35</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="24">
         <v>56.327040000000004</v>
       </c>
     </row>
@@ -1786,25 +1767,28 @@
   <dimension ref="B1:T17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="topRight" activeCell="L3" sqref="L3"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" customWidth="1"/>
     <col min="12" max="12" width="29" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="15.140625" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" customWidth="1"/>
     <col min="17" max="17" width="33" customWidth="1"/>
     <col min="18" max="18" width="15.42578125" customWidth="1"/>
     <col min="19" max="19" width="17.28515625" customWidth="1"/>
@@ -1812,602 +1796,602 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="G1" s="17" t="s">
+      <c r="B1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="G1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="Q1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B2" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="Q1" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-    </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="64" t="s">
+      <c r="T2" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="T2" s="68" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="23">
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3">
         <v>150</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="21">
         <v>241.4016</v>
       </c>
-      <c r="G3" s="56" t="str" cm="1">
+      <c r="G3" s="51" t="str" cm="1">
         <f t="array" ref="G3:J12">_xlfn._xlws.SORT(B3:E12)</f>
         <v>Cox's Bazar</v>
       </c>
-      <c r="H3" s="42" t="str">
+      <c r="H3" s="3" t="str">
         <v>Bangladesh</v>
       </c>
-      <c r="I3" s="42">
+      <c r="I3" s="3">
         <v>75</v>
       </c>
-      <c r="J3" s="65">
+      <c r="J3" s="59">
         <v>120.7008</v>
       </c>
       <c r="K3" s="5"/>
-      <c r="L3" s="56" t="str" cm="1">
+      <c r="L3" s="51" t="str" cm="1">
         <f t="array" ref="L3:O12">_xlfn._xlws.SORT(B3:E12,3)</f>
         <v>Stockton Beach</v>
       </c>
-      <c r="M3" s="42" t="str">
+      <c r="M3" s="3" t="str">
         <v>Australia</v>
       </c>
-      <c r="N3" s="42">
+      <c r="N3" s="3">
         <v>20</v>
       </c>
-      <c r="O3" s="65">
+      <c r="O3" s="59">
         <v>32.186880000000002</v>
       </c>
-      <c r="Q3" s="56" t="str" cm="1">
+      <c r="Q3" s="51" t="str" cm="1">
         <f t="array" ref="Q3:T12">_xlfn._xlws.SORT(_xlfn._xlws.SORT(B3:E12,3,-1),2)</f>
         <v>Ninety Mile Beach</v>
       </c>
-      <c r="R3" s="42" t="str">
+      <c r="R3" s="3" t="str">
         <v>Australia</v>
       </c>
-      <c r="S3" s="42">
+      <c r="S3" s="3">
         <v>94</v>
       </c>
-      <c r="T3" s="65">
+      <c r="T3" s="59">
         <v>151</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>94</v>
+      </c>
+      <c r="E4" s="21">
+        <v>151</v>
+      </c>
+      <c r="G4" s="53" t="str">
+        <v>Long Beach</v>
+      </c>
+      <c r="H4" s="3" t="str">
+        <v>United States</v>
+      </c>
+      <c r="I4" s="3">
+        <v>28</v>
+      </c>
+      <c r="J4" s="59">
+        <v>45.061631999999996</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="53" t="str">
+        <v>Muizenberg</v>
+      </c>
+      <c r="M4" s="3" t="str">
+        <v>South Africa</v>
+      </c>
+      <c r="N4" s="3">
         <v>25</v>
       </c>
-      <c r="D4" s="23">
+      <c r="O4" s="59">
+        <v>40.233599999999996</v>
+      </c>
+      <c r="Q4" s="53" t="str">
+        <v>Stockton Beach</v>
+      </c>
+      <c r="R4" s="3" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="S4" s="3">
+        <v>20</v>
+      </c>
+      <c r="T4" s="59">
+        <v>32.186880000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>75</v>
+      </c>
+      <c r="E5" s="21">
+        <v>120.7008</v>
+      </c>
+      <c r="G5" s="53" t="str">
+        <v>Muizenberg</v>
+      </c>
+      <c r="H5" s="3" t="str">
+        <v>South Africa</v>
+      </c>
+      <c r="I5" s="3">
+        <v>25</v>
+      </c>
+      <c r="J5" s="59">
+        <v>40.233599999999996</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="53" t="str">
+        <v>Long Beach</v>
+      </c>
+      <c r="M5" s="3" t="str">
+        <v>United States</v>
+      </c>
+      <c r="N5" s="3">
+        <v>28</v>
+      </c>
+      <c r="O5" s="59">
+        <v>45.061631999999996</v>
+      </c>
+      <c r="Q5" s="53" t="str">
+        <v>Cox's Bazar</v>
+      </c>
+      <c r="R5" s="3" t="str">
+        <v>Bangladesh</v>
+      </c>
+      <c r="S5" s="3">
+        <v>75</v>
+      </c>
+      <c r="T5" s="59">
+        <v>120.7008</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>70</v>
+      </c>
+      <c r="E6" s="21">
+        <v>112.65408000000001</v>
+      </c>
+      <c r="G6" s="53" t="str">
+        <v>Ninety Mile Beach</v>
+      </c>
+      <c r="H6" s="3" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="I6" s="3">
         <v>94</v>
       </c>
-      <c r="E4" s="25">
+      <c r="J6" s="59">
         <v>151</v>
       </c>
-      <c r="G4" s="58" t="str">
+      <c r="K6" s="5"/>
+      <c r="L6" s="53" t="str">
+        <v>Virginia Beach</v>
+      </c>
+      <c r="M6" s="3" t="str">
+        <v>United States</v>
+      </c>
+      <c r="N6" s="3">
+        <v>35</v>
+      </c>
+      <c r="O6" s="59">
+        <v>56.327040000000004</v>
+      </c>
+      <c r="Q6" s="53" t="str">
+        <v>Praia do Cassino Beach</v>
+      </c>
+      <c r="R6" s="3" t="str">
+        <v>Brazil</v>
+      </c>
+      <c r="S6" s="3">
+        <v>150</v>
+      </c>
+      <c r="T6" s="59">
+        <v>241.4016</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>56</v>
+      </c>
+      <c r="E7" s="21">
+        <v>90.123263999999992</v>
+      </c>
+      <c r="G7" s="53" t="str">
+        <v>Ninety Mile Beach</v>
+      </c>
+      <c r="H7" s="3" t="str">
+        <v>New Zealand</v>
+      </c>
+      <c r="I7" s="3">
+        <v>55</v>
+      </c>
+      <c r="J7" s="59">
+        <v>89</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="53" t="str">
+        <v>Ninety Mile Beach</v>
+      </c>
+      <c r="M7" s="3" t="str">
+        <v>New Zealand</v>
+      </c>
+      <c r="N7" s="3">
+        <v>55</v>
+      </c>
+      <c r="O7" s="59">
+        <v>89</v>
+      </c>
+      <c r="Q7" s="53" t="str">
+        <v>Playa Novillero</v>
+      </c>
+      <c r="R7" s="3" t="str">
+        <v>Mexico</v>
+      </c>
+      <c r="S7" s="3">
+        <v>56</v>
+      </c>
+      <c r="T7" s="59">
+        <v>90.123263999999992</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>55</v>
+      </c>
+      <c r="E8" s="21">
+        <v>89</v>
+      </c>
+      <c r="G8" s="53" t="str">
+        <v>Padre Island National Seashore</v>
+      </c>
+      <c r="H8" s="3" t="str">
+        <v>United States</v>
+      </c>
+      <c r="I8" s="3">
+        <v>70</v>
+      </c>
+      <c r="J8" s="59">
+        <v>112.65408000000001</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="53" t="str">
+        <v>Playa Novillero</v>
+      </c>
+      <c r="M8" s="3" t="str">
+        <v>Mexico</v>
+      </c>
+      <c r="N8" s="3">
+        <v>56</v>
+      </c>
+      <c r="O8" s="59">
+        <v>90.123263999999992</v>
+      </c>
+      <c r="Q8" s="53" t="str">
+        <v>Ninety Mile Beach</v>
+      </c>
+      <c r="R8" s="3" t="str">
+        <v>New Zealand</v>
+      </c>
+      <c r="S8" s="3">
+        <v>55</v>
+      </c>
+      <c r="T8" s="59">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>35</v>
+      </c>
+      <c r="E9" s="21">
+        <v>56.327040000000004</v>
+      </c>
+      <c r="G9" s="53" t="str">
+        <v>Playa Novillero</v>
+      </c>
+      <c r="H9" s="3" t="str">
+        <v>Mexico</v>
+      </c>
+      <c r="I9" s="3">
+        <v>56</v>
+      </c>
+      <c r="J9" s="59">
+        <v>90.123263999999992</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="53" t="str">
+        <v>Padre Island National Seashore</v>
+      </c>
+      <c r="M9" s="3" t="str">
+        <v>United States</v>
+      </c>
+      <c r="N9" s="3">
+        <v>70</v>
+      </c>
+      <c r="O9" s="59">
+        <v>112.65408000000001</v>
+      </c>
+      <c r="Q9" s="53" t="str">
+        <v>Muizenberg</v>
+      </c>
+      <c r="R9" s="3" t="str">
+        <v>South Africa</v>
+      </c>
+      <c r="S9" s="3">
+        <v>25</v>
+      </c>
+      <c r="T9" s="59">
+        <v>40.233599999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>28</v>
+      </c>
+      <c r="E10" s="21">
+        <v>45.061631999999996</v>
+      </c>
+      <c r="G10" s="53" t="str">
+        <v>Praia do Cassino Beach</v>
+      </c>
+      <c r="H10" s="3" t="str">
+        <v>Brazil</v>
+      </c>
+      <c r="I10" s="3">
+        <v>150</v>
+      </c>
+      <c r="J10" s="59">
+        <v>241.4016</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="53" t="str">
+        <v>Cox's Bazar</v>
+      </c>
+      <c r="M10" s="3" t="str">
+        <v>Bangladesh</v>
+      </c>
+      <c r="N10" s="3">
+        <v>75</v>
+      </c>
+      <c r="O10" s="59">
+        <v>120.7008</v>
+      </c>
+      <c r="Q10" s="53" t="str">
+        <v>Padre Island National Seashore</v>
+      </c>
+      <c r="R10" s="3" t="str">
+        <v>United States</v>
+      </c>
+      <c r="S10" s="3">
+        <v>70</v>
+      </c>
+      <c r="T10" s="59">
+        <v>112.65408000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>25</v>
+      </c>
+      <c r="E11" s="21">
+        <v>40.233599999999996</v>
+      </c>
+      <c r="G11" s="53" t="str">
+        <v>Stockton Beach</v>
+      </c>
+      <c r="H11" s="3" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="I11" s="3">
+        <v>20</v>
+      </c>
+      <c r="J11" s="59">
+        <v>32.186880000000002</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="53" t="str">
+        <v>Ninety Mile Beach</v>
+      </c>
+      <c r="M11" s="3" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="N11" s="3">
+        <v>94</v>
+      </c>
+      <c r="O11" s="59">
+        <v>151</v>
+      </c>
+      <c r="Q11" s="53" t="str">
+        <v>Virginia Beach</v>
+      </c>
+      <c r="R11" s="3" t="str">
+        <v>United States</v>
+      </c>
+      <c r="S11" s="3">
+        <v>35</v>
+      </c>
+      <c r="T11" s="59">
+        <v>56.327040000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="23">
+        <v>20</v>
+      </c>
+      <c r="E12" s="24">
+        <v>32.186880000000002</v>
+      </c>
+      <c r="G12" s="60" t="str">
+        <v>Virginia Beach</v>
+      </c>
+      <c r="H12" s="35" t="str">
+        <v>United States</v>
+      </c>
+      <c r="I12" s="35">
+        <v>35</v>
+      </c>
+      <c r="J12" s="61">
+        <v>56.327040000000004</v>
+      </c>
+      <c r="L12" s="60" t="str">
+        <v>Praia do Cassino Beach</v>
+      </c>
+      <c r="M12" s="35" t="str">
+        <v>Brazil</v>
+      </c>
+      <c r="N12" s="35">
+        <v>150</v>
+      </c>
+      <c r="O12" s="61">
+        <v>241.4016</v>
+      </c>
+      <c r="Q12" s="60" t="str">
         <v>Long Beach</v>
       </c>
-      <c r="H4" s="42" t="str">
+      <c r="R12" s="35" t="str">
         <v>United States</v>
       </c>
-      <c r="I4" s="42">
+      <c r="S12" s="35">
         <v>28</v>
       </c>
-      <c r="J4" s="65">
+      <c r="T12" s="61">
         <v>45.061631999999996</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="58" t="str">
-        <v>Muizenberg</v>
-      </c>
-      <c r="M4" s="42" t="str">
-        <v>South Africa</v>
-      </c>
-      <c r="N4" s="42">
-        <v>25</v>
-      </c>
-      <c r="O4" s="65">
-        <v>40.233599999999996</v>
-      </c>
-      <c r="Q4" s="58" t="str">
-        <v>Stockton Beach</v>
-      </c>
-      <c r="R4" s="42" t="str">
-        <v>Australia</v>
-      </c>
-      <c r="S4" s="42">
-        <v>20</v>
-      </c>
-      <c r="T4" s="65">
-        <v>32.186880000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="23">
-        <v>75</v>
-      </c>
-      <c r="E5" s="25">
-        <v>120.7008</v>
-      </c>
-      <c r="G5" s="58" t="str">
-        <v>Muizenberg</v>
-      </c>
-      <c r="H5" s="42" t="str">
-        <v>South Africa</v>
-      </c>
-      <c r="I5" s="42">
-        <v>25</v>
-      </c>
-      <c r="J5" s="65">
-        <v>40.233599999999996</v>
-      </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="58" t="str">
-        <v>Long Beach</v>
-      </c>
-      <c r="M5" s="42" t="str">
-        <v>United States</v>
-      </c>
-      <c r="N5" s="42">
-        <v>28</v>
-      </c>
-      <c r="O5" s="65">
-        <v>45.061631999999996</v>
-      </c>
-      <c r="Q5" s="58" t="str">
-        <v>Cox's Bazar</v>
-      </c>
-      <c r="R5" s="42" t="str">
-        <v>Bangladesh</v>
-      </c>
-      <c r="S5" s="42">
-        <v>75</v>
-      </c>
-      <c r="T5" s="65">
-        <v>120.7008</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="23">
-        <v>70</v>
-      </c>
-      <c r="E6" s="25">
-        <v>112.65408000000001</v>
-      </c>
-      <c r="G6" s="58" t="str">
-        <v>Ninety Mile Beach</v>
-      </c>
-      <c r="H6" s="42" t="str">
-        <v>Australia</v>
-      </c>
-      <c r="I6" s="42">
-        <v>94</v>
-      </c>
-      <c r="J6" s="65">
-        <v>151</v>
-      </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="58" t="str">
-        <v>Virginia Beach</v>
-      </c>
-      <c r="M6" s="42" t="str">
-        <v>United States</v>
-      </c>
-      <c r="N6" s="42">
-        <v>35</v>
-      </c>
-      <c r="O6" s="65">
-        <v>56.327040000000004</v>
-      </c>
-      <c r="Q6" s="58" t="str">
-        <v>Praia do Cassino Beach</v>
-      </c>
-      <c r="R6" s="42" t="str">
-        <v>Brazil</v>
-      </c>
-      <c r="S6" s="42">
-        <v>150</v>
-      </c>
-      <c r="T6" s="65">
-        <v>241.4016</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="23">
-        <v>56</v>
-      </c>
-      <c r="E7" s="25">
-        <v>90.123263999999992</v>
-      </c>
-      <c r="G7" s="58" t="str">
-        <v>Ninety Mile Beach</v>
-      </c>
-      <c r="H7" s="42" t="str">
-        <v>New Zealand</v>
-      </c>
-      <c r="I7" s="42">
-        <v>55</v>
-      </c>
-      <c r="J7" s="65">
-        <v>89</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="58" t="str">
-        <v>Ninety Mile Beach</v>
-      </c>
-      <c r="M7" s="42" t="str">
-        <v>New Zealand</v>
-      </c>
-      <c r="N7" s="42">
-        <v>55</v>
-      </c>
-      <c r="O7" s="65">
-        <v>89</v>
-      </c>
-      <c r="Q7" s="58" t="str">
-        <v>Playa Novillero</v>
-      </c>
-      <c r="R7" s="42" t="str">
-        <v>Mexico</v>
-      </c>
-      <c r="S7" s="42">
-        <v>56</v>
-      </c>
-      <c r="T7" s="65">
-        <v>90.123263999999992</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="23">
-        <v>55</v>
-      </c>
-      <c r="E8" s="25">
-        <v>89</v>
-      </c>
-      <c r="G8" s="58" t="str">
-        <v>Padre Island National Seashore</v>
-      </c>
-      <c r="H8" s="42" t="str">
-        <v>United States</v>
-      </c>
-      <c r="I8" s="42">
-        <v>70</v>
-      </c>
-      <c r="J8" s="65">
-        <v>112.65408000000001</v>
-      </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="58" t="str">
-        <v>Playa Novillero</v>
-      </c>
-      <c r="M8" s="42" t="str">
-        <v>Mexico</v>
-      </c>
-      <c r="N8" s="42">
-        <v>56</v>
-      </c>
-      <c r="O8" s="65">
-        <v>90.123263999999992</v>
-      </c>
-      <c r="Q8" s="58" t="str">
-        <v>Ninety Mile Beach</v>
-      </c>
-      <c r="R8" s="42" t="str">
-        <v>New Zealand</v>
-      </c>
-      <c r="S8" s="42">
-        <v>55</v>
-      </c>
-      <c r="T8" s="65">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="23">
-        <v>35</v>
-      </c>
-      <c r="E9" s="25">
-        <v>56.327040000000004</v>
-      </c>
-      <c r="G9" s="58" t="str">
-        <v>Playa Novillero</v>
-      </c>
-      <c r="H9" s="42" t="str">
-        <v>Mexico</v>
-      </c>
-      <c r="I9" s="42">
-        <v>56</v>
-      </c>
-      <c r="J9" s="65">
-        <v>90.123263999999992</v>
-      </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="58" t="str">
-        <v>Padre Island National Seashore</v>
-      </c>
-      <c r="M9" s="42" t="str">
-        <v>United States</v>
-      </c>
-      <c r="N9" s="42">
-        <v>70</v>
-      </c>
-      <c r="O9" s="65">
-        <v>112.65408000000001</v>
-      </c>
-      <c r="Q9" s="58" t="str">
-        <v>Muizenberg</v>
-      </c>
-      <c r="R9" s="42" t="str">
-        <v>South Africa</v>
-      </c>
-      <c r="S9" s="42">
-        <v>25</v>
-      </c>
-      <c r="T9" s="65">
-        <v>40.233599999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="23">
-        <v>28</v>
-      </c>
-      <c r="E10" s="25">
-        <v>45.061631999999996</v>
-      </c>
-      <c r="G10" s="58" t="str">
-        <v>Praia do Cassino Beach</v>
-      </c>
-      <c r="H10" s="42" t="str">
-        <v>Brazil</v>
-      </c>
-      <c r="I10" s="42">
-        <v>150</v>
-      </c>
-      <c r="J10" s="65">
-        <v>241.4016</v>
-      </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="58" t="str">
-        <v>Cox's Bazar</v>
-      </c>
-      <c r="M10" s="42" t="str">
-        <v>Bangladesh</v>
-      </c>
-      <c r="N10" s="42">
-        <v>75</v>
-      </c>
-      <c r="O10" s="65">
-        <v>120.7008</v>
-      </c>
-      <c r="Q10" s="58" t="str">
-        <v>Padre Island National Seashore</v>
-      </c>
-      <c r="R10" s="42" t="str">
-        <v>United States</v>
-      </c>
-      <c r="S10" s="42">
-        <v>70</v>
-      </c>
-      <c r="T10" s="65">
-        <v>112.65408000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="23">
-        <v>25</v>
-      </c>
-      <c r="E11" s="25">
-        <v>40.233599999999996</v>
-      </c>
-      <c r="G11" s="58" t="str">
-        <v>Stockton Beach</v>
-      </c>
-      <c r="H11" s="42" t="str">
-        <v>Australia</v>
-      </c>
-      <c r="I11" s="42">
-        <v>20</v>
-      </c>
-      <c r="J11" s="65">
-        <v>32.186880000000002</v>
-      </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="58" t="str">
-        <v>Ninety Mile Beach</v>
-      </c>
-      <c r="M11" s="42" t="str">
-        <v>Australia</v>
-      </c>
-      <c r="N11" s="42">
-        <v>94</v>
-      </c>
-      <c r="O11" s="65">
-        <v>151</v>
-      </c>
-      <c r="Q11" s="58" t="str">
-        <v>Virginia Beach</v>
-      </c>
-      <c r="R11" s="42" t="str">
-        <v>United States</v>
-      </c>
-      <c r="S11" s="42">
-        <v>35</v>
-      </c>
-      <c r="T11" s="65">
-        <v>56.327040000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="27">
-        <v>20</v>
-      </c>
-      <c r="E12" s="28">
-        <v>32.186880000000002</v>
-      </c>
-      <c r="G12" s="66" t="str">
-        <v>Virginia Beach</v>
-      </c>
-      <c r="H12" s="39" t="str">
-        <v>United States</v>
-      </c>
-      <c r="I12" s="39">
-        <v>35</v>
-      </c>
-      <c r="J12" s="67">
-        <v>56.327040000000004</v>
-      </c>
-      <c r="L12" s="66" t="str">
-        <v>Praia do Cassino Beach</v>
-      </c>
-      <c r="M12" s="39" t="str">
-        <v>Brazil</v>
-      </c>
-      <c r="N12" s="39">
-        <v>150</v>
-      </c>
-      <c r="O12" s="67">
-        <v>241.4016</v>
-      </c>
-      <c r="Q12" s="66" t="str">
-        <v>Long Beach</v>
-      </c>
-      <c r="R12" s="39" t="str">
-        <v>United States</v>
-      </c>
-      <c r="S12" s="39">
-        <v>28</v>
-      </c>
-      <c r="T12" s="67">
-        <v>45.061631999999996</v>
-      </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="Q15" s="7" t="s">
-        <v>89</v>
+      <c r="Q15" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q17" s="7"/>
+      <c r="Q17" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E12">
@@ -2425,408 +2409,409 @@
   <dimension ref="B1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="6" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="topRight" activeCell="R15" sqref="R15"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
     <col min="7" max="7" width="30.7109375" customWidth="1"/>
     <col min="8" max="9" width="15.7109375" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" customWidth="1"/>
     <col min="13" max="15" width="15.7109375" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" customWidth="1"/>
     <col min="17" max="17" width="15.7109375" customWidth="1"/>
     <col min="18" max="18" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
-      <c r="G1" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21"/>
-      <c r="L1" s="19" t="s">
+      <c r="B1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+      <c r="G1" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
+      <c r="L1" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
+      <c r="Q1" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1" s="18"/>
+    </row>
+    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="23"/>
+      <c r="J2" s="33"/>
+      <c r="L2" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="20"/>
+      <c r="Q2" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" s="33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>75</v>
+      </c>
+      <c r="E3" s="21">
+        <v>120.7008</v>
+      </c>
+      <c r="L3" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="23">
+        <v>35</v>
+      </c>
+      <c r="N3" s="23"/>
+      <c r="O3" s="33"/>
+    </row>
+    <row r="4" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>28</v>
+      </c>
+      <c r="E4" s="21">
+        <v>45.061631999999996</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="31"/>
+      <c r="Q4" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="21"/>
-      <c r="Q1" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="R1" s="21"/>
-    </row>
-    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="62" t="s">
+      <c r="R4" s="31"/>
+    </row>
+    <row r="5" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5" s="21">
+        <v>40.233599999999996</v>
+      </c>
+      <c r="G5" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="H5" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="I5" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="J5" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="L5" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="37"/>
-      <c r="L2" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="M2" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="24"/>
-      <c r="Q2" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="R2" s="37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="23">
-        <v>75</v>
-      </c>
-      <c r="E3" s="25">
-        <v>120.7008</v>
-      </c>
-      <c r="L3" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="M3" s="27">
-        <v>35</v>
-      </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="37"/>
-    </row>
-    <row r="4" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="23">
-        <v>28</v>
-      </c>
-      <c r="E4" s="25">
-        <v>45.061631999999996</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="35"/>
-      <c r="Q4" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="R4" s="35"/>
-    </row>
-    <row r="5" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="23">
-        <v>25</v>
-      </c>
-      <c r="E5" s="25">
-        <v>40.233599999999996</v>
-      </c>
-      <c r="G5" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="35"/>
-      <c r="Q5" s="56" t="str" cm="1">
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="31"/>
+      <c r="Q5" s="51" t="str" cm="1">
         <f t="array" ref="Q5:Q7">_xlfn._xlws.FILTER(B3:B12&amp;": "&amp;D3:D12&amp;" miles",C3:C12=R2)</f>
         <v>Long Beach: 28 miles</v>
       </c>
-      <c r="R5" s="24"/>
+      <c r="R5" s="20"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="23">
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
         <v>94</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="21">
         <v>151</v>
       </c>
-      <c r="G6" s="96" t="str" cm="1">
+      <c r="G6" s="82" t="str" cm="1">
         <f t="array" ref="G6:J8">_xlfn._xlws.FILTER(B3:E12,C3:C12=H2,"No matches found")</f>
         <v>Long Beach</v>
       </c>
-      <c r="H6" s="42" t="str">
+      <c r="H6" s="3" t="str">
         <v>United States</v>
       </c>
-      <c r="I6" s="42">
+      <c r="I6" s="3">
         <v>28</v>
       </c>
-      <c r="J6" s="65">
+      <c r="J6" s="59">
         <v>45.061631999999996</v>
       </c>
-      <c r="L6" s="78" t="s">
+      <c r="L6" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="63" t="s">
+      <c r="M6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="N6" s="63" t="s">
+      <c r="N6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="77" t="s">
+      <c r="O6" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="22" t="str">
+      <c r="Q6" s="19" t="str">
         <v>Padre Island National Seashore: 70 miles</v>
       </c>
-      <c r="R6" s="24"/>
+      <c r="R6" s="20"/>
     </row>
     <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7">
         <v>55</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="21">
         <v>89</v>
       </c>
-      <c r="G7" s="58" t="str">
+      <c r="G7" s="53" t="str">
         <v>Padre Island National Seashore</v>
       </c>
-      <c r="H7" s="42" t="str">
+      <c r="H7" s="3" t="str">
         <v>United States</v>
       </c>
-      <c r="I7" s="42">
+      <c r="I7" s="3">
         <v>70</v>
       </c>
-      <c r="J7" s="65">
+      <c r="J7" s="59">
         <v>112.65408000000001</v>
       </c>
-      <c r="L7" s="56" t="str" cm="1">
+      <c r="L7" s="51" t="str" cm="1">
         <f t="array" ref="L7:O8">_xlfn._xlws.FILTER(B3:E12,(C3:C12=M2)*(D3:D12&gt;=M3))</f>
         <v>Padre Island National Seashore</v>
       </c>
-      <c r="M7" s="23" t="str">
+      <c r="M7" t="str">
         <v>United States</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7">
         <v>70</v>
       </c>
-      <c r="O7" s="47">
+      <c r="O7" s="42">
         <v>112.65408000000001</v>
       </c>
-      <c r="Q7" s="26" t="str">
+      <c r="Q7" s="22" t="str">
         <v>Virginia Beach: 35 miles</v>
       </c>
-      <c r="R7" s="37"/>
+      <c r="R7" s="33"/>
     </row>
     <row r="8" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>70</v>
+      </c>
+      <c r="E8" s="21">
+        <v>112.65408000000001</v>
+      </c>
+      <c r="G8" s="22" t="str">
+        <v>Virginia Beach</v>
+      </c>
+      <c r="H8" s="23" t="str">
+        <v>United States</v>
+      </c>
+      <c r="I8" s="23">
+        <v>35</v>
+      </c>
+      <c r="J8" s="44">
+        <v>56.327040000000004</v>
+      </c>
+      <c r="L8" s="22" t="str">
+        <v>Virginia Beach</v>
+      </c>
+      <c r="M8" s="23" t="str">
+        <v>United States</v>
+      </c>
+      <c r="N8" s="23">
+        <v>35</v>
+      </c>
+      <c r="O8" s="44">
+        <v>56.327040000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>56</v>
+      </c>
+      <c r="E9" s="21">
+        <v>90.123263999999992</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <v>150</v>
+      </c>
+      <c r="E10" s="21">
+        <v>241.4016</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="23">
-        <v>70</v>
-      </c>
-      <c r="E8" s="25">
-        <v>112.65408000000001</v>
-      </c>
-      <c r="G8" s="26" t="str">
-        <v>Virginia Beach</v>
-      </c>
-      <c r="H8" s="27" t="str">
-        <v>United States</v>
-      </c>
-      <c r="I8" s="27">
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11" s="21">
+        <v>32.186880000000002</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="31"/>
+    </row>
+    <row r="12" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="23">
         <v>35</v>
       </c>
-      <c r="J8" s="49">
+      <c r="E12" s="24">
         <v>56.327040000000004</v>
       </c>
-      <c r="L8" s="26" t="str">
-        <v>Virginia Beach</v>
-      </c>
-      <c r="M8" s="27" t="str">
-        <v>United States</v>
-      </c>
-      <c r="N8" s="27">
-        <v>35</v>
-      </c>
-      <c r="O8" s="49">
-        <v>56.327040000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="23">
-        <v>56</v>
-      </c>
-      <c r="E9" s="25">
-        <v>90.123263999999992</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="23">
-        <v>150</v>
-      </c>
-      <c r="E10" s="25">
-        <v>241.4016</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="23">
+      <c r="G12" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="25">
-        <v>32.186880000000002</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="35"/>
-    </row>
-    <row r="12" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="27">
-        <v>35</v>
-      </c>
-      <c r="E12" s="28">
-        <v>56.327040000000004</v>
-      </c>
-      <c r="G12" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="45" t="s">
+      <c r="J12" s="40" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="G13" s="56" t="str" cm="1">
+      <c r="G13" s="51" t="str" cm="1">
         <f t="array" ref="G13:J15">_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B3:E12,C3:C12=H2,"No matches found"),3,-1)</f>
         <v>Padre Island National Seashore</v>
       </c>
-      <c r="H13" s="42" t="str">
+      <c r="H13" s="3" t="str">
         <v>United States</v>
       </c>
-      <c r="I13" s="42">
+      <c r="I13" s="3">
         <v>70</v>
       </c>
-      <c r="J13" s="65">
+      <c r="J13" s="59">
         <v>112.65408000000001</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="G14" s="58" t="str">
+      <c r="G14" s="53" t="str">
         <v>Virginia Beach</v>
       </c>
-      <c r="H14" s="42" t="str">
+      <c r="H14" s="3" t="str">
         <v>United States</v>
       </c>
-      <c r="I14" s="42">
+      <c r="I14" s="3">
         <v>35</v>
       </c>
-      <c r="J14" s="65">
+      <c r="J14" s="59">
         <v>56.327040000000004</v>
       </c>
     </row>
     <row r="15" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G15" s="66" t="str">
+      <c r="G15" s="60" t="str">
         <v>Long Beach</v>
       </c>
-      <c r="H15" s="39" t="str">
+      <c r="H15" s="35" t="str">
         <v>United States</v>
       </c>
-      <c r="I15" s="39">
+      <c r="I15" s="35">
         <v>28</v>
       </c>
-      <c r="J15" s="67">
+      <c r="J15" s="61">
         <v>45.061631999999996</v>
       </c>
     </row>
@@ -2839,247 +2824,247 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E0623D-D469-43C7-9759-56619D9C5553}">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="B1:I14"/>
+  <dimension ref="B1:I12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
     <col min="7" max="7" width="30.7109375" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
-      <c r="G1" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="80"/>
+      <c r="B1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+      <c r="G1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="68"/>
     </row>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="81" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="82">
+      <c r="G2" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="23" t="s">
+      <c r="D3">
+        <v>75</v>
+      </c>
+      <c r="E3" s="21">
+        <v>120.7008</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>28</v>
+      </c>
+      <c r="E4" s="21">
+        <v>45.061631999999996</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="23">
-        <v>75</v>
-      </c>
-      <c r="E3" s="25">
-        <v>120.7008</v>
-      </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="23" t="s">
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5" s="21">
+        <v>40.233599999999996</v>
+      </c>
+      <c r="G5" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D6">
+        <v>94</v>
+      </c>
+      <c r="E6" s="21">
+        <v>151</v>
+      </c>
+      <c r="G6" s="51" t="str" cm="1">
+        <f t="array" ref="G6:G12">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(C3:C12,D3:D12&gt;H2)))</f>
+        <v>Australia</v>
+      </c>
+      <c r="H6" s="36" cm="1">
+        <f t="array" ref="H6:H12">COUNTIFS(C3:C12,_xlfn.ANCHORARRAY(G6),D3:D12,"&gt;="&amp;H2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
+      <c r="E7" s="21">
+        <v>89</v>
+      </c>
+      <c r="G7" s="19" t="str">
+        <v>Bangladesh</v>
+      </c>
+      <c r="H7" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>70</v>
+      </c>
+      <c r="E8" s="21">
+        <v>112.65408000000001</v>
+      </c>
+      <c r="G8" s="19" t="str">
+        <v>Brazil</v>
+      </c>
+      <c r="H8" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>56</v>
+      </c>
+      <c r="E9" s="21">
+        <v>90.123263999999992</v>
+      </c>
+      <c r="G9" s="19" t="str">
+        <v>Mexico</v>
+      </c>
+      <c r="H9" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="25">
-        <v>45.061631999999996</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="35"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="23">
-        <v>25</v>
-      </c>
-      <c r="E5" s="25">
-        <v>40.233599999999996</v>
-      </c>
-      <c r="G5" s="78" t="s">
+      <c r="D10">
+        <v>150</v>
+      </c>
+      <c r="E10" s="21">
+        <v>241.4016</v>
+      </c>
+      <c r="G10" s="19" t="str">
+        <v>New Zealand</v>
+      </c>
+      <c r="H10" s="20">
         <v>1</v>
       </c>
-      <c r="H5" s="64" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11" s="21">
+        <v>32.186880000000002</v>
+      </c>
+      <c r="G11" s="19" t="str">
+        <v>South Africa</v>
+      </c>
+      <c r="H11" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="23">
+        <v>35</v>
+      </c>
+      <c r="E12" s="24">
+        <v>56.327040000000004</v>
+      </c>
+      <c r="G12" s="22" t="str">
+        <v>United States</v>
+      </c>
+      <c r="H12" s="33">
         <v>3</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="23">
-        <v>94</v>
-      </c>
-      <c r="E6" s="25">
-        <v>151</v>
-      </c>
-      <c r="G6" s="56" t="str" cm="1">
-        <f t="array" ref="G6:G11">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(C3:C12,D3:D12&gt;H2)))</f>
-        <v>Australia</v>
-      </c>
-      <c r="H6" s="40" cm="1">
-        <f t="array" ref="H6:H11">COUNTIFS(C3:C12,_xlfn.ANCHORARRAY(G6),D3:D12,"&gt;="&amp;H2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="23">
-        <v>55</v>
-      </c>
-      <c r="E7" s="25">
-        <v>89</v>
-      </c>
-      <c r="G7" s="22" t="str">
-        <v>Bangladesh</v>
-      </c>
-      <c r="H7" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="23">
-        <v>70</v>
-      </c>
-      <c r="E8" s="25">
-        <v>112.65408000000001</v>
-      </c>
-      <c r="G8" s="22" t="str">
-        <v>Brazil</v>
-      </c>
-      <c r="H8" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="23">
-        <v>56</v>
-      </c>
-      <c r="E9" s="25">
-        <v>90.123263999999992</v>
-      </c>
-      <c r="G9" s="22" t="str">
-        <v>Mexico</v>
-      </c>
-      <c r="H9" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="23">
-        <v>150</v>
-      </c>
-      <c r="E10" s="25">
-        <v>241.4016</v>
-      </c>
-      <c r="G10" s="22" t="str">
-        <v>New Zealand</v>
-      </c>
-      <c r="H10" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="23">
-        <v>20</v>
-      </c>
-      <c r="E11" s="25">
-        <v>32.186880000000002</v>
-      </c>
-      <c r="G11" s="26" t="str">
-        <v>United States</v>
-      </c>
-      <c r="H11" s="37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="27">
-        <v>35</v>
-      </c>
-      <c r="E12" s="28">
-        <v>56.327040000000004</v>
-      </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G14" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3093,9 +3078,9 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:L128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3104,70 +3089,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="A1" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="12">
+      <c r="A2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="10">
         <v>45292</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="9">
+        <v>5.2499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="B3" s="10">
-        <v>5.2499999999999998E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="11">
+      <c r="A5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="83">
         <v>5000</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="13">
+      <c r="A6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="84">
         <f>-PMT(B3/12,B4,B5)</f>
         <v>846.14017033510913</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="C8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>38</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -3175,19 +3160,19 @@
         <f t="array" ref="A9:A14">_xlfn.SEQUENCE(B4)</f>
         <v>1</v>
       </c>
-      <c r="B9" s="14" cm="1">
+      <c r="B9" s="11" cm="1">
         <f t="array" ref="B9:B14">EOMONTH(B2,_xlfn.ANCHORARRAY(A9)-2)+1</f>
         <v>45292</v>
       </c>
-      <c r="C9" s="6" cm="1">
+      <c r="C9" s="84" cm="1">
         <f t="array" ref="C9:C14">-IPMT(B3/12,_xlfn.ANCHORARRAY(A9),B4,B5)</f>
         <v>21.874999999999996</v>
       </c>
-      <c r="D9" s="6" cm="1">
+      <c r="D9" s="84" cm="1">
         <f t="array" ref="D9:D14">-PPMT(B3/12,_xlfn.ANCHORARRAY(A9),B4,B5)</f>
         <v>824.26517033510913</v>
       </c>
-      <c r="E9" s="94" cm="1">
+      <c r="E9" s="84" cm="1">
         <f t="array" ref="E9:E14">SUMIF(_xlfn.ANCHORARRAY(A9),"&gt;"&amp;_xlfn.ANCHORARRAY(A9),_xlfn.ANCHORARRAY(D9))</f>
         <v>4175.7348296648897</v>
       </c>
@@ -3196,16 +3181,16 @@
       <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="10">
         <v>45323</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>18.26883987978389</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>827.87133045532528</v>
       </c>
-      <c r="E10" s="92">
+      <c r="E10" s="79">
         <v>3347.8634992095649</v>
       </c>
     </row>
@@ -3213,16 +3198,16 @@
       <c r="A11">
         <v>3</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="10">
         <v>45352</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>14.646902809041848</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>831.49326752606737</v>
       </c>
-      <c r="E11" s="92">
+      <c r="E11" s="79">
         <v>2516.370231683497</v>
       </c>
     </row>
@@ -3230,16 +3215,16 @@
       <c r="A12">
         <v>4</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="10">
         <v>45383</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>11.009119763615301</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>835.1310505714938</v>
       </c>
-      <c r="E12" s="92">
+      <c r="E12" s="79">
         <v>1681.2391811120033</v>
       </c>
     </row>
@@ -3247,722 +3232,722 @@
       <c r="A13">
         <v>5</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="10">
         <v>45413</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>7.3554214173650143</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>838.78474891774408</v>
       </c>
-      <c r="E13" s="92">
+      <c r="E13" s="79">
         <v>842.4544321942592</v>
       </c>
-      <c r="L13" s="93"/>
+      <c r="L13" s="80"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="10">
         <v>45444</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>3.6857381408498848</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>842.4544321942592</v>
       </c>
-      <c r="E14" s="92">
+      <c r="E14" s="79">
         <v>0</v>
       </c>
-      <c r="L14" s="93"/>
+      <c r="L14" s="80"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="12"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="L15" s="93"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="L15" s="80"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="12"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="12"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="12"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="12"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="12"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="12"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="12"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="12"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="12"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="12"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="12"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="12"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="12"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="12"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="12"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="12"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="12"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="12"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="12"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="12"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="12"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="12"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="12"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="12"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="12"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="12"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="12"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="12"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="12"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="12"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="12"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="12"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="12"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="12"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="12"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="12"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="12"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="12"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="12"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="12"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="12"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="12"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="12"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="12"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="12"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="12"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="12"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="12"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="12"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="12"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="12"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="12"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="12"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="12"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="12"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="12"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="12"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="12"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="12"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="12"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="12"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="12"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="12"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="12"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="12"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="12"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="12"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="12"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="12"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="12"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="12"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="12"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="12"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="12"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="12"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="12"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="12"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="12"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="12"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B97" s="12"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B98" s="12"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="12"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B100" s="12"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B101" s="12"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B102" s="12"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B103" s="12"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B104" s="12"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B105" s="12"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B106" s="12"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B107" s="12"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B108" s="12"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B109" s="12"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B110" s="12"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B111" s="12"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B112" s="12"/>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B113" s="12"/>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B114" s="12"/>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B115" s="12"/>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B116" s="12"/>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B117" s="12"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B118" s="12"/>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B119" s="12"/>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B120" s="12"/>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B121" s="12"/>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B122" s="12"/>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
+      <c r="B122" s="10"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B123" s="12"/>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
+      <c r="B123" s="10"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B124" s="12"/>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B125" s="12"/>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B126" s="12"/>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B127" s="12"/>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
+      <c r="B127" s="10"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B128" s="12"/>
-      <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3976,9 +3961,9 @@
   <dimension ref="B1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="topRight" activeCell="K6" sqref="K6"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3986,74 +3971,74 @@
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
     <col min="3" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
     <col min="7" max="7" width="30.7109375" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" customWidth="1"/>
     <col min="9" max="9" width="47.140625" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" customWidth="1"/>
     <col min="11" max="11" width="30.7109375" customWidth="1"/>
     <col min="12" max="14" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="G1" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" s="19" t="s">
+      <c r="B1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="G1" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="68"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="80"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="27"/>
-      <c r="N2" s="37"/>
+      <c r="L2" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="23"/>
+      <c r="N2" s="33"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="23">
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
         <v>75</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="21">
         <v>120.7008</v>
       </c>
       <c r="G3" s="2" t="e" cm="1" vm="1">
@@ -4066,159 +4051,159 @@
       </c>
     </row>
     <row r="4" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="23">
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
         <v>28</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="21">
         <v>45.061631999999996</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="35"/>
+        <v>40</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="31"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="23">
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
         <v>25</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="21">
         <v>40.233599999999996</v>
       </c>
-      <c r="K5" s="78" t="s">
+      <c r="K5" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="63" t="s">
+      <c r="L5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="63" t="s">
+      <c r="M5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="64" t="s">
+      <c r="N5" s="58" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6">
         <v>55</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="21">
         <v>151.27833600000002</v>
       </c>
-      <c r="K6" s="57" t="e" cm="1" vm="2">
+      <c r="K6" s="52" t="e" cm="1" vm="2">
         <f t="array" ref="K6">_xlfn._xlws.FILTER(B3:D12,C3:C12=L2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="37"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="33"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="23">
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
         <v>94</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="21">
         <v>88.513919999999999</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>70</v>
+      </c>
+      <c r="E8" s="21">
+        <v>112.65408000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>56</v>
+      </c>
+      <c r="E9" s="21">
+        <v>90.123263999999992</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <v>150</v>
+      </c>
+      <c r="E10" s="21">
+        <v>241.4016</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="23">
-        <v>70</v>
-      </c>
-      <c r="E8" s="25">
-        <v>112.65408000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="23">
-        <v>56</v>
-      </c>
-      <c r="E9" s="25">
-        <v>90.123263999999992</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="23">
-        <v>150</v>
-      </c>
-      <c r="E10" s="25">
-        <v>241.4016</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="23">
+      <c r="D11">
         <v>20</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="21">
         <v>32.186880000000002</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="27">
+      <c r="C12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="23">
         <v>35</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="24">
         <v>56.327040000000004</v>
       </c>
     </row>
@@ -4239,27 +4224,27 @@
   <cols>
     <col min="1" max="1" width="2.140625" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B1" s="83" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="83" t="s">
-        <v>82</v>
+      <c r="B1" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="70" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="54">
+      <c r="B2" s="49">
         <f ca="1">RAND()</f>
-        <v>8.7284404112587199E-2</v>
-      </c>
-      <c r="D2" s="54">
+        <v>0.92055712551966473</v>
+      </c>
+      <c r="D2" s="49">
         <f ca="1">RANDBETWEEN(100,500)</f>
-        <v>446</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -4273,143 +4258,143 @@
   <dimension ref="B1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
     <col min="7" max="7" width="27.140625" customWidth="1"/>
-    <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="9" max="9" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B1" s="83" t="s">
+    <row r="1" spans="2:9" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="B1" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="72"/>
+      <c r="G1" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="84" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="85"/>
-      <c r="G1" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" s="83" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="53" cm="1">
+      <c r="B2" s="48" cm="1">
         <f t="array" aca="1" ref="B2:B4" ca="1">_xlfn.RANDARRAY(3)</f>
-        <v>7.6808863712929387E-4</v>
-      </c>
-      <c r="D2" s="56" cm="1">
+        <v>0.13391230197170878</v>
+      </c>
+      <c r="D2" s="51" cm="1">
         <f t="array" aca="1" ref="D2:E5" ca="1">_xlfn.RANDARRAY(4,2)</f>
-        <v>0.73223118290630129</v>
-      </c>
-      <c r="E2" s="41">
+        <v>0.15994896592990315</v>
+      </c>
+      <c r="E2" s="37">
         <f ca="1"/>
-        <v>0.78374110765959415</v>
-      </c>
-      <c r="G2" s="53" cm="1">
+        <v>0.63186121631357173</v>
+      </c>
+      <c r="G2" s="48" cm="1">
         <f t="array" aca="1" ref="G2:G7" ca="1">_xlfn.RANDARRAY(6,1,100,500)</f>
-        <v>178.31220023038338</v>
-      </c>
-      <c r="I2" s="53" cm="1">
+        <v>136.93619547168385</v>
+      </c>
+      <c r="I2" s="48" cm="1">
         <f t="array" aca="1" ref="I2:I7" ca="1">_xlfn.RANDARRAY(6,1,100,500,TRUE)</f>
-        <v>384</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="55">
+      <c r="B3" s="50">
         <f ca="1"/>
-        <v>0.28700294726898279</v>
-      </c>
-      <c r="D3" s="58">
+        <v>0.46432266007958178</v>
+      </c>
+      <c r="D3" s="53">
         <f ca="1"/>
-        <v>0.53436743316517732</v>
-      </c>
-      <c r="E3" s="41">
+        <v>0.88523140585480742</v>
+      </c>
+      <c r="E3" s="37">
         <f ca="1"/>
-        <v>0.28150891709082915</v>
-      </c>
-      <c r="G3" s="55">
+        <v>0.7475720528172578</v>
+      </c>
+      <c r="G3" s="50">
         <f ca="1"/>
-        <v>474.97519652202004</v>
-      </c>
-      <c r="I3" s="55">
+        <v>492.80970266444763</v>
+      </c>
+      <c r="I3" s="50">
         <f ca="1"/>
-        <v>414</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="79">
+      <c r="B4" s="67">
         <f ca="1"/>
-        <v>0.60321217679830119</v>
-      </c>
-      <c r="D4" s="58">
+        <v>0.42488827017597641</v>
+      </c>
+      <c r="D4" s="53">
         <f ca="1"/>
-        <v>3.7955857644944357E-2</v>
-      </c>
-      <c r="E4" s="41">
+        <v>0.38242164022380054</v>
+      </c>
+      <c r="E4" s="37">
         <f ca="1"/>
-        <v>0.21168276602763059</v>
-      </c>
-      <c r="G4" s="55">
+        <v>0.50398033027708822</v>
+      </c>
+      <c r="G4" s="50">
         <f ca="1"/>
-        <v>432.48488928034965</v>
-      </c>
-      <c r="I4" s="55">
+        <v>202.0074344907876</v>
+      </c>
+      <c r="I4" s="50">
         <f ca="1"/>
-        <v>245</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
-      <c r="D5" s="66">
+      <c r="D5" s="60">
         <f ca="1"/>
-        <v>1.6599494358788824E-2</v>
-      </c>
-      <c r="E5" s="32">
+        <v>0.23356584230688915</v>
+      </c>
+      <c r="E5" s="28">
         <f ca="1"/>
-        <v>0.41356464694299078</v>
-      </c>
-      <c r="G5" s="55">
+        <v>0.90943697523066303</v>
+      </c>
+      <c r="G5" s="50">
         <f ca="1"/>
-        <v>133.96981267800493</v>
-      </c>
-      <c r="I5" s="55">
+        <v>442.36931035063481</v>
+      </c>
+      <c r="I5" s="50">
         <f ca="1"/>
-        <v>231</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="G6" s="55">
+      <c r="G6" s="50">
         <f ca="1"/>
-        <v>496.79299571107873</v>
-      </c>
-      <c r="I6" s="55">
+        <v>343.05167723396823</v>
+      </c>
+      <c r="I6" s="50">
         <f ca="1"/>
-        <v>468</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G7" s="79">
+      <c r="G7" s="67">
         <f ca="1"/>
-        <v>141.23106621786752</v>
-      </c>
-      <c r="I7" s="79">
+        <v>396.27011079523305</v>
+      </c>
+      <c r="I7" s="67">
         <f ca="1"/>
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -4424,9 +4409,9 @@
   <dimension ref="B1:M12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="topRight" activeCell="L3" sqref="L3"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4436,111 +4421,112 @@
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="28.7109375" customWidth="1"/>
-    <col min="8" max="10" width="10.7109375" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" customWidth="1"/>
     <col min="11" max="11" width="28.7109375" customWidth="1"/>
     <col min="12" max="13" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="K1" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="K1" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="58" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="H2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="78" t="s">
+      <c r="K2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="63" t="s">
+      <c r="L2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="64" t="s">
+      <c r="M2" s="58" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="23">
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
         <v>75</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="21">
         <v>120.7008</v>
       </c>
       <c r="F3" s="4"/>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="32">
         <f>_xlfn.XLOOKUP($G3,$B3:$B12,D3:D12)</f>
         <v>94</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="28">
         <f>_xlfn.XLOOKUP($G3,$B3:$B12,E3:E12)</f>
         <v>151</v>
       </c>
-      <c r="K3" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="L3" s="36" t="e">
+      <c r="K3" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" s="32" t="e">
         <f>_xlfn.XLOOKUP($K3,$B3:$B12,D3:D12)</f>
         <v>#N/A</v>
       </c>
-      <c r="M3" s="32" t="e">
+      <c r="M3" s="28" t="e">
         <f>_xlfn.XLOOKUP($K3,$B3:$B12,E3:E12)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="23">
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
         <v>28</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="21">
         <v>45.061631999999996</v>
       </c>
       <c r="F4" s="4"/>
@@ -4548,16 +4534,16 @@
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="23">
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
         <v>25</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="21">
         <v>40.233599999999996</v>
       </c>
       <c r="F5" s="4"/>
@@ -4565,156 +4551,156 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="23">
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
         <v>94</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="21">
         <v>151</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="K6" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
+      <c r="G6" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="K6" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7">
         <v>55</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="21">
         <v>89</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="78" t="s">
+      <c r="G7" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="63" t="s">
+      <c r="H7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="64" t="s">
+      <c r="I7" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="78" t="s">
+      <c r="K7" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="L7" s="87" t="s">
+      <c r="L7" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="88" t="s">
+      <c r="M7" s="75" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="23">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
         <v>70</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="21">
         <v>112.65408000000001</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="32">
         <f>SUMIF($B3:$B12,$G8,D3:D12)</f>
         <v>149</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="28">
         <f>SUMIF($B3:$B12,$G8,E3:E12)</f>
         <v>240</v>
       </c>
-      <c r="K8" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="L8" s="36">
+      <c r="K8" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" s="32">
         <f>SUMIF($B3:$B12,$K8,D3:D12)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="32">
+      <c r="M8" s="28">
         <f>SUMIF($B3:$B12,$K8,E3:E12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>56</v>
+      </c>
+      <c r="E9" s="21">
+        <v>90.123263999999992</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="23">
-        <v>56</v>
-      </c>
-      <c r="E9" s="25">
-        <v>90.123263999999992</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="23">
+      <c r="D10">
         <v>150</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="21">
         <v>241.4016</v>
       </c>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="23">
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
         <v>20</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="21">
         <v>32.186880000000002</v>
       </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="27">
+      <c r="C12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="23">
         <v>35</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="24">
         <v>56.327040000000004</v>
       </c>
       <c r="F12" s="4"/>
@@ -4734,92 +4720,91 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="B1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="6" width="10.7109375" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
     <col min="7" max="7" width="28.7109375" customWidth="1"/>
     <col min="8" max="9" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
-      <c r="G1" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="H1" s="86"/>
-      <c r="I1" s="29"/>
+      <c r="B1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+      <c r="G1" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="73"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="40" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="23">
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
         <v>75</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="21">
         <v>120.7008</v>
       </c>
-      <c r="G3" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="H3" s="36" t="str">
+      <c r="G3" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="32" t="str">
         <f>_xlfn.IFNA(VLOOKUP($G3,$B$3:$E$12,3,FALSE),"Not found")</f>
         <v>Not found</v>
       </c>
-      <c r="I3" s="32" t="str">
+      <c r="I3" s="28" t="str">
         <f>_xlfn.IFNA(VLOOKUP($G3,$B$3:$E$12,4,FALSE),"Not found")</f>
         <v>Not found</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="23">
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
         <v>28</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="21">
         <v>45.061631999999996</v>
       </c>
       <c r="G4" s="3"/>
@@ -4827,16 +4812,16 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="23">
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
         <v>25</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="21">
         <v>40.233599999999996</v>
       </c>
       <c r="G5" s="3"/>
@@ -4844,125 +4829,125 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="23">
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
         <v>94</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="21">
         <v>151</v>
       </c>
-      <c r="G6" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" s="86"/>
-      <c r="I6" s="29"/>
+      <c r="G6" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="73"/>
+      <c r="I6" s="25"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7">
         <v>55</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="21">
         <v>89</v>
       </c>
-      <c r="G7" s="69" t="s">
+      <c r="G7" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="70" t="s">
+      <c r="H7" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="71" t="s">
+      <c r="I7" s="65" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="23">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
         <v>70</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="21">
         <v>112.65408000000001</v>
       </c>
-      <c r="G8" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="H8" s="36" t="str">
+      <c r="G8" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="32" t="str">
         <f>_xlfn.XLOOKUP($G8,$B3:$B12,D3:D12,"Not found")</f>
         <v>Not found</v>
       </c>
-      <c r="I8" s="32" t="str">
+      <c r="I8" s="28" t="str">
         <f>_xlfn.XLOOKUP($G8,'XLOOKUP vs. SUMIF'!$B2:$B12,'XLOOKUP vs. SUMIF'!E2:E12,"Not found")</f>
         <v>Not found</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>56</v>
+      </c>
+      <c r="E9" s="21">
+        <v>90.123263999999992</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="23">
-        <v>56</v>
-      </c>
-      <c r="E9" s="25">
-        <v>90.123263999999992</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="23">
+      <c r="D10">
         <v>150</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="21">
         <v>241.4016</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="23">
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
         <v>20</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="21">
         <v>32.186880000000002</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="27">
+      <c r="C12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="23">
         <v>35</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="24">
         <v>56.327040000000004</v>
       </c>
     </row>
@@ -4977,247 +4962,247 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="7" width="10.7109375" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
     <col min="8" max="8" width="30.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
-      <c r="G1" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35"/>
+      <c r="B1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+      <c r="G1" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="30"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="90" t="s">
+      <c r="D2" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="91" t="s">
+      <c r="E2" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="H2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="24"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="23">
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3">
         <v>20</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="21">
         <v>32.186880000000002</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="22">
         <v>50</v>
       </c>
-      <c r="H3" s="36" t="str">
+      <c r="H3" s="32" t="str">
         <f>_xlfn.XLOOKUP(G3,D3:D12,B3:B12,,-1)</f>
         <v>Virginia Beach</v>
       </c>
-      <c r="I3" s="37"/>
+      <c r="I3" s="33"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4" s="21">
+        <v>40.233599999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>28</v>
+      </c>
+      <c r="E5" s="21">
+        <v>45.061631999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>35</v>
+      </c>
+      <c r="E6" s="21">
+        <v>56.327040000000004</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="30"/>
+      <c r="I6" s="31"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
+      <c r="E7" s="21">
+        <v>89</v>
+      </c>
+      <c r="G7" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="23">
-        <v>25</v>
-      </c>
-      <c r="E4" s="25">
-        <v>40.233599999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="23">
-        <v>28</v>
-      </c>
-      <c r="E5" s="25">
-        <v>45.061631999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="23">
-        <v>35</v>
-      </c>
-      <c r="E6" s="25">
-        <v>56.327040000000004</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="35"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="23">
-        <v>55</v>
-      </c>
-      <c r="E7" s="25">
-        <v>89</v>
-      </c>
-      <c r="G7" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="64" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="23">
+      <c r="D8">
         <v>56</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="21">
         <v>90.123263999999992</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="22">
         <v>50</v>
       </c>
-      <c r="H8" s="36" t="str" cm="1">
+      <c r="H8" s="32" t="str" cm="1">
         <f t="array" ref="H8:I8">_xlfn.XLOOKUP(G13,D3:D12,B3:C12,,1)</f>
         <v>Ninety Mile Beach</v>
       </c>
-      <c r="I8" s="37" t="str">
+      <c r="I8" s="33" t="str">
         <v>New Zealand</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>70</v>
+      </c>
+      <c r="E9" s="21">
+        <v>112.65408000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>75</v>
+      </c>
+      <c r="E10" s="21">
+        <v>120.7008</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B11" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="23">
-        <v>70</v>
-      </c>
-      <c r="E9" s="25">
-        <v>112.65408000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="23">
-        <v>75</v>
-      </c>
-      <c r="E10" s="25">
-        <v>120.7008</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="23">
+      <c r="D11">
         <v>94</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="21">
         <v>151</v>
       </c>
-      <c r="G11" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="35"/>
+      <c r="G11" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="27">
+      <c r="C12" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="23">
         <v>150</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="24">
         <v>241.4016</v>
       </c>
-      <c r="G12" s="78" t="s">
+      <c r="G12" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" s="24"/>
+      <c r="H12" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="20"/>
     </row>
     <row r="13" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="26">
+      <c r="G13" s="22">
         <v>50</v>
       </c>
-      <c r="H13" s="36" t="str" cm="1">
+      <c r="H13" s="32" t="str" cm="1">
         <f t="array" ref="H13">_xlfn.XLOOKUP(G8,D3:D12,B3:B12&amp;", "&amp;C3:C12,,1)</f>
         <v>Ninety Mile Beach, New Zealand</v>
       </c>
-      <c r="I13" s="37"/>
+      <c r="I13" s="33"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E12">
@@ -5233,9 +5218,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5245,455 +5228,455 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="21"/>
+      <c r="B1" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="E2" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="F2" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="G2" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="44" t="s">
+      <c r="I2" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="J2" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="K2" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="L2" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="M2" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="N2" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="N2" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="O2" s="45" t="s">
+      <c r="O2" s="40" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3">
         <v>255</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3">
         <v>344</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3">
         <v>250</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3">
         <v>401</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3">
         <v>176</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3">
         <v>232</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3">
         <v>196</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3">
         <v>146</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3">
         <v>319</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3">
         <v>142</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3">
         <v>479</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3">
         <v>193</v>
       </c>
-      <c r="O3" s="47">
+      <c r="O3" s="42">
         <f>SUM(C3:N3)</f>
         <v>3133</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4">
         <v>339</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4">
         <v>258</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4">
         <v>311</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4">
         <v>161</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4">
         <v>367</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4">
         <v>136</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4">
         <v>183</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4">
         <v>458</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4">
         <v>318</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4">
         <v>250</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4">
         <v>179</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4">
         <v>310</v>
       </c>
-      <c r="O4" s="47">
+      <c r="O4" s="42">
         <f t="shared" ref="O4:O7" si="0">SUM(C4:N4)</f>
         <v>3270</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5">
         <v>269</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5">
         <v>327</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5">
         <v>341</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5">
         <v>488</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5">
         <v>214</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5">
         <v>474</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5">
         <v>451</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5">
         <v>217</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5">
         <v>325</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5">
         <v>123</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5">
         <v>301</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5">
         <v>433</v>
       </c>
-      <c r="O5" s="47">
+      <c r="O5" s="42">
         <f t="shared" si="0"/>
         <v>3963</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6">
         <v>272</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6">
         <v>470</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6">
         <v>233</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6">
         <v>127</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6">
         <v>410</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6">
         <v>168</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6">
         <v>271</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6">
         <v>426</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6">
         <v>320</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6">
         <v>154</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6">
         <v>231</v>
       </c>
-      <c r="N6" s="23">
+      <c r="N6">
         <v>322</v>
       </c>
-      <c r="O6" s="47">
+      <c r="O6" s="42">
         <f t="shared" si="0"/>
         <v>3404</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="23">
         <v>209</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="23">
         <v>423</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="23">
         <v>455</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="23">
         <v>314</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="23">
         <v>345</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="23">
         <v>295</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="23">
         <v>296</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="23">
         <v>262</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="23">
         <v>109</v>
       </c>
-      <c r="L7" s="27">
+      <c r="L7" s="23">
         <v>225</v>
       </c>
-      <c r="M7" s="27">
+      <c r="M7" s="23">
         <v>309</v>
       </c>
-      <c r="N7" s="27">
+      <c r="N7" s="23">
         <v>420</v>
       </c>
-      <c r="O7" s="49">
+      <c r="O7" s="44">
         <f t="shared" si="0"/>
         <v>3662</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
+      <c r="B9" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="E10" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="F10" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="G10" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="44" t="s">
+      <c r="I10" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="44" t="s">
+      <c r="J10" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="44" t="s">
+      <c r="K10" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="44" t="s">
+      <c r="L10" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="44" t="s">
+      <c r="M10" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="M10" s="44" t="s">
+      <c r="N10" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="N10" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="O10" s="45" t="s">
+      <c r="O10" s="40" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="36" cm="1">
+      <c r="C11" s="32" cm="1">
         <f t="array" ref="C11:N11">_xlfn.XLOOKUP(B11,B3:B7,C3:N7)</f>
         <v>269</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="23">
         <v>327</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="23">
         <v>341</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="23">
         <v>488</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="23">
         <v>214</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="23">
         <v>474</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="23">
         <v>451</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="23">
         <v>217</v>
       </c>
-      <c r="K11" s="27">
+      <c r="K11" s="23">
         <v>325</v>
       </c>
-      <c r="L11" s="27">
+      <c r="L11" s="23">
         <v>123</v>
       </c>
-      <c r="M11" s="27">
+      <c r="M11" s="23">
         <v>301</v>
       </c>
-      <c r="N11" s="27">
+      <c r="N11" s="23">
         <v>433</v>
       </c>
-      <c r="O11" s="37"/>
+      <c r="O11" s="33"/>
     </row>
     <row r="14" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
+      <c r="B14" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="38"/>
+      <c r="C15" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="34"/>
     </row>
     <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="51">
+      <c r="C16" s="46">
         <f>SUM(_xlfn.XLOOKUP(B16,B3:B7,C3:N7))</f>
         <v>3963</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="37"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -5712,216 +5695,214 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="6" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
     <col min="7" max="7" width="28.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
-      <c r="G1" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="16"/>
+      <c r="B1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+      <c r="G1" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="74" t="s">
-        <v>58</v>
+      <c r="H2" s="40" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="23">
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
         <v>75</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="21">
         <v>120.7008</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="30" t="str" cm="1">
+      <c r="H3" s="26" t="str" cm="1">
         <f t="array" ref="H3">_xlfn.XLOOKUP(G3,B3:B12,C3:C12&amp;": "&amp;D3:D12,"Not found",1,1)</f>
         <v>Australia: 94</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>28</v>
+      </c>
+      <c r="E4" s="21">
+        <v>45.061631999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5" s="21">
+        <v>40.233599999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="23">
-        <v>28</v>
-      </c>
-      <c r="E4" s="25">
-        <v>45.061631999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="23">
-        <v>25</v>
-      </c>
-      <c r="E5" s="25">
-        <v>40.233599999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="22" t="s">
+      <c r="D6">
+        <v>94</v>
+      </c>
+      <c r="E6" s="21">
+        <v>151</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="23">
-        <v>94</v>
-      </c>
-      <c r="E6" s="25">
-        <v>151</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="22" t="s">
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
+      <c r="E7" s="21">
+        <v>89</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>70</v>
+      </c>
+      <c r="E8" s="21">
+        <v>112.65408000000001</v>
+      </c>
+      <c r="G8" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="23">
-        <v>55</v>
-      </c>
-      <c r="E7" s="25">
-        <v>89</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="23">
-        <v>70</v>
-      </c>
-      <c r="E8" s="25">
-        <v>112.65408000000001</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="30" t="str" cm="1">
+      <c r="H8" s="26" t="str" cm="1">
         <f t="array" ref="H8">_xlfn.XLOOKUP(G8,B3:B12,C3:C12&amp;": "&amp;D3:D12,"Not found",1,-1)</f>
         <v>New Zealand: 55</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>56</v>
+      </c>
+      <c r="E9" s="21">
+        <v>90.123263999999992</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="23">
-        <v>56</v>
-      </c>
-      <c r="E9" s="25">
-        <v>90.123263999999992</v>
-      </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="23">
+      <c r="D10">
         <v>150</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="21">
         <v>241.4016</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="23">
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
         <v>20</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="21">
         <v>32.186880000000002</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="27">
+      <c r="C12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="23">
         <v>35</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="24">
         <v>56.327040000000004</v>
       </c>
     </row>
@@ -5937,9 +5918,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5949,286 +5928,286 @@
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="10" max="11" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
-      <c r="H1" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="35"/>
+      <c r="B1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="H1" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="31"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="78" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="87" t="s">
+      <c r="B2" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="76" t="s">
+      <c r="H2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="75" t="s">
+      <c r="J2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="77" t="s">
+      <c r="K2" s="58" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="56" t="str">
+      <c r="B3" s="51" t="str">
         <f>C3&amp;" "&amp;D3</f>
         <v>Cox's Bazar Bangladesh</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>75</v>
+      </c>
+      <c r="F3" s="21">
+        <v>120.7008</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="23">
-        <v>75</v>
-      </c>
-      <c r="F3" s="25">
-        <v>120.7008</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="36">
+      <c r="J3" s="32">
         <f>VLOOKUP($H3&amp;" "&amp;$I3,$B3:$F12,4,FALSE)</f>
         <v>25</v>
       </c>
-      <c r="K3" s="49">
+      <c r="K3" s="44">
         <f>VLOOKUP($H3&amp;" "&amp;$I3,$B3:$F12,5,FALSE)</f>
         <v>40.233599999999996</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="str">
+      <c r="B4" s="19" t="str">
         <f t="shared" ref="B4:B12" si="0">C4&amp;" "&amp;D4</f>
         <v>Long Beach United States</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="23">
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
         <v>28</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="21">
         <v>45.061631999999996</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="50"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="45"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="22" t="str">
+      <c r="B5" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Muizenberg South Africa</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="23">
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
         <v>25</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="21">
         <v>40.233599999999996</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="27"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="23"/>
     </row>
     <row r="6" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="22" t="str">
+      <c r="B6" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Ninety Mile Beach Australia</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="23">
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
         <v>94</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="21">
         <v>151</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="35"/>
+      <c r="H6" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="31"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="22" t="str">
+      <c r="B7" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Ninety Mile Beach New Zealand</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7">
         <v>55</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="21">
         <v>89</v>
       </c>
-      <c r="H7" s="76" t="s">
+      <c r="H7" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="75" t="s">
+      <c r="I7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="75" t="s">
+      <c r="J7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="77" t="s">
+      <c r="K7" s="58" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="22" t="str">
+      <c r="B8" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Padre Island National Seashore United States</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="23">
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
         <v>70</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="21">
         <v>112.65408000000001</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="36" cm="1">
+      <c r="I8" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="32" cm="1">
         <f t="array" ref="J8:K8">_xlfn.XLOOKUP(H8&amp;I8,C3:C12&amp;D3:D12,E3:F12)</f>
         <v>25</v>
       </c>
-      <c r="K8" s="49">
+      <c r="K8" s="44">
         <v>40.233599999999996</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="str">
+      <c r="B9" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Playa Novillero Mexico</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="23">
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
         <v>56</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="21">
         <v>90.123263999999992</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="str">
+      <c r="B10" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Praia do Cassino Beach Brazil</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="23">
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10">
         <v>150</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="21">
         <v>241.4016</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="str">
+      <c r="B11" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Stockton Beach Australia</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="23">
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
         <v>20</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="21">
         <v>32.186880000000002</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="26" t="str">
+      <c r="B12" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Virginia Beach United States</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="27">
+      <c r="D12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="23">
         <v>35</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="24">
         <v>56.327040000000004</v>
       </c>
     </row>
@@ -6244,250 +6223,256 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:I13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="9" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
-      <c r="G1" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35"/>
+      <c r="B1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+      <c r="G1" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="30"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="73" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="38"/>
+      <c r="H2" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="23">
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
         <v>75</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="21">
         <v>120.7008</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="32">
         <f>MATCH(G3,B3:B12,0)</f>
         <v>9</v>
       </c>
-      <c r="I3" s="37"/>
+      <c r="I3" s="26">
+        <f>_xlfn.XMATCH(G3,B3:B12)</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>28</v>
+      </c>
+      <c r="E4" s="21">
+        <v>45.061631999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5" s="21">
+        <v>40.233599999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="23">
-        <v>28</v>
-      </c>
-      <c r="E4" s="25">
-        <v>45.061631999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="23">
-        <v>25</v>
-      </c>
-      <c r="E5" s="25">
-        <v>40.233599999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="22" t="s">
+      <c r="D6">
+        <v>94</v>
+      </c>
+      <c r="E6" s="21">
+        <v>151</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="30"/>
+      <c r="I6" s="31"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="23">
-        <v>94</v>
-      </c>
-      <c r="E6" s="25">
-        <v>151</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="35"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7">
         <v>55</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="21">
         <v>89</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="73" t="s">
+      <c r="H7" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="45" t="s">
+      <c r="I7" s="40" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="23">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
         <v>70</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="21">
         <v>112.65408000000001</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="51">
+      <c r="H8" s="46">
         <f>INDEX(D3:D12,MATCH($G8,$B3:$B12,0))</f>
         <v>20</v>
       </c>
-      <c r="I8" s="67">
+      <c r="I8" s="61">
         <f>INDEX(E3:E12,MATCH($G8,$B3:$B12,0))</f>
         <v>32.186880000000002</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>56</v>
+      </c>
+      <c r="E9" s="21">
+        <v>90.123263999999992</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="23">
-        <v>56</v>
-      </c>
-      <c r="E9" s="25">
-        <v>90.123263999999992</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="23">
+      <c r="D10">
         <v>150</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="21">
         <v>241.4016</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="23">
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
         <v>20</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="21">
         <v>32.186880000000002</v>
       </c>
-      <c r="G11" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="35"/>
+      <c r="G11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="27">
+      <c r="C12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="23">
         <v>35</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="24">
         <v>56.327040000000004</v>
       </c>
-      <c r="G12" s="78" t="s">
+      <c r="G12" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="63" t="s">
+      <c r="H12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="64" t="s">
+      <c r="I12" s="58" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="51">
+      <c r="H13" s="46">
         <f>INDEX($B3:$E12,MATCH($G13,$B3:$B12,0),MATCH(H12,$B2:$E2,0))</f>
         <v>20</v>
       </c>
-      <c r="I13" s="67">
+      <c r="I13" s="61">
         <f>INDEX($B3:$E12,MATCH($G13,$B3:$B12,0),MATCH(I12,$B2:$E2,0))</f>
         <v>32.186880000000002</v>
       </c>
@@ -6503,245 +6488,245 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="B1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
-      <c r="G1" s="80" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>60</v>
+      <c r="B1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+      <c r="G1" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="52" t="s">
-        <v>23</v>
+      <c r="I2" s="47" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="23">
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
         <v>75</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="21">
         <v>120.7008</v>
       </c>
-      <c r="G3" s="53" t="str" cm="1">
+      <c r="G3" s="48" t="str" cm="1">
         <f t="array" ref="G3:G9">_xlfn.UNIQUE(C3:C12)</f>
         <v>Bangladesh</v>
       </c>
-      <c r="I3" s="53" t="str" cm="1">
+      <c r="I3" s="48" t="str" cm="1">
         <f t="array" ref="I3:I12">_xlfn.UNIQUE(C3:C12,TRUE,FALSE)</f>
         <v>Bangladesh</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>28</v>
+      </c>
+      <c r="E4" s="21">
+        <v>45.061631999999996</v>
+      </c>
+      <c r="G4" s="50" t="str">
+        <v>United States</v>
+      </c>
+      <c r="I4" s="50" t="str">
+        <v>United States</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5" s="21">
+        <v>40.233599999999996</v>
+      </c>
+      <c r="G5" s="50" t="str">
+        <v>South Africa</v>
+      </c>
+      <c r="I5" s="50" t="str">
+        <v>South Africa</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D6">
+        <v>94</v>
+      </c>
+      <c r="E6" s="21">
+        <v>151</v>
+      </c>
+      <c r="G6" s="50" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="I6" s="50" t="str">
+        <v>Australia</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
+      <c r="E7" s="21">
+        <v>89</v>
+      </c>
+      <c r="G7" s="50" t="str">
+        <v>New Zealand</v>
+      </c>
+      <c r="I7" s="50" t="str">
+        <v>New Zealand</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>70</v>
+      </c>
+      <c r="E8" s="21">
+        <v>112.65408000000001</v>
+      </c>
+      <c r="G8" s="50" t="str">
+        <v>Mexico</v>
+      </c>
+      <c r="I8" s="50" t="str">
+        <v>United States</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>56</v>
+      </c>
+      <c r="E9" s="21">
+        <v>90.123263999999992</v>
+      </c>
+      <c r="G9" s="67" t="str">
+        <v>Brazil</v>
+      </c>
+      <c r="I9" s="50" t="str">
+        <v>Mexico</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="25">
-        <v>45.061631999999996</v>
-      </c>
-      <c r="G4" s="55" t="str">
-        <v>United States</v>
-      </c>
-      <c r="I4" s="55" t="str">
-        <v>United States</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="23">
-        <v>25</v>
-      </c>
-      <c r="E5" s="25">
-        <v>40.233599999999996</v>
-      </c>
-      <c r="G5" s="55" t="str">
-        <v>South Africa</v>
-      </c>
-      <c r="I5" s="55" t="str">
-        <v>South Africa</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="23">
-        <v>94</v>
-      </c>
-      <c r="E6" s="25">
-        <v>151</v>
-      </c>
-      <c r="G6" s="55" t="str">
+      <c r="D10">
+        <v>150</v>
+      </c>
+      <c r="E10" s="21">
+        <v>241.4016</v>
+      </c>
+      <c r="I10" s="50" t="str">
+        <v>Brazil</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11" s="21">
+        <v>32.186880000000002</v>
+      </c>
+      <c r="I11" s="50" t="str">
         <v>Australia</v>
       </c>
-      <c r="I6" s="55" t="str">
-        <v>Australia</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="23">
-        <v>55</v>
-      </c>
-      <c r="E7" s="25">
-        <v>89</v>
-      </c>
-      <c r="G7" s="55" t="str">
-        <v>New Zealand</v>
-      </c>
-      <c r="I7" s="55" t="str">
-        <v>New Zealand</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="23">
-        <v>70</v>
-      </c>
-      <c r="E8" s="25">
-        <v>112.65408000000001</v>
-      </c>
-      <c r="G8" s="55" t="str">
-        <v>Mexico</v>
-      </c>
-      <c r="I8" s="55" t="str">
-        <v>United States</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="23">
-        <v>56</v>
-      </c>
-      <c r="E9" s="25">
-        <v>90.123263999999992</v>
-      </c>
-      <c r="G9" s="79" t="str">
-        <v>Brazil</v>
-      </c>
-      <c r="I9" s="55" t="str">
-        <v>Mexico</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="23">
-        <v>150</v>
-      </c>
-      <c r="E10" s="25">
-        <v>241.4016</v>
-      </c>
-      <c r="I10" s="55" t="str">
-        <v>Brazil</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="23">
-        <v>20</v>
-      </c>
-      <c r="E11" s="25">
-        <v>32.186880000000002</v>
-      </c>
-      <c r="I11" s="55" t="str">
-        <v>Australia</v>
-      </c>
     </row>
     <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="27">
+      <c r="C12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="23">
         <v>35</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="24">
         <v>56.327040000000004</v>
       </c>
-      <c r="I12" s="79" t="str">
+      <c r="I12" s="67" t="str">
         <v>United States</v>
       </c>
     </row>

--- a/Chapter10/Chapter 10 - Dynamic Arrays.xlsx
+++ b/Chapter10/Chapter 10 - Dynamic Arrays.xlsx
@@ -1,39 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25321"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Packt\Chapter 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AEE997-8B16-4DD6-BA31-FE80BFA67E25}" xr6:coauthVersionLast="48" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75975F5-9C8F-42D6-8271-3D7058FFEC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{34308FCB-668B-4E5F-B915-B3DC17B557AA}"/>
+    <workbookView xWindow="20370" yWindow="-4800" windowWidth="29040" windowHeight="16440" xr2:uid="{34308FCB-668B-4E5F-B915-B3DC17B557AA}"/>
   </bookViews>
   <sheets>
-    <sheet name="VLOOKUP" sheetId="1" r:id="rId1"/>
-    <sheet name="XLOOKUP vs. SUMIF" sheetId="2" r:id="rId2"/>
-    <sheet name="XLOOKUP Error Handling" sheetId="29" r:id="rId3"/>
-    <sheet name="XLOOKUP Approximate Matches" sheetId="28" r:id="rId4"/>
-    <sheet name="XLOOKUP Monthly Sales" sheetId="5" r:id="rId5"/>
+    <sheet name="VLOOKUP and IFNA" sheetId="1" r:id="rId1"/>
+    <sheet name="MATCH and INDEX" sheetId="8" r:id="rId2"/>
+    <sheet name="SUMIF and SUMIFS" sheetId="2" r:id="rId3"/>
+    <sheet name="XLOOKUP Exact Match" sheetId="31" r:id="rId4"/>
+    <sheet name="XLOOKUP Approximate Matches" sheetId="28" r:id="rId5"/>
     <sheet name="XLOOKUP Search Mode" sheetId="6" r:id="rId6"/>
-    <sheet name="XLOOKUP Multiple Columns" sheetId="25" r:id="rId7"/>
-    <sheet name="INDEX-MATCH" sheetId="8" r:id="rId8"/>
-    <sheet name="UNIQUE" sheetId="9" r:id="rId9"/>
-    <sheet name="SORT" sheetId="10" r:id="rId10"/>
-    <sheet name="FILTER" sheetId="11" r:id="rId11"/>
-    <sheet name="Spilled Range Operator" sheetId="16" r:id="rId12"/>
-    <sheet name="Dynamic Amortization Table" sheetId="18" r:id="rId13"/>
-    <sheet name="#SPILL! and #CALC! Errors" sheetId="27" r:id="rId14"/>
-    <sheet name="RAND and RANDBETWEEN" sheetId="14" r:id="rId15"/>
-    <sheet name="RANDARRAY" sheetId="30" r:id="rId16"/>
+    <sheet name="XLOOKUP Multi Column Criteria" sheetId="25" r:id="rId7"/>
+    <sheet name="XLOOKUP Multi Column Results" sheetId="5" r:id="rId8"/>
+    <sheet name="XMATCH" sheetId="32" r:id="rId9"/>
+    <sheet name="UNIQUE" sheetId="9" r:id="rId10"/>
+    <sheet name="SORT and SORTBY" sheetId="10" r:id="rId11"/>
+    <sheet name="FILTER" sheetId="11" r:id="rId12"/>
+    <sheet name="Spilled Range Operator" sheetId="16" r:id="rId13"/>
+    <sheet name="Dynamic Amortization Table" sheetId="18" r:id="rId14"/>
+    <sheet name="#SPILL! Errors" sheetId="27" r:id="rId15"/>
+    <sheet name="RAND and RANDBETWEEN" sheetId="14" r:id="rId16"/>
+    <sheet name="RANDARRAY" sheetId="30" r:id="rId17"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VLOOKUP!$C$1:$C$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'VLOOKUP and IFNA'!$C$1:$C$11</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -57,7 +58,16 @@
     <author>David Ringstrom</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{1BAC5FC5-8DA0-49C9-96EB-F4B47F2D0C31}">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{70786342-680C-4C4A-B07A-7A98F8245057}">
+      <text/>
+    </comment>
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{C4E3AD3A-A8E6-4666-AD8E-A5A7371C6EDF}">
+      <text/>
+    </comment>
+    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{E8E5B560-4CD5-496F-95D8-52531C8F19A1}">
+      <text/>
+    </comment>
+    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{70A2244C-4B15-4A56-B80A-D6FCDF49634D}">
       <text/>
     </comment>
   </commentList>
@@ -65,6 +75,22 @@
 </file>
 
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>David Ringstrom</author>
+  </authors>
+  <commentList>
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{D487680A-A48A-4B3E-8DE9-0488D0E8626D}">
+      <text/>
+    </comment>
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{E93AA24D-E2BA-476C-9C81-0C7E8C2374C0}">
+      <text/>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>David Ringstrom</author>
@@ -79,26 +105,7 @@
     <comment ref="Q3" authorId="0" shapeId="0" xr:uid="{F3889807-CDDA-49DD-A36A-DF67247AC58E}">
       <text/>
     </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>David Ringstrom</author>
-  </authors>
-  <commentList>
-    <comment ref="Q5" authorId="0" shapeId="0" xr:uid="{19C02F36-B634-4150-A3C1-877F6284F7DD}">
-      <text/>
-    </comment>
-    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{DA484086-9CE4-499F-A981-B3AA63C3F595}">
-      <text/>
-    </comment>
-    <comment ref="L7" authorId="0" shapeId="0" xr:uid="{F85AA269-318C-49D5-ABE5-7CE3381078A7}">
-      <text/>
-    </comment>
-    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{C82E8E7D-BCBB-48CD-9810-23A3F2391379}">
+    <comment ref="V3" authorId="0" shapeId="0" xr:uid="{17BCB9F3-164B-4E67-925A-1D49FE42E804}">
       <text/>
     </comment>
   </commentList>
@@ -106,6 +113,61 @@
 </file>
 
 <file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>David Ringstrom</author>
+  </authors>
+  <commentList>
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{131DA2AE-E481-4517-9528-80073817BE89}">
+      <text/>
+    </comment>
+    <comment ref="L6" authorId="0" shapeId="0" xr:uid="{D636AEC4-F9A8-4111-B946-104DFB92651B}">
+      <text/>
+    </comment>
+    <comment ref="Q6" authorId="0" shapeId="0" xr:uid="{33B2131D-EA4C-425F-BFD7-84DDA4CCB2A4}">
+      <text/>
+    </comment>
+    <comment ref="AA6" authorId="0" shapeId="0" xr:uid="{817BC726-1BDA-4549-8340-8B458F1EDE25}">
+      <text/>
+    </comment>
+    <comment ref="V7" authorId="0" shapeId="0" xr:uid="{B9E74F58-35BF-47F6-9CB7-E278703FB756}">
+      <text/>
+    </comment>
+    <comment ref="L11" authorId="0" shapeId="0" xr:uid="{47EE1594-A221-478E-A85D-7D483FA55806}">
+      <text/>
+    </comment>
+    <comment ref="Q12" authorId="0" shapeId="0" xr:uid="{2C7D5268-EE53-418D-B73B-5AB015863FAF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>David Ringstrom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q13" authorId="0" shapeId="0" xr:uid="{478D61EC-C0E6-465B-8644-14526438A0CA}">
+      <text/>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>David Ringstrom</author>
@@ -121,7 +183,7 @@
 </comments>
 </file>
 
-<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>David Ringstrom</author>
@@ -130,26 +192,26 @@
     <comment ref="B6" authorId="0" shapeId="0" xr:uid="{C34BB8E2-6659-4E7F-BE1B-2AF511681207}">
       <text/>
     </comment>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{6728CFE5-9D7D-47CF-B18A-8E8C1A230F35}">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{7E815236-9E6D-4B8A-9D48-9CB415DE001D}">
       <text/>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{8DE0C938-B5BF-40AB-B2AB-113B2856F3AC}">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{AB098293-35A6-4D8B-A19A-FB34F3213D77}">
       <text/>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{E1EB6843-2296-4EDE-BA0E-1DC35C22A97E}">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{C8B58F27-A54F-4C39-9228-682FA9FBA81F}">
       <text/>
     </comment>
-    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{AD5907EC-A1FB-47B6-BAB0-DAF514281809}">
+    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{D2A27DC1-89E3-43E6-81E0-156D2C5A2A10}">
       <text/>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{1FCE18AA-C6CC-4E12-A5EC-ADE1E160DDFC}">
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{1A99037B-20C4-47C0-B677-8D0DEE9ABBA7}">
       <text/>
     </comment>
   </commentList>
 </comments>
 </file>
 
-<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>David Ringstrom</author>
@@ -171,14 +233,11 @@
     <comment ref="I3" authorId="0" shapeId="0" xr:uid="{C191D3C9-DA2B-46D1-8F79-4B4CE0BD4B73}">
       <text/>
     </comment>
-    <comment ref="K6" authorId="0" shapeId="0" xr:uid="{B0BC93F9-11DD-4421-A348-D180CD9BB2C7}">
-      <text/>
-    </comment>
   </commentList>
 </comments>
 </file>
 
-<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>David Ringstrom</author>
@@ -194,7 +253,7 @@
 </comments>
 </file>
 
-<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>David Ringstrom</author>
@@ -222,16 +281,34 @@
     <author>David Ringstrom</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{EEE2C04C-8AE3-4F5C-BD63-790B0171310F}">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{B61DC066-B653-4726-8E66-7106237A0C0E}">
       <text/>
     </comment>
-    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{1DDB6B23-A763-4015-B11E-DA932EECAAEE}">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{044AA148-AF1F-43C9-90F7-A10C4B1E91B5}">
       <text/>
     </comment>
-    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{356FC83E-0A55-4C75-95A9-8A0FAE1D5C0F}">
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{34C06728-06EF-49C1-ABC8-CF7A075E0AA9}">
       <text/>
     </comment>
-    <comment ref="L8" authorId="0" shapeId="0" xr:uid="{94842AFD-97AC-44A8-83D8-30684B53B394}">
+    <comment ref="O3" authorId="0" shapeId="0" xr:uid="{47047CE9-5463-42BE-82A0-62368776EFC2}">
+      <text/>
+    </comment>
+    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{4D0C2B45-5947-4911-8233-ADF20D8F7CA1}">
+      <text/>
+    </comment>
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{302958CF-7765-4733-92A2-E92C584F73E6}">
+      <text/>
+    </comment>
+    <comment ref="K9" authorId="0" shapeId="0" xr:uid="{EFBFD63E-9EF4-4F46-B723-BD2443F21756}">
+      <text/>
+    </comment>
+    <comment ref="L9" authorId="0" shapeId="0" xr:uid="{F1D64AB0-6D62-443E-8A96-93D0CBBC02E7}">
+      <text/>
+    </comment>
+    <comment ref="O9" authorId="0" shapeId="0" xr:uid="{20917358-D2C0-439B-99EC-60A826534A50}">
+      <text/>
+    </comment>
+    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{2D423CF7-0F7B-4782-86A5-A8166EE03A1A}">
       <text/>
     </comment>
   </commentList>
@@ -244,10 +321,16 @@
     <author>David Ringstrom</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{2F95A870-FBB5-48B4-A85F-DA4938B3AB22}">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{9BCEE91E-925E-47CE-AA91-3563732BA13F}">
       <text/>
     </comment>
-    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{B472D236-3F66-46FC-BA73-ADBE03D87899}">
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{7FDEFC0A-1A91-45E3-9857-D278F1D5FF9D}">
+      <text/>
+    </comment>
+    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{50FFA78C-CE58-40DB-B0A6-EBEE3EFCE6BF}">
+      <text/>
+    </comment>
+    <comment ref="H18" authorId="0" shapeId="0" xr:uid="{C2A06819-FC60-4294-A2F0-5D56A07E1139}">
       <text/>
     </comment>
   </commentList>
@@ -260,13 +343,16 @@
     <author>David Ringstrom</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{CD34F838-953D-4450-B6E8-2FE959F20856}">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{15B5DDA3-48DA-4128-B360-9171F4C20605}">
       <text/>
     </comment>
-    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{2CE7C361-3D42-4476-BD3C-0E3387C9CCB6}">
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{5A760ADE-65C2-4F5D-97AE-A24BBD9F14C5}">
       <text/>
     </comment>
-    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{06E968E4-E5D4-4ECE-BA13-1AC76094EA79}">
+    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{1D1C9F26-217C-4A1F-BDBF-292757336DB3}">
+      <text/>
+    </comment>
+    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{A9AEE41A-3139-4FFA-AE07-DF34636680EC}">
       <text/>
     </comment>
   </commentList>
@@ -279,10 +365,10 @@
     <author>David Ringstrom</author>
   </authors>
   <commentList>
-    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{1C87F6EF-ACA5-42E5-9DFC-CC9651343A2E}">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{CD34F838-953D-4450-B6E8-2FE959F20856}">
       <text/>
     </comment>
-    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{BA65F414-BCA3-47FE-B157-0C285602A698}">
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{FC7E95C1-CB8B-4718-BFC7-B19666096571}">
       <text/>
     </comment>
   </commentList>
@@ -295,10 +381,10 @@
     <author>David Ringstrom</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{B24B76A2-962E-422F-BFB1-4752D79EA7D4}">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{56AB7D7C-E32D-419C-81F9-4236C322212D}">
       <text/>
     </comment>
-    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{DC565826-8739-4A48-9800-74709875F501}">
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{49280B28-79D7-4D4A-BBD4-28A4F6C3ABAF}">
       <text/>
     </comment>
   </commentList>
@@ -330,16 +416,10 @@
     <author>David Ringstrom</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{B61DC066-B653-4726-8E66-7106237A0C0E}">
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{1C87F6EF-ACA5-42E5-9DFC-CC9651343A2E}">
       <text/>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{8A069644-2188-486F-A35E-7F7BF4D6BBEB}">
-      <text/>
-    </comment>
-    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{A2C5104C-1B84-4C44-B06C-36AC1E9C10D8}">
-      <text/>
-    </comment>
-    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{74DFB300-8C98-4D65-8CA5-B80CE2E8EE76}">
+    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{BA65F414-BCA3-47FE-B157-0C285602A698}">
       <text/>
     </comment>
   </commentList>
@@ -352,10 +432,23 @@
     <author>David Ringstrom</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{D487680A-A48A-4B3E-8DE9-0488D0E8626D}">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{06E5BA7C-82D5-4D9C-A07F-9DF808B87EC8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>`</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{6BDB21DE-0D63-4FAB-A39D-D5B55773CD4B}">
       <text/>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{E93AA24D-E2BA-476C-9C81-0C7E8C2374C0}">
+    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{54F9FA67-098D-46ED-BD14-4B1AA3512D50}">
       <text/>
     </comment>
   </commentList>
@@ -410,7 +503,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="123">
   <si>
     <t>Beach</t>
   </si>
@@ -499,9 +592,6 @@
     <t>Brazil</t>
   </si>
   <si>
-    <t>Cuba</t>
-  </si>
-  <si>
     <t>Beaches</t>
   </si>
   <si>
@@ -535,18 +625,9 @@
     <t>United States of America</t>
   </si>
   <si>
-    <t>XLOOKUP Match Found</t>
-  </si>
-  <si>
     <t>World's Longest Beaches</t>
   </si>
   <si>
-    <t>Sum of Ninety Mile Beaches</t>
-  </si>
-  <si>
-    <t>Beach, Country</t>
-  </si>
-  <si>
     <t>Total Sales</t>
   </si>
   <si>
@@ -583,12 +664,6 @@
     <t>Dec</t>
   </si>
   <si>
-    <t>Country/Miles</t>
-  </si>
-  <si>
-    <t>List Position</t>
-  </si>
-  <si>
     <t>UNIQUE Function</t>
   </si>
   <si>
@@ -601,12 +676,6 @@
     <t>MIles</t>
   </si>
   <si>
-    <t>Two SORT Functions (Alphabetically By Country, Ascending By Miles)</t>
-  </si>
-  <si>
-    <t>Criteria</t>
-  </si>
-  <si>
     <t>Country:</t>
   </si>
   <si>
@@ -619,28 +688,16 @@
     <t>XLOOKUP Extract Monthly Sales and return results to multiple cells</t>
   </si>
   <si>
-    <t>XLOOKUP &lt;=50 miles in length</t>
-  </si>
-  <si>
     <t>Monthly Sales By Team</t>
   </si>
   <si>
     <t>SUM/XLOOKUP Extract Monthly Sales and return the total of the results to a single cell</t>
   </si>
   <si>
-    <t>MATCH Return position</t>
-  </si>
-  <si>
     <t>MATCH/INDEX  Return Miles/Kilometers</t>
   </si>
   <si>
     <t>INDEX/MATCH/MATCH Return Miles/Kilometers</t>
-  </si>
-  <si>
-    <t>#SPILL! caused by Overwritten Results</t>
-  </si>
-  <si>
-    <t>FILTER Function (Country equal to cell K2)</t>
   </si>
   <si>
     <t>&gt;=Miles:</t>
@@ -674,30 +731,12 @@
     <t>XLOOKUP Bottom Up Search</t>
   </si>
   <si>
-    <t>Alternative: =SORTBY(B3:E12,C3:C12,1,D3:D12,-1)</t>
-  </si>
-  <si>
-    <t>FILTER Function (Country = cell H2)</t>
-  </si>
-  <si>
-    <t>SORT/FILTER Function (Country = H2, Descending by Miles)</t>
-  </si>
-  <si>
-    <t>Multiple Filter Criteria</t>
-  </si>
-  <si>
-    <t>Single Filter Criteria</t>
-  </si>
-  <si>
     <t>FILTER Results in a Single Column</t>
   </si>
   <si>
     <t>VLOOKUP Match Found</t>
   </si>
   <si>
-    <t>#SPILL! with Obstruction</t>
-  </si>
-  <si>
     <t>Helper Column</t>
   </si>
   <si>
@@ -707,34 +746,136 @@
     <t>VLOOKUP Match on Beach/Country</t>
   </si>
   <si>
-    <t xml:space="preserve">Ninety Mile Beach </t>
-  </si>
-  <si>
     <t>Ninety-Mile Beach</t>
   </si>
   <si>
-    <t>IFNA/VLOOKUP  (Trailing Space in cell G3)</t>
-  </si>
-  <si>
-    <t>XLOOKUP (Dash Appears in cell G8)</t>
-  </si>
-  <si>
-    <t>XLOOKUP (Trailing Space in Cell K3)</t>
-  </si>
-  <si>
-    <t>SUMIF (Extraneous Dash in Cell K8)</t>
-  </si>
-  <si>
-    <t>XLOOKUP &gt;=50 miles in length (2 cells)</t>
-  </si>
-  <si>
-    <t>XLOOKUP &gt;=50 miles in length (1 cell)</t>
-  </si>
-  <si>
     <t>Duplication of the original list</t>
   </si>
   <si>
-    <t>Dynamic Amortization Table (United States Dollars)</t>
+    <t>VLOOKUP No Match Found</t>
+  </si>
+  <si>
+    <t>Short Beach</t>
+  </si>
+  <si>
+    <t>IFNA/VLOOKUP No Match Found</t>
+  </si>
+  <si>
+    <t>MATCH Return row position</t>
+  </si>
+  <si>
+    <t>MATCH Return column position</t>
+  </si>
+  <si>
+    <t>Row Position</t>
+  </si>
+  <si>
+    <t>Column Position</t>
+  </si>
+  <si>
+    <t>Row Lookup</t>
+  </si>
+  <si>
+    <t>Column Lookup</t>
+  </si>
+  <si>
+    <t>VLOOKUP/MATCH Return Miles/Kilometers</t>
+  </si>
+  <si>
+    <t>VLOOKUP Return Miles/Kilometers</t>
+  </si>
+  <si>
+    <t>SUMIF Match Found</t>
+  </si>
+  <si>
+    <t>SUMIF No Match Found</t>
+  </si>
+  <si>
+    <t>MATCH No Match Found</t>
+  </si>
+  <si>
+    <t>SUMIFS Match Found</t>
+  </si>
+  <si>
+    <t>SUMIFS No Match Found</t>
+  </si>
+  <si>
+    <t>XLOOKUP No Match Found</t>
+  </si>
+  <si>
+    <t>XLOOKUP With Error Handling</t>
+  </si>
+  <si>
+    <t>XLOOKUP Exact Match Found</t>
+  </si>
+  <si>
+    <t>XMATCH Return row position</t>
+  </si>
+  <si>
+    <t>XMATCH No Match Found</t>
+  </si>
+  <si>
+    <t>XMATCH Return column position</t>
+  </si>
+  <si>
+    <t>FILTER Function (Beach = cell H2) - Match Found</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>FILTER Function No matches found</t>
+  </si>
+  <si>
+    <t>FILTER Function if_empty argument</t>
+  </si>
+  <si>
+    <t>FILTER Function (Beach = cell R2)</t>
+  </si>
+  <si>
+    <t>XLOOKUP &lt;=60 miles in length</t>
+  </si>
+  <si>
+    <t>XLOOKUP &gt;=60 miles in length</t>
+  </si>
+  <si>
+    <t>Two SORT Functions (Alphabetically By Country,
+Descending By Miles)</t>
+  </si>
+  <si>
+    <t>SORTBY Function (Alphabetically By Country, Descending By Miles)</t>
+  </si>
+  <si>
+    <t>Criterion</t>
+  </si>
+  <si>
+    <t>SORT/FILTER Function (Beach = R2, Descending by Miles)</t>
+  </si>
+  <si>
+    <t>Two Criteria</t>
+  </si>
+  <si>
+    <t>Dynamic Amortization Table 
+United States Dollars</t>
+  </si>
+  <si>
+    <t>Dynamic Amortization Schedule
+Work Area</t>
+  </si>
+  <si>
+    <t>#SPILL! Caused by Obstruction in Cell B7</t>
+  </si>
+  <si>
+    <t>#SPILL! caused by Overwritten Results in Cell I4</t>
   </si>
 </sst>
 </file>
@@ -745,9 +886,9 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -837,8 +978,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -854,6 +1008,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,7 +1149,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1070,7 +1230,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1096,12 +1255,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1118,9 +1271,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1140,11 +1290,55 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1223,14 +1417,14 @@
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
 <rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
   <rv s="0">
+    <v>13</v>
+    <v>3</v>
+  </rv>
+  <rv s="1">
     <v>0</v>
     <v>8</v>
     <v>6</v>
     <v>1</v>
-  </rv>
-  <rv s="1">
-    <v>13</v>
-    <v>3</v>
   </rv>
 </rvData>
 </file>
@@ -1238,13 +1432,13 @@
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
 <rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
   <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+  <s t="_error">
     <k n="colOffset" t="i"/>
     <k n="errorType" t="i"/>
     <k n="rwOffset" t="i"/>
-    <k n="subType" t="i"/>
-  </s>
-  <s t="_error">
-    <k n="errorType" t="i"/>
     <k n="subType" t="i"/>
   </s>
 </rvStructures>
@@ -1548,7 +1742,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB11A22-C14B-4868-AE32-07F132382A1C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:I12"/>
+  <dimension ref="B1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1561,25 +1755,25 @@
     <col min="6" max="6" width="2.7109375" customWidth="1"/>
     <col min="7" max="7" width="28.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
       <c r="E1" s="18"/>
       <c r="F1" s="1"/>
       <c r="G1" s="16" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="H1" s="25"/>
       <c r="I1" s="25"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="56" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -1588,16 +1782,16 @@
       <c r="D2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="63" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="57" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1615,15 +1809,15 @@
         <v>120.7008</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H3" s="32">
-        <f>VLOOKUP($G3,$B$3:$E$12,3,FALSE)</f>
-        <v>28</v>
-      </c>
-      <c r="I3" s="61">
+        <f>VLOOKUP(G3,B3:E12,3,FALSE)</f>
+        <v>94</v>
+      </c>
+      <c r="I3" s="60">
         <f>VLOOKUP($G3,$B$3:$E$12,4,FALSE)</f>
-        <v>45.061631999999996</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -1640,7 +1834,7 @@
         <v>45.061631999999996</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
@@ -1654,7 +1848,7 @@
         <v>40.233599999999996</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
@@ -1667,6 +1861,11 @@
       <c r="E6" s="21">
         <v>151</v>
       </c>
+      <c r="G6" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
@@ -1681,8 +1880,17 @@
       <c r="E7" s="21">
         <v>89</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G7" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="19" t="s">
         <v>5</v>
       </c>
@@ -1694,6 +1902,17 @@
       </c>
       <c r="E8" s="21">
         <v>112.65408000000001</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="32" t="e">
+        <f>VLOOKUP(G8,B3:E12,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I8" s="60" t="e">
+        <f>VLOOKUP($G8,$B$3:$E$12,4,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -1710,7 +1929,7 @@
         <v>90.123263999999992</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="19" t="s">
         <v>2</v>
       </c>
@@ -1724,7 +1943,7 @@
         <v>241.4016</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B11" s="19" t="s">
         <v>10</v>
       </c>
@@ -1737,6 +1956,11 @@
       <c r="E11" s="21">
         <v>32.186880000000002</v>
       </c>
+      <c r="G11" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="22" t="s">
@@ -1751,6 +1975,31 @@
       <c r="E12" s="24">
         <v>56.327040000000004</v>
       </c>
+      <c r="G12" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="32" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(G13,B3:E12,3,FALSE),"¯\_(ツ)_/¯")</f>
+        <v>¯\_(ツ)_/¯</v>
+      </c>
+      <c r="I13" s="84" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(G13,B3:E12,4,FALSE),"Not Found")</f>
+        <v>Not Found</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G21" s="83"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D11">
@@ -1762,68 +2011,332 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5711E5B-134D-429F-8443-D053AAA10AC9}">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="B1:I12"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+      <c r="G1" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>75</v>
+      </c>
+      <c r="E3" s="21">
+        <v>120.7008</v>
+      </c>
+      <c r="G3" s="48" t="str" cm="1">
+        <f t="array" ref="G3:G9">_xlfn.UNIQUE(C3:C12)</f>
+        <v>Bangladesh</v>
+      </c>
+      <c r="I3" s="48" t="str" cm="1">
+        <f t="array" ref="I3:I12">_xlfn.UNIQUE(C3:C12,TRUE,FALSE)</f>
+        <v>Bangladesh</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>28</v>
+      </c>
+      <c r="E4" s="21">
+        <v>45.061631999999996</v>
+      </c>
+      <c r="G4" s="50" t="str">
+        <v>United States</v>
+      </c>
+      <c r="I4" s="50" t="str">
+        <v>United States</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5" s="21">
+        <v>40.233599999999996</v>
+      </c>
+      <c r="G5" s="50" t="str">
+        <v>South Africa</v>
+      </c>
+      <c r="I5" s="50" t="str">
+        <v>South Africa</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>94</v>
+      </c>
+      <c r="E6" s="21">
+        <v>151</v>
+      </c>
+      <c r="G6" s="50" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="I6" s="50" t="str">
+        <v>Australia</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
+      <c r="E7" s="21">
+        <v>89</v>
+      </c>
+      <c r="G7" s="50" t="str">
+        <v>New Zealand</v>
+      </c>
+      <c r="I7" s="50" t="str">
+        <v>New Zealand</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>70</v>
+      </c>
+      <c r="E8" s="21">
+        <v>112.65408000000001</v>
+      </c>
+      <c r="G8" s="50" t="str">
+        <v>Mexico</v>
+      </c>
+      <c r="I8" s="50" t="str">
+        <v>United States</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>56</v>
+      </c>
+      <c r="E9" s="21">
+        <v>90.123263999999992</v>
+      </c>
+      <c r="G9" s="64" t="str">
+        <v>Brazil</v>
+      </c>
+      <c r="I9" s="50" t="str">
+        <v>Mexico</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <v>150</v>
+      </c>
+      <c r="E10" s="21">
+        <v>241.4016</v>
+      </c>
+      <c r="I10" s="50" t="str">
+        <v>Brazil</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11" s="21">
+        <v>32.186880000000002</v>
+      </c>
+      <c r="I11" s="50" t="str">
+        <v>Australia</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="23">
+        <v>35</v>
+      </c>
+      <c r="E12" s="24">
+        <v>56.327040000000004</v>
+      </c>
+      <c r="I12" s="64" t="str">
+        <v>United States</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0532652-C19F-46F4-80B5-5F60C9F4588A}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="B1:T17"/>
+  <dimension ref="B1:Y17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection activeCell="E1" sqref="E1"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
     <col min="11" max="11" width="2.7109375" customWidth="1"/>
-    <col min="12" max="12" width="29" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="27.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="6.85546875" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" customWidth="1"/>
     <col min="16" max="16" width="2.7109375" customWidth="1"/>
-    <col min="17" max="17" width="33" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" customWidth="1"/>
-    <col min="19" max="19" width="17.28515625" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" customWidth="1"/>
+    <col min="17" max="17" width="27.7109375" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
+    <col min="19" max="19" width="7.28515625" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" customWidth="1"/>
+    <col min="21" max="21" width="2.7109375" customWidth="1"/>
+    <col min="22" max="22" width="27.5703125" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:25" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
       <c r="G1" s="14" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
       <c r="K1" s="7"/>
       <c r="L1" s="14" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
       <c r="O1" s="14"/>
-      <c r="Q1" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-    </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="57" t="s">
+      <c r="Q1" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="V1" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+    </row>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B2" s="56" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -1832,48 +2345,60 @@
       <c r="D2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="56" t="s">
+      <c r="J2" s="55" t="s">
         <v>21</v>
       </c>
       <c r="K2" s="5"/>
-      <c r="L2" s="54" t="s">
+      <c r="L2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="55" t="s">
+      <c r="M2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="55" t="s">
+      <c r="N2" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="56" t="s">
+      <c r="O2" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="54" t="s">
+      <c r="Q2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="55" t="s">
+      <c r="R2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="T2" s="62" t="s">
+      <c r="S2" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="T2" s="61" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V2" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y2" s="61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
         <v>2</v>
       </c>
@@ -1896,7 +2421,7 @@
       <c r="I3" s="3">
         <v>75</v>
       </c>
-      <c r="J3" s="59">
+      <c r="J3" s="58">
         <v>120.7008</v>
       </c>
       <c r="K3" s="5"/>
@@ -1910,7 +2435,7 @@
       <c r="N3" s="3">
         <v>20</v>
       </c>
-      <c r="O3" s="59">
+      <c r="O3" s="58">
         <v>32.186880000000002</v>
       </c>
       <c r="Q3" s="51" t="str" cm="1">
@@ -1923,11 +2448,24 @@
       <c r="S3" s="3">
         <v>94</v>
       </c>
-      <c r="T3" s="59">
+      <c r="T3" s="58">
         <v>151</v>
       </c>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V3" s="51" t="str" cm="1">
+        <f t="array" ref="V3:Y12">_xlfn.SORTBY(B3:E12,C3:C12,1,D3:D12,-1)</f>
+        <v>Ninety Mile Beach</v>
+      </c>
+      <c r="W3" s="3" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="X3" s="3">
+        <v>94</v>
+      </c>
+      <c r="Y3" s="58">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
         <v>3</v>
       </c>
@@ -1940,7 +2478,7 @@
       <c r="E4" s="21">
         <v>151</v>
       </c>
-      <c r="G4" s="53" t="str">
+      <c r="G4" s="52" t="str">
         <v>Long Beach</v>
       </c>
       <c r="H4" s="3" t="str">
@@ -1949,11 +2487,11 @@
       <c r="I4" s="3">
         <v>28</v>
       </c>
-      <c r="J4" s="59">
+      <c r="J4" s="58">
         <v>45.061631999999996</v>
       </c>
       <c r="K4" s="5"/>
-      <c r="L4" s="53" t="str">
+      <c r="L4" s="52" t="str">
         <v>Muizenberg</v>
       </c>
       <c r="M4" s="3" t="str">
@@ -1962,10 +2500,10 @@
       <c r="N4" s="3">
         <v>25</v>
       </c>
-      <c r="O4" s="59">
+      <c r="O4" s="58">
         <v>40.233599999999996</v>
       </c>
-      <c r="Q4" s="53" t="str">
+      <c r="Q4" s="52" t="str">
         <v>Stockton Beach</v>
       </c>
       <c r="R4" s="3" t="str">
@@ -1974,11 +2512,23 @@
       <c r="S4" s="3">
         <v>20</v>
       </c>
-      <c r="T4" s="59">
+      <c r="T4" s="58">
         <v>32.186880000000002</v>
       </c>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V4" s="52" t="str">
+        <v>Stockton Beach</v>
+      </c>
+      <c r="W4" s="3" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="X4" s="3">
+        <v>20</v>
+      </c>
+      <c r="Y4" s="58">
+        <v>32.186880000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
         <v>4</v>
       </c>
@@ -1991,7 +2541,7 @@
       <c r="E5" s="21">
         <v>120.7008</v>
       </c>
-      <c r="G5" s="53" t="str">
+      <c r="G5" s="52" t="str">
         <v>Muizenberg</v>
       </c>
       <c r="H5" s="3" t="str">
@@ -2000,11 +2550,11 @@
       <c r="I5" s="3">
         <v>25</v>
       </c>
-      <c r="J5" s="59">
+      <c r="J5" s="58">
         <v>40.233599999999996</v>
       </c>
       <c r="K5" s="5"/>
-      <c r="L5" s="53" t="str">
+      <c r="L5" s="52" t="str">
         <v>Long Beach</v>
       </c>
       <c r="M5" s="3" t="str">
@@ -2013,10 +2563,10 @@
       <c r="N5" s="3">
         <v>28</v>
       </c>
-      <c r="O5" s="59">
+      <c r="O5" s="58">
         <v>45.061631999999996</v>
       </c>
-      <c r="Q5" s="53" t="str">
+      <c r="Q5" s="52" t="str">
         <v>Cox's Bazar</v>
       </c>
       <c r="R5" s="3" t="str">
@@ -2025,11 +2575,23 @@
       <c r="S5" s="3">
         <v>75</v>
       </c>
-      <c r="T5" s="59">
+      <c r="T5" s="58">
         <v>120.7008</v>
       </c>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V5" s="52" t="str">
+        <v>Cox's Bazar</v>
+      </c>
+      <c r="W5" s="3" t="str">
+        <v>Bangladesh</v>
+      </c>
+      <c r="X5" s="3">
+        <v>75</v>
+      </c>
+      <c r="Y5" s="58">
+        <v>120.7008</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
         <v>5</v>
       </c>
@@ -2042,7 +2604,7 @@
       <c r="E6" s="21">
         <v>112.65408000000001</v>
       </c>
-      <c r="G6" s="53" t="str">
+      <c r="G6" s="52" t="str">
         <v>Ninety Mile Beach</v>
       </c>
       <c r="H6" s="3" t="str">
@@ -2051,11 +2613,11 @@
       <c r="I6" s="3">
         <v>94</v>
       </c>
-      <c r="J6" s="59">
+      <c r="J6" s="58">
         <v>151</v>
       </c>
       <c r="K6" s="5"/>
-      <c r="L6" s="53" t="str">
+      <c r="L6" s="52" t="str">
         <v>Virginia Beach</v>
       </c>
       <c r="M6" s="3" t="str">
@@ -2064,10 +2626,10 @@
       <c r="N6" s="3">
         <v>35</v>
       </c>
-      <c r="O6" s="59">
+      <c r="O6" s="58">
         <v>56.327040000000004</v>
       </c>
-      <c r="Q6" s="53" t="str">
+      <c r="Q6" s="52" t="str">
         <v>Praia do Cassino Beach</v>
       </c>
       <c r="R6" s="3" t="str">
@@ -2076,11 +2638,23 @@
       <c r="S6" s="3">
         <v>150</v>
       </c>
-      <c r="T6" s="59">
+      <c r="T6" s="58">
         <v>241.4016</v>
       </c>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V6" s="52" t="str">
+        <v>Praia do Cassino Beach</v>
+      </c>
+      <c r="W6" s="3" t="str">
+        <v>Brazil</v>
+      </c>
+      <c r="X6" s="3">
+        <v>150</v>
+      </c>
+      <c r="Y6" s="58">
+        <v>241.4016</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>6</v>
       </c>
@@ -2093,7 +2667,7 @@
       <c r="E7" s="21">
         <v>90.123263999999992</v>
       </c>
-      <c r="G7" s="53" t="str">
+      <c r="G7" s="52" t="str">
         <v>Ninety Mile Beach</v>
       </c>
       <c r="H7" s="3" t="str">
@@ -2102,11 +2676,11 @@
       <c r="I7" s="3">
         <v>55</v>
       </c>
-      <c r="J7" s="59">
+      <c r="J7" s="58">
         <v>89</v>
       </c>
       <c r="K7" s="5"/>
-      <c r="L7" s="53" t="str">
+      <c r="L7" s="52" t="str">
         <v>Ninety Mile Beach</v>
       </c>
       <c r="M7" s="3" t="str">
@@ -2115,10 +2689,10 @@
       <c r="N7" s="3">
         <v>55</v>
       </c>
-      <c r="O7" s="59">
+      <c r="O7" s="58">
         <v>89</v>
       </c>
-      <c r="Q7" s="53" t="str">
+      <c r="Q7" s="52" t="str">
         <v>Playa Novillero</v>
       </c>
       <c r="R7" s="3" t="str">
@@ -2127,11 +2701,23 @@
       <c r="S7" s="3">
         <v>56</v>
       </c>
-      <c r="T7" s="59">
+      <c r="T7" s="58">
         <v>90.123263999999992</v>
       </c>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V7" s="52" t="str">
+        <v>Playa Novillero</v>
+      </c>
+      <c r="W7" s="3" t="str">
+        <v>Mexico</v>
+      </c>
+      <c r="X7" s="3">
+        <v>56</v>
+      </c>
+      <c r="Y7" s="58">
+        <v>90.123263999999992</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
         <v>3</v>
       </c>
@@ -2144,7 +2730,7 @@
       <c r="E8" s="21">
         <v>89</v>
       </c>
-      <c r="G8" s="53" t="str">
+      <c r="G8" s="52" t="str">
         <v>Padre Island National Seashore</v>
       </c>
       <c r="H8" s="3" t="str">
@@ -2153,11 +2739,11 @@
       <c r="I8" s="3">
         <v>70</v>
       </c>
-      <c r="J8" s="59">
+      <c r="J8" s="58">
         <v>112.65408000000001</v>
       </c>
       <c r="K8" s="5"/>
-      <c r="L8" s="53" t="str">
+      <c r="L8" s="52" t="str">
         <v>Playa Novillero</v>
       </c>
       <c r="M8" s="3" t="str">
@@ -2166,10 +2752,10 @@
       <c r="N8" s="3">
         <v>56</v>
       </c>
-      <c r="O8" s="59">
+      <c r="O8" s="58">
         <v>90.123263999999992</v>
       </c>
-      <c r="Q8" s="53" t="str">
+      <c r="Q8" s="52" t="str">
         <v>Ninety Mile Beach</v>
       </c>
       <c r="R8" s="3" t="str">
@@ -2178,11 +2764,23 @@
       <c r="S8" s="3">
         <v>55</v>
       </c>
-      <c r="T8" s="59">
+      <c r="T8" s="58">
         <v>89</v>
       </c>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V8" s="52" t="str">
+        <v>Ninety Mile Beach</v>
+      </c>
+      <c r="W8" s="3" t="str">
+        <v>New Zealand</v>
+      </c>
+      <c r="X8" s="3">
+        <v>55</v>
+      </c>
+      <c r="Y8" s="58">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
         <v>7</v>
       </c>
@@ -2195,7 +2793,7 @@
       <c r="E9" s="21">
         <v>56.327040000000004</v>
       </c>
-      <c r="G9" s="53" t="str">
+      <c r="G9" s="52" t="str">
         <v>Playa Novillero</v>
       </c>
       <c r="H9" s="3" t="str">
@@ -2204,11 +2802,11 @@
       <c r="I9" s="3">
         <v>56</v>
       </c>
-      <c r="J9" s="59">
+      <c r="J9" s="58">
         <v>90.123263999999992</v>
       </c>
       <c r="K9" s="5"/>
-      <c r="L9" s="53" t="str">
+      <c r="L9" s="52" t="str">
         <v>Padre Island National Seashore</v>
       </c>
       <c r="M9" s="3" t="str">
@@ -2217,10 +2815,10 @@
       <c r="N9" s="3">
         <v>70</v>
       </c>
-      <c r="O9" s="59">
+      <c r="O9" s="58">
         <v>112.65408000000001</v>
       </c>
-      <c r="Q9" s="53" t="str">
+      <c r="Q9" s="52" t="str">
         <v>Muizenberg</v>
       </c>
       <c r="R9" s="3" t="str">
@@ -2229,11 +2827,23 @@
       <c r="S9" s="3">
         <v>25</v>
       </c>
-      <c r="T9" s="59">
+      <c r="T9" s="58">
         <v>40.233599999999996</v>
       </c>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V9" s="52" t="str">
+        <v>Muizenberg</v>
+      </c>
+      <c r="W9" s="3" t="str">
+        <v>South Africa</v>
+      </c>
+      <c r="X9" s="3">
+        <v>25</v>
+      </c>
+      <c r="Y9" s="58">
+        <v>40.233599999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="s">
         <v>8</v>
       </c>
@@ -2246,7 +2856,7 @@
       <c r="E10" s="21">
         <v>45.061631999999996</v>
       </c>
-      <c r="G10" s="53" t="str">
+      <c r="G10" s="52" t="str">
         <v>Praia do Cassino Beach</v>
       </c>
       <c r="H10" s="3" t="str">
@@ -2255,11 +2865,11 @@
       <c r="I10" s="3">
         <v>150</v>
       </c>
-      <c r="J10" s="59">
+      <c r="J10" s="58">
         <v>241.4016</v>
       </c>
       <c r="K10" s="5"/>
-      <c r="L10" s="53" t="str">
+      <c r="L10" s="52" t="str">
         <v>Cox's Bazar</v>
       </c>
       <c r="M10" s="3" t="str">
@@ -2268,10 +2878,10 @@
       <c r="N10" s="3">
         <v>75</v>
       </c>
-      <c r="O10" s="59">
+      <c r="O10" s="58">
         <v>120.7008</v>
       </c>
-      <c r="Q10" s="53" t="str">
+      <c r="Q10" s="52" t="str">
         <v>Padre Island National Seashore</v>
       </c>
       <c r="R10" s="3" t="str">
@@ -2280,11 +2890,23 @@
       <c r="S10" s="3">
         <v>70</v>
       </c>
-      <c r="T10" s="59">
+      <c r="T10" s="58">
         <v>112.65408000000001</v>
       </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V10" s="52" t="str">
+        <v>Padre Island National Seashore</v>
+      </c>
+      <c r="W10" s="3" t="str">
+        <v>United States</v>
+      </c>
+      <c r="X10" s="3">
+        <v>70</v>
+      </c>
+      <c r="Y10" s="58">
+        <v>112.65408000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="s">
         <v>9</v>
       </c>
@@ -2297,7 +2919,7 @@
       <c r="E11" s="21">
         <v>40.233599999999996</v>
       </c>
-      <c r="G11" s="53" t="str">
+      <c r="G11" s="52" t="str">
         <v>Stockton Beach</v>
       </c>
       <c r="H11" s="3" t="str">
@@ -2306,11 +2928,11 @@
       <c r="I11" s="3">
         <v>20</v>
       </c>
-      <c r="J11" s="59">
+      <c r="J11" s="58">
         <v>32.186880000000002</v>
       </c>
       <c r="K11" s="5"/>
-      <c r="L11" s="53" t="str">
+      <c r="L11" s="52" t="str">
         <v>Ninety Mile Beach</v>
       </c>
       <c r="M11" s="3" t="str">
@@ -2319,10 +2941,10 @@
       <c r="N11" s="3">
         <v>94</v>
       </c>
-      <c r="O11" s="59">
+      <c r="O11" s="58">
         <v>151</v>
       </c>
-      <c r="Q11" s="53" t="str">
+      <c r="Q11" s="52" t="str">
         <v>Virginia Beach</v>
       </c>
       <c r="R11" s="3" t="str">
@@ -2331,11 +2953,23 @@
       <c r="S11" s="3">
         <v>35</v>
       </c>
-      <c r="T11" s="59">
+      <c r="T11" s="58">
         <v>56.327040000000004</v>
       </c>
-    </row>
-    <row r="12" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V11" s="52" t="str">
+        <v>Virginia Beach</v>
+      </c>
+      <c r="W11" s="3" t="str">
+        <v>United States</v>
+      </c>
+      <c r="X11" s="3">
+        <v>35</v>
+      </c>
+      <c r="Y11" s="58">
+        <v>56.327040000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="22" t="s">
         <v>10</v>
       </c>
@@ -2348,7 +2982,7 @@
       <c r="E12" s="24">
         <v>32.186880000000002</v>
       </c>
-      <c r="G12" s="60" t="str">
+      <c r="G12" s="59" t="str">
         <v>Virginia Beach</v>
       </c>
       <c r="H12" s="35" t="str">
@@ -2357,10 +2991,10 @@
       <c r="I12" s="35">
         <v>35</v>
       </c>
-      <c r="J12" s="61">
+      <c r="J12" s="60">
         <v>56.327040000000004</v>
       </c>
-      <c r="L12" s="60" t="str">
+      <c r="L12" s="59" t="str">
         <v>Praia do Cassino Beach</v>
       </c>
       <c r="M12" s="35" t="str">
@@ -2369,10 +3003,10 @@
       <c r="N12" s="35">
         <v>150</v>
       </c>
-      <c r="O12" s="61">
+      <c r="O12" s="60">
         <v>241.4016</v>
       </c>
-      <c r="Q12" s="60" t="str">
+      <c r="Q12" s="59" t="str">
         <v>Long Beach</v>
       </c>
       <c r="R12" s="35" t="str">
@@ -2381,14 +3015,24 @@
       <c r="S12" s="35">
         <v>28</v>
       </c>
-      <c r="T12" s="61">
+      <c r="T12" s="60">
         <v>45.061631999999996</v>
       </c>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="Q15" s="6" t="s">
-        <v>87</v>
-      </c>
+      <c r="V12" s="59" t="str">
+        <v>Long Beach</v>
+      </c>
+      <c r="W12" s="35" t="str">
+        <v>United States</v>
+      </c>
+      <c r="X12" s="35">
+        <v>28</v>
+      </c>
+      <c r="Y12" s="60">
+        <v>45.061631999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Q15" s="6"/>
     </row>
     <row r="17" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q17" s="6"/>
@@ -2403,12 +3047,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85225069-3EA1-4319-B117-3D9BEE493990}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="B1:R15"/>
+  <dimension ref="B1:AA15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
       <selection pane="topRight"/>
@@ -2417,47 +3061,70 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
     <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
     <col min="11" max="11" width="2.7109375" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" customWidth="1"/>
-    <col min="13" max="15" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" customWidth="1"/>
+    <col min="14" max="15" width="11.28515625" customWidth="1"/>
     <col min="16" max="16" width="2.7109375" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" customWidth="1"/>
-    <col min="18" max="18" width="30.7109375" customWidth="1"/>
+    <col min="17" max="17" width="30.7109375" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" customWidth="1"/>
+    <col min="19" max="20" width="11.28515625" customWidth="1"/>
+    <col min="21" max="21" width="2.7109375" customWidth="1"/>
+    <col min="22" max="22" width="30.7109375" customWidth="1"/>
+    <col min="23" max="23" width="13.7109375" customWidth="1"/>
+    <col min="24" max="24" width="9" customWidth="1"/>
+    <col min="25" max="25" width="10" customWidth="1"/>
+    <col min="26" max="26" width="2.7109375" customWidth="1"/>
+    <col min="27" max="27" width="43.140625" customWidth="1"/>
+    <col min="28" max="28" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
       <c r="E1" s="18"/>
       <c r="G1" s="16" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
       <c r="J1" s="18"/>
       <c r="L1" s="16" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
       <c r="Q1" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="R1" s="18"/>
-    </row>
-    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="18"/>
+      <c r="V1" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="18"/>
+      <c r="AA1" s="65" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="56" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -2466,32 +3133,45 @@
       <c r="D2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="57" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="43" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I2" s="23"/>
       <c r="J2" s="33"/>
-      <c r="L2" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="L2" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" s="23"/>
+      <c r="O2" s="33"/>
+      <c r="Q2" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="20"/>
-      <c r="Q2" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="R2" s="33" t="s">
+      <c r="S2" s="23"/>
+      <c r="T2" s="33"/>
+      <c r="V2" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="W2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y2" s="20"/>
+      <c r="AA2" s="102" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
@@ -2504,16 +3184,19 @@
       <c r="E3" s="21">
         <v>120.7008</v>
       </c>
-      <c r="L3" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="M3" s="23">
+      <c r="V3" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="W3" s="23">
         <v>35</v>
       </c>
-      <c r="N3" s="23"/>
-      <c r="O3" s="33"/>
-    </row>
-    <row r="4" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X3" s="23"/>
+      <c r="Y3" s="33"/>
+      <c r="AA3" s="100" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
@@ -2527,17 +3210,25 @@
         <v>45.061631999999996</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
       <c r="J4" s="31"/>
+      <c r="L4" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="31"/>
       <c r="Q4" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="R4" s="31"/>
-    </row>
-    <row r="5" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="31"/>
+    </row>
+    <row r="5" spans="2:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
@@ -2550,31 +3241,53 @@
       <c r="E5" s="21">
         <v>40.233599999999996</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="G5" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="64" t="s">
+      <c r="I5" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="65" t="s">
+      <c r="J5" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="31"/>
-      <c r="Q5" s="51" t="str" cm="1">
-        <f t="array" ref="Q5:Q7">_xlfn._xlws.FILTER(B3:B12&amp;": "&amp;D3:D12&amp;" miles",C3:C12=R2)</f>
-        <v>Long Beach: 28 miles</v>
-      </c>
-      <c r="R5" s="20"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="L5" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="V5" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="31"/>
+      <c r="AA5" s="65" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
@@ -2587,37 +3300,57 @@
       <c r="E6" s="21">
         <v>151</v>
       </c>
-      <c r="G6" s="82" t="str" cm="1">
-        <f t="array" ref="G6:J8">_xlfn._xlws.FILTER(B3:E12,C3:C12=H2,"No matches found")</f>
+      <c r="G6" s="87" t="str" cm="1">
+        <f t="array" ref="G6:J7">_xlfn._xlws.FILTER(B3:E12,B3:B12=H2)</f>
+        <v>Ninety Mile Beach</v>
+      </c>
+      <c r="H6" s="89" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="I6" s="89">
+        <v>94</v>
+      </c>
+      <c r="J6" s="58">
+        <v>151</v>
+      </c>
+      <c r="L6" s="104" t="e" cm="1" vm="1">
+        <f t="array" ref="L6">_xlfn._xlws.FILTER(B3:E12,B3:B12=M2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="60"/>
+      <c r="Q6" s="87" t="str" cm="1">
+        <f t="array" ref="Q6:T8">_xlfn._xlws.FILTER(B3:E12,C3:C12=R2,"No matches found")</f>
         <v>Long Beach</v>
       </c>
-      <c r="H6" s="3" t="str">
+      <c r="R6" s="89" t="str">
         <v>United States</v>
       </c>
-      <c r="I6" s="3">
+      <c r="S6" s="89">
         <v>28</v>
       </c>
-      <c r="J6" s="59">
+      <c r="T6" s="58">
         <v>45.061631999999996</v>
       </c>
-      <c r="L6" s="66" t="s">
+      <c r="V6" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="W6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="X6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="58" t="s">
+      <c r="Y6" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="19" t="str">
-        <v>Padre Island National Seashore: 70 miles</v>
-      </c>
-      <c r="R6" s="20"/>
-    </row>
-    <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA6" s="48" t="str" cm="1">
+        <f t="array" ref="AA6:AA8">_xlfn._xlws.FILTER(B3:B12&amp;": "&amp;D3:D12&amp;" miles",C3:C12=AA3)</f>
+        <v>Long Beach: 28 miles</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="19" t="s">
         <v>3</v>
       </c>
@@ -2630,37 +3363,52 @@
       <c r="E7" s="21">
         <v>89</v>
       </c>
-      <c r="G7" s="53" t="str">
+      <c r="G7" s="59" t="str">
+        <v>Ninety Mile Beach</v>
+      </c>
+      <c r="H7" s="35" t="str">
+        <v>New Zealand</v>
+      </c>
+      <c r="I7" s="35">
+        <v>55</v>
+      </c>
+      <c r="J7" s="60">
+        <v>89</v>
+      </c>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="103"/>
+      <c r="Q7" s="52" t="str">
         <v>Padre Island National Seashore</v>
       </c>
-      <c r="H7" s="3" t="str">
+      <c r="R7" s="89" t="str">
         <v>United States</v>
       </c>
-      <c r="I7" s="3">
+      <c r="S7" s="89">
         <v>70</v>
       </c>
-      <c r="J7" s="59">
+      <c r="T7" s="58">
         <v>112.65408000000001</v>
       </c>
-      <c r="L7" s="51" t="str" cm="1">
-        <f t="array" ref="L7:O8">_xlfn._xlws.FILTER(B3:E12,(C3:C12=M2)*(D3:D12&gt;=M3))</f>
+      <c r="V7" s="51" t="str" cm="1">
+        <f t="array" ref="V7:Y8">_xlfn._xlws.FILTER(B3:E12,(C3:C12=W2)*(D3:D12&gt;=W3))</f>
         <v>Padre Island National Seashore</v>
       </c>
-      <c r="M7" t="str">
+      <c r="W7" t="str">
         <v>United States</v>
       </c>
-      <c r="N7">
+      <c r="X7">
         <v>70</v>
       </c>
-      <c r="O7" s="42">
+      <c r="Y7" s="42">
         <v>112.65408000000001</v>
       </c>
-      <c r="Q7" s="22" t="str">
-        <v>Virginia Beach: 35 miles</v>
-      </c>
-      <c r="R7" s="33"/>
-    </row>
-    <row r="8" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA7" s="101" t="str">
+        <v>Padre Island National Seashore: 70 miles</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="19" t="s">
         <v>5</v>
       </c>
@@ -2673,32 +3421,43 @@
       <c r="E8" s="21">
         <v>112.65408000000001</v>
       </c>
-      <c r="G8" s="22" t="str">
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="91"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="91"/>
+      <c r="Q8" s="22" t="str">
         <v>Virginia Beach</v>
       </c>
-      <c r="H8" s="23" t="str">
+      <c r="R8" s="23" t="str">
         <v>United States</v>
       </c>
-      <c r="I8" s="23">
+      <c r="S8" s="23">
         <v>35</v>
       </c>
-      <c r="J8" s="44">
+      <c r="T8" s="44">
         <v>56.327040000000004</v>
       </c>
-      <c r="L8" s="22" t="str">
+      <c r="V8" s="22" t="str">
         <v>Virginia Beach</v>
       </c>
-      <c r="M8" s="23" t="str">
+      <c r="W8" s="23" t="str">
         <v>United States</v>
       </c>
-      <c r="N8" s="23">
+      <c r="X8" s="23">
         <v>35</v>
       </c>
-      <c r="O8" s="44">
+      <c r="Y8" s="44">
         <v>56.327040000000004</v>
       </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="AA8" s="100" t="str">
+        <v>Virginia Beach: 35 miles</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="19" t="s">
         <v>6</v>
       </c>
@@ -2711,8 +3470,14 @@
       <c r="E9" s="21">
         <v>90.123263999999992</v>
       </c>
-    </row>
-    <row r="10" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="31"/>
+    </row>
+    <row r="10" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="19" t="s">
         <v>2</v>
       </c>
@@ -2725,8 +3490,20 @@
       <c r="E10" s="21">
         <v>241.4016</v>
       </c>
-    </row>
-    <row r="11" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L10" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="71" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="19" t="s">
         <v>10</v>
       </c>
@@ -2739,14 +3516,21 @@
       <c r="E11" s="21">
         <v>32.186880000000002</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="31"/>
-    </row>
-    <row r="12" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L11" s="104" t="str" cm="1">
+        <f t="array" ref="L11">_xlfn._xlws.FILTER(B3:E12,B3:B12=M2,"No matches found")</f>
+        <v>No matches found</v>
+      </c>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="60"/>
+      <c r="Q11" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="31"/>
+    </row>
+    <row r="12" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="22" t="s">
         <v>7</v>
       </c>
@@ -2759,59 +3543,63 @@
       <c r="E12" s="24">
         <v>56.327040000000004</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="103"/>
+      <c r="Q12" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="39" t="s">
+      <c r="R12" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="I12" s="39" t="s">
+      <c r="S12" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="40" t="s">
+      <c r="T12" s="40" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="G13" s="51" t="str" cm="1">
-        <f t="array" ref="G13:J15">_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B3:E12,C3:C12=H2,"No matches found"),3,-1)</f>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Q13" s="51" t="str" cm="1">
+        <f t="array" ref="Q13:T15">_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B3:E12,C3:C12=R2,"No matches found"),3,-1)</f>
         <v>Padre Island National Seashore</v>
       </c>
-      <c r="H13" s="3" t="str">
+      <c r="R13" s="3" t="str">
         <v>United States</v>
       </c>
-      <c r="I13" s="3">
+      <c r="S13" s="3">
         <v>70</v>
       </c>
-      <c r="J13" s="59">
+      <c r="T13" s="58">
         <v>112.65408000000001</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="G14" s="53" t="str">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Q14" s="93" t="str">
         <v>Virginia Beach</v>
       </c>
-      <c r="H14" s="3" t="str">
+      <c r="R14" s="3" t="str">
         <v>United States</v>
       </c>
-      <c r="I14" s="3">
+      <c r="S14" s="3">
         <v>35</v>
       </c>
-      <c r="J14" s="59">
+      <c r="T14" s="58">
         <v>56.327040000000004</v>
       </c>
     </row>
-    <row r="15" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G15" s="60" t="str">
+    <row r="15" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q15" s="59" t="str">
         <v>Long Beach</v>
       </c>
-      <c r="H15" s="35" t="str">
+      <c r="R15" s="35" t="str">
         <v>United States</v>
       </c>
-      <c r="I15" s="35">
+      <c r="S15" s="35">
         <v>28</v>
       </c>
-      <c r="J15" s="61">
+      <c r="T15" s="60">
         <v>45.061631999999996</v>
       </c>
     </row>
@@ -2821,7 +3609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E0623D-D469-43C7-9759-56619D9C5553}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="B1:I12"/>
@@ -2841,18 +3629,18 @@
   <sheetData>
     <row r="1" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
       <c r="E1" s="18"/>
       <c r="G1" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="68"/>
+        <v>116</v>
+      </c>
+      <c r="H1" s="65"/>
     </row>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="62" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="39" t="s">
@@ -2864,11 +3652,11 @@
       <c r="E2" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="69" t="s">
-        <v>77</v>
+      <c r="G2" s="66" t="s">
+        <v>65</v>
       </c>
       <c r="H2" s="33">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2900,7 +3688,7 @@
         <v>45.061631999999996</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="H4" s="31"/>
     </row>
@@ -2917,11 +3705,11 @@
       <c r="E5" s="21">
         <v>40.233599999999996</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="58" t="s">
-        <v>30</v>
+      <c r="H5" s="57" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -2938,12 +3726,12 @@
         <v>151</v>
       </c>
       <c r="G6" s="51" t="str" cm="1">
-        <f t="array" ref="G6:G12">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(C3:C12,D3:D12&gt;H2)))</f>
+        <f t="array" ref="G6:G11">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(C3:C12,D3:D12&gt;H2)))</f>
         <v>Australia</v>
       </c>
       <c r="H6" s="36" cm="1">
-        <f t="array" ref="H6:H12">COUNTIFS(C3:C12,_xlfn.ANCHORARRAY(G6),D3:D12,"&gt;="&amp;H2)</f>
-        <v>2</v>
+        <f t="array" ref="H6:H11">COUNTIFS(C3:C12,_xlfn.ANCHORARRAY(G6),D3:D12,"&gt;="&amp;H2)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -3040,10 +3828,10 @@
         <v>32.186880000000002</v>
       </c>
       <c r="G11" s="19" t="str">
-        <v>South Africa</v>
+        <v>United States</v>
       </c>
       <c r="H11" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3059,12 +3847,8 @@
       <c r="E12" s="24">
         <v>56.327040000000004</v>
       </c>
-      <c r="G12" s="22" t="str">
-        <v>United States</v>
-      </c>
-      <c r="H12" s="33">
-        <v>3</v>
-      </c>
+      <c r="G12" s="22"/>
+      <c r="H12" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3073,109 +3857,174 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D218FA5D-3DB8-4110-8467-9D05E8FDD814}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:L128"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N31" sqref="N31"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>107</v>
+    <row r="1" spans="1:12" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="92" t="s">
+        <v>119</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
+      <c r="G1" s="92" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="10">
         <v>45292</v>
       </c>
+      <c r="G2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="10">
+        <v>45292</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="9">
         <v>5.2499999999999998E-2</v>
       </c>
+      <c r="G3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="9">
+        <v>5.2499999999999998E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="83">
-        <v>5000</v>
+        <v>32</v>
+      </c>
+      <c r="B5" s="78">
+        <v>25000</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="78">
+        <v>25000</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="84">
+        <v>34</v>
+      </c>
+      <c r="B6" s="79">
         <f>-PMT(B3/12,B4,B5)</f>
-        <v>846.14017033510913</v>
-      </c>
+        <v>5065.8159871888538</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="81"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="C8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>38</v>
+      <c r="G8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" cm="1">
-        <f t="array" ref="A9:A14">_xlfn.SEQUENCE(B4)</f>
+        <f t="array" ref="A9:A68">_xlfn.SEQUENCE(B4*12)</f>
         <v>1</v>
       </c>
       <c r="B9" s="11" cm="1">
-        <f t="array" ref="B9:B14">EOMONTH(B2,_xlfn.ANCHORARRAY(A9)-2)+1</f>
+        <f t="array" ref="B9:B68">EOMONTH(B2,_xlfn.ANCHORARRAY(A9)-2)+1</f>
         <v>45292</v>
       </c>
-      <c r="C9" s="84" cm="1">
-        <f t="array" ref="C9:C14">-IPMT(B3/12,_xlfn.ANCHORARRAY(A9),B4,B5)</f>
-        <v>21.874999999999996</v>
-      </c>
-      <c r="D9" s="84" cm="1">
-        <f t="array" ref="D9:D14">-PPMT(B3/12,_xlfn.ANCHORARRAY(A9),B4,B5)</f>
-        <v>824.26517033510913</v>
-      </c>
-      <c r="E9" s="84" cm="1">
-        <f t="array" ref="E9:E14">SUMIF(_xlfn.ANCHORARRAY(A9),"&gt;"&amp;_xlfn.ANCHORARRAY(A9),_xlfn.ANCHORARRAY(D9))</f>
-        <v>4175.7348296648897</v>
-      </c>
+      <c r="C9" s="79" cm="1">
+        <f t="array" ref="C9:C68">-IPMT(B3/12,_xlfn.ANCHORARRAY(A9),B4*12,B5)</f>
+        <v>109.37499999999999</v>
+      </c>
+      <c r="D9" s="79" cm="1">
+        <f t="array" ref="D9:D68">-PPMT(B3/12,_xlfn.ANCHORARRAY(A9),B4*12,B5)</f>
+        <v>365.27459608566824</v>
+      </c>
+      <c r="E9" s="79" cm="1">
+        <f t="array" ref="E9:E68">SUMIF(_xlfn.ANCHORARRAY(A9),"&gt;"&amp;_xlfn.ANCHORARRAY(A9),_xlfn.ANCHORARRAY(D9))</f>
+        <v>24634.725403914326</v>
+      </c>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -3185,13 +4034,13 @@
         <v>45323</v>
       </c>
       <c r="C10" s="8">
-        <v>18.26883987978389</v>
+        <v>107.7769236421252</v>
       </c>
       <c r="D10" s="8">
-        <v>827.87133045532528</v>
-      </c>
-      <c r="E10" s="79">
-        <v>3347.8634992095649</v>
+        <v>366.87267244354302</v>
+      </c>
+      <c r="E10" s="75">
+        <v>24267.852731470779</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -3202,13 +4051,13 @@
         <v>45352</v>
       </c>
       <c r="C11" s="8">
-        <v>14.646902809041848</v>
+        <v>106.17185570018471</v>
       </c>
       <c r="D11" s="8">
-        <v>831.49326752606737</v>
-      </c>
-      <c r="E11" s="79">
-        <v>2516.370231683497</v>
+        <v>368.47774038548346</v>
+      </c>
+      <c r="E11" s="75">
+        <v>23899.374991085297</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3219,13 +4068,13 @@
         <v>45383</v>
       </c>
       <c r="C12" s="8">
-        <v>11.009119763615301</v>
+        <v>104.55976558599819</v>
       </c>
       <c r="D12" s="8">
-        <v>835.1310505714938</v>
-      </c>
-      <c r="E12" s="79">
-        <v>1681.2391811120033</v>
+        <v>370.08983049966997</v>
+      </c>
+      <c r="E12" s="75">
+        <v>23529.28516058563</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -3236,15 +4085,15 @@
         <v>45413</v>
       </c>
       <c r="C13" s="8">
-        <v>7.3554214173650143</v>
+        <v>102.94062257756215</v>
       </c>
       <c r="D13" s="8">
-        <v>838.78474891774408</v>
-      </c>
-      <c r="E13" s="79">
-        <v>842.4544321942592</v>
-      </c>
-      <c r="L13" s="80"/>
+        <v>371.70897350810611</v>
+      </c>
+      <c r="E13" s="75">
+        <v>23157.57618707752</v>
+      </c>
+      <c r="L13" s="76"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -3254,408 +4103,1002 @@
         <v>45444</v>
       </c>
       <c r="C14" s="8">
-        <v>3.6857381408498848</v>
+        <v>101.31439581846421</v>
       </c>
       <c r="D14" s="8">
-        <v>842.4544321942592</v>
-      </c>
-      <c r="E14" s="79">
+        <v>373.33520026720402</v>
+      </c>
+      <c r="E14" s="75">
+        <v>22784.240986810317</v>
+      </c>
+      <c r="L14" s="76"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" s="10">
+        <v>45474</v>
+      </c>
+      <c r="C15" s="8">
+        <v>99.681054317295164</v>
+      </c>
+      <c r="D15" s="8">
+        <v>374.96854176837303</v>
+      </c>
+      <c r="E15" s="8">
+        <v>22409.272445041945</v>
+      </c>
+      <c r="L15" s="76"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" s="10">
+        <v>45505</v>
+      </c>
+      <c r="C16" s="8">
+        <v>98.040566947058522</v>
+      </c>
+      <c r="D16" s="8">
+        <v>376.60902913860969</v>
+      </c>
+      <c r="E16" s="8">
+        <v>22032.663415903338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17" s="10">
+        <v>45536</v>
+      </c>
+      <c r="C17" s="8">
+        <v>96.392902444577118</v>
+      </c>
+      <c r="D17" s="8">
+        <v>378.25669364109109</v>
+      </c>
+      <c r="E17" s="8">
+        <v>21654.406722262243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18" s="10">
+        <v>45566</v>
+      </c>
+      <c r="C18" s="8">
+        <v>94.738029409897337</v>
+      </c>
+      <c r="D18" s="8">
+        <v>379.91156667577087</v>
+      </c>
+      <c r="E18" s="8">
+        <v>21274.495155586475</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19" s="10">
+        <v>45597</v>
+      </c>
+      <c r="C19" s="8">
+        <v>93.075916305690853</v>
+      </c>
+      <c r="D19" s="8">
+        <v>381.57367977997734</v>
+      </c>
+      <c r="E19" s="8">
+        <v>20892.921475806495</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>12</v>
+      </c>
+      <c r="B20" s="10">
+        <v>45627</v>
+      </c>
+      <c r="C20" s="8">
+        <v>91.40653145665344</v>
+      </c>
+      <c r="D20" s="8">
+        <v>383.24306462901473</v>
+      </c>
+      <c r="E20" s="8">
+        <v>20509.67841117748</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>13</v>
+      </c>
+      <c r="B21" s="10">
+        <v>45658</v>
+      </c>
+      <c r="C21" s="8">
+        <v>89.7298430489015</v>
+      </c>
+      <c r="D21" s="8">
+        <v>384.91975303676668</v>
+      </c>
+      <c r="E21" s="8">
+        <v>20124.758658140716</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>14</v>
+      </c>
+      <c r="B22" s="10">
+        <v>45689</v>
+      </c>
+      <c r="C22" s="8">
+        <v>88.045819129365654</v>
+      </c>
+      <c r="D22" s="8">
+        <v>386.60377695630257</v>
+      </c>
+      <c r="E22" s="8">
+        <v>19738.154881184411</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>15</v>
+      </c>
+      <c r="B23" s="10">
+        <v>45717</v>
+      </c>
+      <c r="C23" s="8">
+        <v>86.354427605181826</v>
+      </c>
+      <c r="D23" s="8">
+        <v>388.29516848048632</v>
+      </c>
+      <c r="E23" s="8">
+        <v>19349.859712703925</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>16</v>
+      </c>
+      <c r="B24" s="10">
+        <v>45748</v>
+      </c>
+      <c r="C24" s="8">
+        <v>84.655636243079712</v>
+      </c>
+      <c r="D24" s="8">
+        <v>389.99395984258848</v>
+      </c>
+      <c r="E24" s="8">
+        <v>18959.865752861337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>17</v>
+      </c>
+      <c r="B25" s="10">
+        <v>45778</v>
+      </c>
+      <c r="C25" s="8">
+        <v>82.949412668768375</v>
+      </c>
+      <c r="D25" s="8">
+        <v>391.70018341689985</v>
+      </c>
+      <c r="E25" s="8">
+        <v>18568.165569444438</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>18</v>
+      </c>
+      <c r="B26" s="10">
+        <v>45809</v>
+      </c>
+      <c r="C26" s="8">
+        <v>81.235724366319417</v>
+      </c>
+      <c r="D26" s="8">
+        <v>393.41387171934878</v>
+      </c>
+      <c r="E26" s="8">
+        <v>18174.751697725089</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>19</v>
+      </c>
+      <c r="B27" s="10">
+        <v>45839</v>
+      </c>
+      <c r="C27" s="8">
+        <v>79.514538677547293</v>
+      </c>
+      <c r="D27" s="8">
+        <v>395.13505740812093</v>
+      </c>
+      <c r="E27" s="8">
+        <v>17779.616640316966</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>20</v>
+      </c>
+      <c r="B28" s="10">
+        <v>45870</v>
+      </c>
+      <c r="C28" s="8">
+        <v>77.785822801386757</v>
+      </c>
+      <c r="D28" s="8">
+        <v>396.86377328428142</v>
+      </c>
+      <c r="E28" s="8">
+        <v>17382.752867032686</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>21</v>
+      </c>
+      <c r="B29" s="10">
+        <v>45901</v>
+      </c>
+      <c r="C29" s="8">
+        <v>76.049543793268029</v>
+      </c>
+      <c r="D29" s="8">
+        <v>398.60005229240022</v>
+      </c>
+      <c r="E29" s="8">
+        <v>16984.15281474029</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>22</v>
+      </c>
+      <c r="B30" s="10">
+        <v>45931</v>
+      </c>
+      <c r="C30" s="8">
+        <v>74.305668564488769</v>
+      </c>
+      <c r="D30" s="8">
+        <v>400.34392752117941</v>
+      </c>
+      <c r="E30" s="8">
+        <v>16583.808887219107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>23</v>
+      </c>
+      <c r="B31" s="10">
+        <v>45962</v>
+      </c>
+      <c r="C31" s="8">
+        <v>72.554163881583619</v>
+      </c>
+      <c r="D31" s="8">
+        <v>402.0954322040846</v>
+      </c>
+      <c r="E31" s="8">
+        <v>16181.713455015022</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>24</v>
+      </c>
+      <c r="B32" s="10">
+        <v>45992</v>
+      </c>
+      <c r="C32" s="8">
+        <v>70.794996365690736</v>
+      </c>
+      <c r="D32" s="8">
+        <v>403.85459971997744</v>
+      </c>
+      <c r="E32" s="8">
+        <v>15777.858855295046</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>25</v>
+      </c>
+      <c r="B33" s="10">
+        <v>46023</v>
+      </c>
+      <c r="C33" s="8">
+        <v>69.028132491915841</v>
+      </c>
+      <c r="D33" s="8">
+        <v>405.62146359375237</v>
+      </c>
+      <c r="E33" s="8">
+        <v>15372.237391701296</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>26</v>
+      </c>
+      <c r="B34" s="10">
+        <v>46054</v>
+      </c>
+      <c r="C34" s="8">
+        <v>67.253538588693175</v>
+      </c>
+      <c r="D34" s="8">
+        <v>407.39605749697506</v>
+      </c>
+      <c r="E34" s="8">
+        <v>14964.841334204317</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>27</v>
+      </c>
+      <c r="B35" s="10">
+        <v>46082</v>
+      </c>
+      <c r="C35" s="8">
+        <v>65.471180837143905</v>
+      </c>
+      <c r="D35" s="8">
+        <v>409.17841524852423</v>
+      </c>
+      <c r="E35" s="8">
+        <v>14555.662918955793</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>28</v>
+      </c>
+      <c r="B36" s="10">
+        <v>46113</v>
+      </c>
+      <c r="C36" s="8">
+        <v>63.681025270431611</v>
+      </c>
+      <c r="D36" s="8">
+        <v>410.9685708152366</v>
+      </c>
+      <c r="E36" s="8">
+        <v>14144.694348140558</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>29</v>
+      </c>
+      <c r="B37" s="10">
+        <v>46143</v>
+      </c>
+      <c r="C37" s="8">
+        <v>61.883037773114957</v>
+      </c>
+      <c r="D37" s="8">
+        <v>412.76655831255323</v>
+      </c>
+      <c r="E37" s="8">
+        <v>13731.927789828005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>30</v>
+      </c>
+      <c r="B38" s="10">
+        <v>46174</v>
+      </c>
+      <c r="C38" s="8">
+        <v>60.077184080497531</v>
+      </c>
+      <c r="D38" s="8">
+        <v>414.57241200517063</v>
+      </c>
+      <c r="E38" s="8">
+        <v>13317.355377822834</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>31</v>
+      </c>
+      <c r="B39" s="10">
+        <v>46204</v>
+      </c>
+      <c r="C39" s="8">
+        <v>58.263429777974899</v>
+      </c>
+      <c r="D39" s="8">
+        <v>416.38616630769332</v>
+      </c>
+      <c r="E39" s="8">
+        <v>12900.969211515141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>32</v>
+      </c>
+      <c r="B40" s="10">
+        <v>46235</v>
+      </c>
+      <c r="C40" s="8">
+        <v>56.441740300378761</v>
+      </c>
+      <c r="D40" s="8">
+        <v>418.2078557852895</v>
+      </c>
+      <c r="E40" s="8">
+        <v>12482.76135572985</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>33</v>
+      </c>
+      <c r="B41" s="10">
+        <v>46266</v>
+      </c>
+      <c r="C41" s="8">
+        <v>54.612080931318111</v>
+      </c>
+      <c r="D41" s="8">
+        <v>420.03751515435005</v>
+      </c>
+      <c r="E41" s="8">
+        <v>12062.723840575498</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>34</v>
+      </c>
+      <c r="B42" s="10">
+        <v>46296</v>
+      </c>
+      <c r="C42" s="8">
+        <v>52.774416802517827</v>
+      </c>
+      <c r="D42" s="8">
+        <v>421.87517928315037</v>
+      </c>
+      <c r="E42" s="8">
+        <v>11640.848661292352</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>35</v>
+      </c>
+      <c r="B43" s="10">
+        <v>46327</v>
+      </c>
+      <c r="C43" s="8">
+        <v>50.928712893154042</v>
+      </c>
+      <c r="D43" s="8">
+        <v>423.72088319251412</v>
+      </c>
+      <c r="E43" s="8">
+        <v>11217.127778099835</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>36</v>
+      </c>
+      <c r="B44" s="10">
+        <v>46357</v>
+      </c>
+      <c r="C44" s="8">
+        <v>49.074934029186799</v>
+      </c>
+      <c r="D44" s="8">
+        <v>425.57466205648137</v>
+      </c>
+      <c r="E44" s="8">
+        <v>10791.553116043357</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>37</v>
+      </c>
+      <c r="B45" s="10">
+        <v>46388</v>
+      </c>
+      <c r="C45" s="8">
+        <v>47.213044882689694</v>
+      </c>
+      <c r="D45" s="8">
+        <v>427.43655120297854</v>
+      </c>
+      <c r="E45" s="8">
+        <v>10364.11656484038</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>38</v>
+      </c>
+      <c r="B46" s="10">
+        <v>46419</v>
+      </c>
+      <c r="C46" s="8">
+        <v>45.343009971176649</v>
+      </c>
+      <c r="D46" s="8">
+        <v>429.30658611449155</v>
+      </c>
+      <c r="E46" s="8">
+        <v>9934.809978725887</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>39</v>
+      </c>
+      <c r="B47" s="10">
+        <v>46447</v>
+      </c>
+      <c r="C47" s="8">
+        <v>43.464793656925757</v>
+      </c>
+      <c r="D47" s="8">
+        <v>431.18480242874244</v>
+      </c>
+      <c r="E47" s="8">
+        <v>9503.6251762971442</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>40</v>
+      </c>
+      <c r="B48" s="10">
+        <v>46478</v>
+      </c>
+      <c r="C48" s="8">
+        <v>41.578360146300007</v>
+      </c>
+      <c r="D48" s="8">
+        <v>433.07123593936825</v>
+      </c>
+      <c r="E48" s="8">
+        <v>9070.5539403577768</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>41</v>
+      </c>
+      <c r="B49" s="10">
+        <v>46508</v>
+      </c>
+      <c r="C49" s="8">
+        <v>39.683673489065278</v>
+      </c>
+      <c r="D49" s="8">
+        <v>434.96592259660298</v>
+      </c>
+      <c r="E49" s="8">
+        <v>8635.5880177611743</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>42</v>
+      </c>
+      <c r="B50" s="10">
+        <v>46539</v>
+      </c>
+      <c r="C50" s="8">
+        <v>37.780697577705133</v>
+      </c>
+      <c r="D50" s="8">
+        <v>436.86889850796302</v>
+      </c>
+      <c r="E50" s="8">
+        <v>8198.7191192532118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>43</v>
+      </c>
+      <c r="B51" s="10">
+        <v>46569</v>
+      </c>
+      <c r="C51" s="8">
+        <v>35.869396146732797</v>
+      </c>
+      <c r="D51" s="8">
+        <v>438.78019993893543</v>
+      </c>
+      <c r="E51" s="8">
+        <v>7759.938919314277</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>44</v>
+      </c>
+      <c r="B52" s="10">
+        <v>46600</v>
+      </c>
+      <c r="C52" s="8">
+        <v>33.949732771999962</v>
+      </c>
+      <c r="D52" s="8">
+        <v>440.69986331366823</v>
+      </c>
+      <c r="E52" s="8">
+        <v>7319.2390560006088</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>45</v>
+      </c>
+      <c r="B53" s="10">
+        <v>46631</v>
+      </c>
+      <c r="C53" s="8">
+        <v>32.021670870002659</v>
+      </c>
+      <c r="D53" s="8">
+        <v>442.62792521566558</v>
+      </c>
+      <c r="E53" s="8">
+        <v>6876.6111307849424</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>46</v>
+      </c>
+      <c r="B54" s="10">
+        <v>46661</v>
+      </c>
+      <c r="C54" s="8">
+        <v>30.085173697184114</v>
+      </c>
+      <c r="D54" s="8">
+        <v>444.5644223884841</v>
+      </c>
+      <c r="E54" s="8">
+        <v>6432.0467083964586</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>47</v>
+      </c>
+      <c r="B55" s="10">
+        <v>46692</v>
+      </c>
+      <c r="C55" s="8">
+        <v>28.140204349234505</v>
+      </c>
+      <c r="D55" s="8">
+        <v>446.50939173643371</v>
+      </c>
+      <c r="E55" s="8">
+        <v>5985.5373166600248</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>48</v>
+      </c>
+      <c r="B56" s="10">
+        <v>46722</v>
+      </c>
+      <c r="C56" s="8">
+        <v>26.186725760387606</v>
+      </c>
+      <c r="D56" s="8">
+        <v>448.46287032528062</v>
+      </c>
+      <c r="E56" s="8">
+        <v>5537.0744463347437</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>49</v>
+      </c>
+      <c r="B57" s="10">
+        <v>46753</v>
+      </c>
+      <c r="C57" s="8">
+        <v>24.224700702714504</v>
+      </c>
+      <c r="D57" s="8">
+        <v>450.42489538295376</v>
+      </c>
+      <c r="E57" s="8">
+        <v>5086.6495509517899</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>50</v>
+      </c>
+      <c r="B58" s="10">
+        <v>46784</v>
+      </c>
+      <c r="C58" s="8">
+        <v>22.254091785414079</v>
+      </c>
+      <c r="D58" s="8">
+        <v>452.39550430025417</v>
+      </c>
+      <c r="E58" s="8">
+        <v>4634.2540466515356</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>51</v>
+      </c>
+      <c r="B59" s="10">
+        <v>46813</v>
+      </c>
+      <c r="C59" s="8">
+        <v>20.274861454100467</v>
+      </c>
+      <c r="D59" s="8">
+        <v>454.37473463156772</v>
+      </c>
+      <c r="E59" s="8">
+        <v>4179.879312019968</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>52</v>
+      </c>
+      <c r="B60" s="10">
+        <v>46844</v>
+      </c>
+      <c r="C60" s="8">
+        <v>18.286971990087359</v>
+      </c>
+      <c r="D60" s="8">
+        <v>456.36262409558083</v>
+      </c>
+      <c r="E60" s="8">
+        <v>3723.516687924387</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>53</v>
+      </c>
+      <c r="B61" s="10">
+        <v>46874</v>
+      </c>
+      <c r="C61" s="8">
+        <v>16.290385509669193</v>
+      </c>
+      <c r="D61" s="8">
+        <v>458.35921057599899</v>
+      </c>
+      <c r="E61" s="8">
+        <v>3265.1574773483881</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>54</v>
+      </c>
+      <c r="B62" s="10">
+        <v>46905</v>
+      </c>
+      <c r="C62" s="8">
+        <v>14.285063963399198</v>
+      </c>
+      <c r="D62" s="8">
+        <v>460.364532122269</v>
+      </c>
+      <c r="E62" s="8">
+        <v>2804.7929452261187</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>55</v>
+      </c>
+      <c r="B63" s="10">
+        <v>46935</v>
+      </c>
+      <c r="C63" s="8">
+        <v>12.27096913536427</v>
+      </c>
+      <c r="D63" s="8">
+        <v>462.37862695030395</v>
+      </c>
+      <c r="E63" s="8">
+        <v>2342.4143182758148</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>56</v>
+      </c>
+      <c r="B64" s="10">
+        <v>46966</v>
+      </c>
+      <c r="C64" s="8">
+        <v>10.24806264245669</v>
+      </c>
+      <c r="D64" s="8">
+        <v>464.40153344321152</v>
+      </c>
+      <c r="E64" s="8">
+        <v>1878.0127848326033</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>57</v>
+      </c>
+      <c r="B65" s="10">
+        <v>46997</v>
+      </c>
+      <c r="C65" s="8">
+        <v>8.2163059336426407</v>
+      </c>
+      <c r="D65" s="8">
+        <v>466.43329015202562</v>
+      </c>
+      <c r="E65" s="8">
+        <v>1411.5794946805777</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>58</v>
+      </c>
+      <c r="B66" s="10">
+        <v>47027</v>
+      </c>
+      <c r="C66" s="8">
+        <v>6.1756602892275279</v>
+      </c>
+      <c r="D66" s="8">
+        <v>468.47393579644063</v>
+      </c>
+      <c r="E66" s="8">
+        <v>943.10555888413705</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>59</v>
+      </c>
+      <c r="B67" s="10">
+        <v>47058</v>
+      </c>
+      <c r="C67" s="8">
+        <v>4.1260868201180996</v>
+      </c>
+      <c r="D67" s="8">
+        <v>470.5235092655501</v>
+      </c>
+      <c r="E67" s="8">
+        <v>472.58204961858689</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>60</v>
+      </c>
+      <c r="B68" s="10">
+        <v>47088</v>
+      </c>
+      <c r="C68" s="8">
+        <v>2.0675464670813177</v>
+      </c>
+      <c r="D68" s="8">
+        <v>472.58204961858689</v>
+      </c>
+      <c r="E68" s="8">
         <v>0</v>
       </c>
-      <c r="L14" s="80"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="L15" s="80"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="10"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="10"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="10"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="10"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="10"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="10"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="10"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="10"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="10"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="10"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="10"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="10"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="10"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="10"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="10"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="10"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="10"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="10"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="10"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="10"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="10"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="10"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="10"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="10"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="10"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="10"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="10"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="10"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="10"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="10"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="10"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="10"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="10"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="10"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="10"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="10"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="10"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="10"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="10"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="10"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="10"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="10"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="10"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="10"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="10"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="10"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="10"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="10"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="10"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="10"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B69" s="10"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B70" s="10"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B71" s="10"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B72" s="10"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B73" s="10"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B74" s="10"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B75" s="10"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B76" s="10"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B77" s="10"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B78" s="10"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B79" s="10"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B80" s="10"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -3948,264 +5391,6 @@
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EAACF5A-497B-4911-89FF-7C82876D781F}">
-  <sheetPr codeName="Sheet14"/>
-  <dimension ref="B1:N12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection activeCell="E1" sqref="E1"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="47.140625" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" customWidth="1"/>
-    <col min="12" max="14" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="G1" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="68"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="L2" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="33"/>
-    </row>
-    <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3">
-        <v>75</v>
-      </c>
-      <c r="E3" s="21">
-        <v>120.7008</v>
-      </c>
-      <c r="G3" s="2" t="e" cm="1" vm="1">
-        <f t="array" aca="1" ref="G3" ca="1">_xlfn.UNIQUE(C3:C12)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I3" s="2" t="e" cm="1" vm="1">
-        <f t="array" aca="1" ref="I3" ca="1">_xlfn.UNIQUE(C3:C12)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4">
-        <v>28</v>
-      </c>
-      <c r="E4" s="21">
-        <v>45.061631999999996</v>
-      </c>
-      <c r="I4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="31"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5">
-        <v>25</v>
-      </c>
-      <c r="E5" s="21">
-        <v>40.233599999999996</v>
-      </c>
-      <c r="K5" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="58" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6">
-        <v>55</v>
-      </c>
-      <c r="E6" s="21">
-        <v>151.27833600000002</v>
-      </c>
-      <c r="K6" s="52" t="e" cm="1" vm="2">
-        <f t="array" ref="K6">_xlfn._xlws.FILTER(B3:D12,C3:C12=L2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="33"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7">
-        <v>94</v>
-      </c>
-      <c r="E7" s="21">
-        <v>88.513919999999999</v>
-      </c>
-      <c r="G7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8">
-        <v>70</v>
-      </c>
-      <c r="E8" s="21">
-        <v>112.65408000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9">
-        <v>56</v>
-      </c>
-      <c r="E9" s="21">
-        <v>90.123263999999992</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10">
-        <v>150</v>
-      </c>
-      <c r="E10" s="21">
-        <v>241.4016</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11">
-        <v>20</v>
-      </c>
-      <c r="E11" s="21">
-        <v>32.186880000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="23">
-        <v>35</v>
-      </c>
-      <c r="E12" s="24">
-        <v>56.327040000000004</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4214,6 +5399,224 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EAACF5A-497B-4911-89FF-7C82876D781F}">
+  <sheetPr codeName="Sheet14"/>
+  <dimension ref="B1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection activeCell="E1" sqref="E1"/>
+      <selection pane="topRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="57" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="G1" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="92" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>75</v>
+      </c>
+      <c r="E3" s="21">
+        <v>120.7008</v>
+      </c>
+      <c r="G3" s="2" t="e" cm="1" vm="2">
+        <f t="array" aca="1" ref="G3" ca="1">_xlfn.UNIQUE(C3:C12)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I3" s="2" t="e" cm="1" vm="2">
+        <f t="array" aca="1" ref="I3" ca="1">_xlfn.UNIQUE(C3:C12)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>28</v>
+      </c>
+      <c r="E4" s="21">
+        <v>45.061631999999996</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5" s="21">
+        <v>40.233599999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>55</v>
+      </c>
+      <c r="E6" s="21">
+        <v>151.27833600000002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>94</v>
+      </c>
+      <c r="E7" s="21">
+        <v>88.513919999999999</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>70</v>
+      </c>
+      <c r="E8" s="21">
+        <v>112.65408000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>56</v>
+      </c>
+      <c r="E9" s="21">
+        <v>90.123263999999992</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <v>150</v>
+      </c>
+      <c r="E10" s="21">
+        <v>241.4016</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11" s="21">
+        <v>32.186880000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="23">
+        <v>35</v>
+      </c>
+      <c r="E12" s="24">
+        <v>56.327040000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC0E103-7344-457F-A89F-85ECF13F18EB}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="B1:D2"/>
@@ -4230,21 +5633,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B1" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="70" t="s">
-        <v>80</v>
+      <c r="B1" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="49">
         <f ca="1">RAND()</f>
-        <v>0.92055712551966473</v>
+        <v>0.11459690594696725</v>
       </c>
       <c r="D2" s="49">
         <f ca="1">RANDBETWEEN(100,500)</f>
-        <v>343</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -4253,13 +5656,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64366757-04B1-44E3-8AFD-220FF91CF682}">
   <dimension ref="B1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4274,104 +5675,104 @@
     <col min="9" max="9" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="B1" s="70" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="71" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="72"/>
-      <c r="G1" s="70" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1" s="70" t="s">
-        <v>83</v>
+    <row r="1" spans="2:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="69"/>
+      <c r="G1" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="67" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="48" cm="1">
         <f t="array" aca="1" ref="B2:B4" ca="1">_xlfn.RANDARRAY(3)</f>
-        <v>0.13391230197170878</v>
+        <v>0.93539878577244462</v>
       </c>
       <c r="D2" s="51" cm="1">
         <f t="array" aca="1" ref="D2:E5" ca="1">_xlfn.RANDARRAY(4,2)</f>
-        <v>0.15994896592990315</v>
+        <v>0.75769633140162851</v>
       </c>
       <c r="E2" s="37">
         <f ca="1"/>
-        <v>0.63186121631357173</v>
+        <v>0.38514988151420781</v>
       </c>
       <c r="G2" s="48" cm="1">
         <f t="array" aca="1" ref="G2:G7" ca="1">_xlfn.RANDARRAY(6,1,100,500)</f>
-        <v>136.93619547168385</v>
+        <v>140.21860928076524</v>
       </c>
       <c r="I2" s="48" cm="1">
         <f t="array" aca="1" ref="I2:I7" ca="1">_xlfn.RANDARRAY(6,1,100,500,TRUE)</f>
-        <v>349</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="50">
         <f ca="1"/>
-        <v>0.46432266007958178</v>
-      </c>
-      <c r="D3" s="53">
+        <v>0.2343576723725429</v>
+      </c>
+      <c r="D3" s="52">
         <f ca="1"/>
-        <v>0.88523140585480742</v>
+        <v>0.83400862125591746</v>
       </c>
       <c r="E3" s="37">
         <f ca="1"/>
-        <v>0.7475720528172578</v>
+        <v>0.70336388183740395</v>
       </c>
       <c r="G3" s="50">
         <f ca="1"/>
-        <v>492.80970266444763</v>
+        <v>409.22807234033684</v>
       </c>
       <c r="I3" s="50">
         <f ca="1"/>
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="67">
+      <c r="B4" s="64">
         <f ca="1"/>
-        <v>0.42488827017597641</v>
-      </c>
-      <c r="D4" s="53">
+        <v>0.49462578131143542</v>
+      </c>
+      <c r="D4" s="52">
         <f ca="1"/>
-        <v>0.38242164022380054</v>
+        <v>0.28436204528624964</v>
       </c>
       <c r="E4" s="37">
         <f ca="1"/>
-        <v>0.50398033027708822</v>
+        <v>0.57699005939670145</v>
       </c>
       <c r="G4" s="50">
         <f ca="1"/>
-        <v>202.0074344907876</v>
+        <v>486.26513373223588</v>
       </c>
       <c r="I4" s="50">
         <f ca="1"/>
-        <v>211</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
-      <c r="D5" s="60">
+      <c r="D5" s="59">
         <f ca="1"/>
-        <v>0.23356584230688915</v>
+        <v>0.85923677046240665</v>
       </c>
       <c r="E5" s="28">
         <f ca="1"/>
-        <v>0.90943697523066303</v>
+        <v>0.9574624241325147</v>
       </c>
       <c r="G5" s="50">
         <f ca="1"/>
-        <v>442.36931035063481</v>
+        <v>133.41459866549394</v>
       </c>
       <c r="I5" s="50">
         <f ca="1"/>
-        <v>331</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -4380,21 +5781,21 @@
       <c r="E6" s="3"/>
       <c r="G6" s="50">
         <f ca="1"/>
-        <v>343.05167723396823</v>
+        <v>153.69252127667482</v>
       </c>
       <c r="I6" s="50">
         <f ca="1"/>
-        <v>302</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G7" s="67">
+      <c r="G7" s="64">
         <f ca="1"/>
-        <v>396.27011079523305</v>
-      </c>
-      <c r="I7" s="67">
+        <v>398.81261123421933</v>
+      </c>
+      <c r="I7" s="64">
         <f ca="1"/>
-        <v>133</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4404,9 +5805,360 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C484A45-7D4E-4D7F-ADF0-3E46D9008A3C}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="B1:P13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="13" max="13" width="2.7109375" customWidth="1"/>
+    <col min="14" max="14" width="23.42578125" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" customWidth="1"/>
+    <col min="16" max="16" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+      <c r="G1" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="J1" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="30"/>
+      <c r="L1" s="31"/>
+      <c r="N1" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="30"/>
+      <c r="P1" s="31"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>75</v>
+      </c>
+      <c r="E3" s="21">
+        <v>120.7008</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="26">
+        <f>MATCH(G3,B3:B12,0)</f>
+        <v>2</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="46">
+        <f>VLOOKUP($J3,$B$2:$E$12,3,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="L3" s="84">
+        <f>VLOOKUP($J3,$B$2:$E$12,4,FALSE)</f>
+        <v>32.186880000000002</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="46">
+        <f>INDEX(D3:D12,MATCH($N3,$B3:$B12,0))</f>
+        <v>20</v>
+      </c>
+      <c r="P3" s="84">
+        <f>INDEX(E3:E12,MATCH($N3,$B3:$B12,0))</f>
+        <v>32.186880000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>28</v>
+      </c>
+      <c r="E4" s="21">
+        <v>45.061631999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5" s="21">
+        <v>40.233599999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>94</v>
+      </c>
+      <c r="E6" s="21">
+        <v>151</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="31"/>
+    </row>
+    <row r="7" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
+      <c r="E7" s="21">
+        <v>89</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="31"/>
+      <c r="N7" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="30"/>
+      <c r="P7" s="31"/>
+    </row>
+    <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>70</v>
+      </c>
+      <c r="E8" s="21">
+        <v>112.65408000000001</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="99" t="e">
+        <f>MATCH(G8,B3:B12,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>56</v>
+      </c>
+      <c r="E9" s="21">
+        <v>90.123263999999992</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="46">
+        <f>VLOOKUP($J9,$B$2:$E$12,MATCH(K8,$B$2:$E$2,0),FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="L9" s="84">
+        <f>VLOOKUP($J9,$B$2:$E$12,MATCH(L8,$B$2:$E$2,0),FALSE)</f>
+        <v>32.186880000000002</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="46">
+        <f>INDEX($B3:$E12,MATCH($N9,$B3:$B12,0),MATCH(O$8,$B2:$E2,0))</f>
+        <v>20</v>
+      </c>
+      <c r="P9" s="60">
+        <f>INDEX($B3:$E12,MATCH($N9,$B3:$B12,0),MATCH(P8,$B2:$E2,0))</f>
+        <v>32.186880000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <v>150</v>
+      </c>
+      <c r="E10" s="21">
+        <v>241.4016</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11" s="21">
+        <v>32.186880000000002</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="31"/>
+    </row>
+    <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="23">
+        <v>35</v>
+      </c>
+      <c r="E12" s="24">
+        <v>56.327040000000004</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="26">
+        <f>MATCH(G13,B2:E2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC41440-5C92-4C7E-8991-FC882F26CDD2}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B1:M12"/>
+  <dimension ref="B1:I18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
@@ -4419,35 +6171,28 @@
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="6" width="10.7109375" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
     <col min="7" max="7" width="28.7109375" customWidth="1"/>
     <col min="8" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" customWidth="1"/>
-    <col min="11" max="11" width="28.7109375" customWidth="1"/>
-    <col min="12" max="13" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
       <c r="E1" s="18"/>
       <c r="F1" s="12"/>
       <c r="G1" s="16" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="H1" s="25"/>
       <c r="I1" s="25"/>
-      <c r="K1" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="57" t="s">
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="56" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -4456,30 +6201,21 @@
       <c r="D2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="57" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="63" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="58" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
@@ -4497,26 +6233,15 @@
         <v>3</v>
       </c>
       <c r="H3" s="32">
-        <f>_xlfn.XLOOKUP($G3,$B3:$B12,D3:D12)</f>
-        <v>94</v>
-      </c>
-      <c r="I3" s="28">
-        <f>_xlfn.XLOOKUP($G3,$B3:$B12,E3:E12)</f>
-        <v>151</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="L3" s="32" t="e">
-        <f>_xlfn.XLOOKUP($K3,$B3:$B12,D3:D12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M3" s="28" t="e">
-        <f>_xlfn.XLOOKUP($K3,$B3:$B12,E3:E12)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+        <f>SUMIF($B3:$B12,$G3,D3:D12)</f>
+        <v>149</v>
+      </c>
+      <c r="I3" s="82">
+        <f>SUMIF($B3:$B12,$G3,E3:E12)</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
@@ -4530,10 +6255,8 @@
         <v>45.061631999999996</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
@@ -4547,10 +6270,8 @@
         <v>40.233599999999996</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
@@ -4565,17 +6286,12 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="16" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
-      <c r="K6" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>3</v>
       </c>
@@ -4589,26 +6305,17 @@
         <v>89</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="66" t="s">
+      <c r="G7" s="63" t="s">
         <v>0</v>
       </c>
       <c r="H7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="58" t="s">
+      <c r="I7" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="L7" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="75" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="19" t="s">
         <v>5</v>
       </c>
@@ -4623,29 +6330,18 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="22" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="H8" s="32">
         <f>SUMIF($B3:$B12,$G8,D3:D12)</f>
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="I8" s="28">
         <f>SUMIF($B3:$B12,$G8,E3:E12)</f>
-        <v>240</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="L8" s="32">
-        <f>SUMIF($B3:$B12,$K8,D3:D12)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="28">
-        <f>SUMIF($B3:$B12,$K8,E3:E12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
         <v>6</v>
       </c>
@@ -4660,7 +6356,7 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="19" t="s">
         <v>2</v>
       </c>
@@ -4675,7 +6371,7 @@
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B11" s="19" t="s">
         <v>10</v>
       </c>
@@ -4689,8 +6385,13 @@
         <v>32.186880000000002</v>
       </c>
       <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+    </row>
+    <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="22" t="s">
         <v>7</v>
       </c>
@@ -4704,6 +6405,60 @@
         <v>56.327040000000004</v>
       </c>
       <c r="F12" s="4"/>
+      <c r="G12" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="32">
+        <f>SUMIFS(D3:D12,$B$3:$B$12,$G13,$C$3:$C$12,$G12)</f>
+        <v>55</v>
+      </c>
+      <c r="I13" s="85">
+        <f>SUMIFS(E3:E12,$B$3:$B$12,$G13,$C$3:$C$12,$G12)</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G16" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+    </row>
+    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G17" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="7:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="32">
+        <f>SUMIFS(D8:D17,$B$3:$B$12,$G18,$C$3:$C$12,$G17)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="85">
+        <f>SUMIFS(E8:E17,$B$3:$B$12,$G18,$C$3:$C$12,$G17)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D12">
@@ -4715,10 +6470,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0344B6A-FD3C-4E3D-AE85-9749C1422D17}">
-  <sheetPr codeName="Sheet15"/>
-  <dimension ref="B1:I12"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204B798D-55D6-41C3-AA25-56E9012BB2AA}">
+  <dimension ref="B1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4730,12 +6484,13 @@
     <col min="4" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="2.7109375" customWidth="1"/>
     <col min="7" max="7" width="28.7109375" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -4743,29 +6498,29 @@
       <c r="G1" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="73"/>
+      <c r="H1" s="25"/>
       <c r="I1" s="25"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="57" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4782,16 +6537,16 @@
       <c r="E3" s="21">
         <v>120.7008</v>
       </c>
-      <c r="G3" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="H3" s="32" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($G3,$B$3:$E$12,3,FALSE),"Not found")</f>
-        <v>Not found</v>
-      </c>
-      <c r="I3" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP($G3,$B$3:$E$12,4,FALSE),"Not found")</f>
-        <v>Not found</v>
+      <c r="G3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="32">
+        <f>_xlfn.XLOOKUP($G3,$B3:$B12,D3:D12)</f>
+        <v>94</v>
+      </c>
+      <c r="I3" s="85">
+        <f>_xlfn.XLOOKUP($G3,$B3:$B12,E3:E12)</f>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -4809,7 +6564,6 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="19" t="s">
@@ -4826,9 +6580,8 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
@@ -4842,9 +6595,9 @@
         <v>151</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="H6" s="73"/>
+        <v>98</v>
+      </c>
+      <c r="H6" s="25"/>
       <c r="I6" s="25"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -4863,10 +6616,10 @@
       <c r="G7" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="64" t="s">
+      <c r="H7" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="65" t="s">
+      <c r="I7" s="57" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4883,16 +6636,16 @@
       <c r="E8" s="21">
         <v>112.65408000000001</v>
       </c>
-      <c r="G8" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="H8" s="32" t="str">
-        <f>_xlfn.XLOOKUP($G8,$B3:$B12,D3:D12,"Not found")</f>
-        <v>Not found</v>
-      </c>
-      <c r="I8" s="28" t="str">
-        <f>_xlfn.XLOOKUP($G8,'XLOOKUP vs. SUMIF'!$B2:$B12,'XLOOKUP vs. SUMIF'!E2:E12,"Not found")</f>
-        <v>Not found</v>
+      <c r="G8" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="32" t="e">
+        <f>_xlfn.XLOOKUP($G8,$B3:$B12,D3:D12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I8" s="85" t="e">
+        <f>_xlfn.XLOOKUP($G8,$B3:$B12,E3:E12)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -4908,8 +6661,10 @@
       <c r="E9" s="21">
         <v>90.123263999999992</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="19" t="s">
         <v>2</v>
       </c>
@@ -4922,8 +6677,10 @@
       <c r="E10" s="21">
         <v>241.4016</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B11" s="19" t="s">
         <v>10</v>
       </c>
@@ -4936,6 +6693,11 @@
       <c r="E11" s="21">
         <v>32.186880000000002</v>
       </c>
+      <c r="G11" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="22" t="s">
@@ -4949,6 +6711,28 @@
       </c>
       <c r="E12" s="24">
         <v>56.327040000000004</v>
+      </c>
+      <c r="G12" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="32" t="str">
+        <f>_xlfn.XLOOKUP(G13,B3:B12,D3:D12,"¯\_(ツ)_/¯")</f>
+        <v>¯\_(ツ)_/¯</v>
+      </c>
+      <c r="I13" s="84" t="str">
+        <f>_xlfn.XLOOKUP(G13,B3:B12,E3:E12,"Not Found")</f>
+        <v>Not Found</v>
       </c>
     </row>
   </sheetData>
@@ -4957,10 +6741,10 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569265D3-BCAD-4B64-9120-89F079E352F5}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:I13"/>
+  <dimension ref="B1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4973,44 +6757,41 @@
     <col min="6" max="6" width="2.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
     <col min="8" max="8" width="30.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
       <c r="E1" s="18"/>
       <c r="G1" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="31"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="31"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="20"/>
-    </row>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>10</v>
       </c>
@@ -5024,15 +6805,14 @@
         <v>32.186880000000002</v>
       </c>
       <c r="G3" s="22">
-        <v>50</v>
-      </c>
-      <c r="H3" s="32" t="str">
+        <v>60</v>
+      </c>
+      <c r="H3" s="26" t="str">
         <f>_xlfn.XLOOKUP(G3,D3:D12,B3:B12,,-1)</f>
-        <v>Virginia Beach</v>
-      </c>
-      <c r="I3" s="33"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+        <v>Playa Novillero</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
         <v>9</v>
       </c>
@@ -5046,7 +6826,7 @@
         <v>40.233599999999996</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="19" t="s">
         <v>8</v>
       </c>
@@ -5060,7 +6840,7 @@
         <v>45.061631999999996</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
         <v>7</v>
       </c>
@@ -5074,12 +6854,11 @@
         <v>56.327040000000004</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="31"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="H6" s="31"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>3</v>
       </c>
@@ -5092,17 +6871,14 @@
       <c r="E7" s="21">
         <v>89</v>
       </c>
-      <c r="G7" s="66" t="s">
+      <c r="G7" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="58" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="19" t="s">
         <v>6</v>
       </c>
@@ -5116,17 +6892,14 @@
         <v>90.123263999999992</v>
       </c>
       <c r="G8" s="22">
-        <v>50</v>
-      </c>
-      <c r="H8" s="32" t="str" cm="1">
-        <f t="array" ref="H8:I8">_xlfn.XLOOKUP(G13,D3:D12,B3:C12,,1)</f>
-        <v>Ninety Mile Beach</v>
-      </c>
-      <c r="I8" s="33" t="str">
-        <v>New Zealand</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="H8" s="26" t="str">
+        <f>_xlfn.XLOOKUP(G8,D3:D12,B3:B12,,1)</f>
+        <v>Padre Island National Seashore</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
         <v>5</v>
       </c>
@@ -5140,7 +6913,7 @@
         <v>112.65408000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="s">
         <v>4</v>
       </c>
@@ -5154,7 +6927,7 @@
         <v>120.7008</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="s">
         <v>3</v>
       </c>
@@ -5167,13 +6940,8 @@
       <c r="E11" s="21">
         <v>151</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="31"/>
-    </row>
-    <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="22" t="s">
         <v>2</v>
       </c>
@@ -5186,23 +6954,6 @@
       <c r="E12" s="24">
         <v>241.4016</v>
       </c>
-      <c r="G12" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="20"/>
-    </row>
-    <row r="13" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="22">
-        <v>50</v>
-      </c>
-      <c r="H13" s="32" t="str" cm="1">
-        <f t="array" ref="H13">_xlfn.XLOOKUP(G8,D3:D12,B3:B12&amp;", "&amp;C3:C12,,1)</f>
-        <v>Ninety Mile Beach, New Zealand</v>
-      </c>
-      <c r="I13" s="33"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E12">
@@ -5213,487 +6964,10 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75A5781-3298-4E8E-9F13-11517EB2B60A}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="B1:O16"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="3" max="14" width="8.42578125" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="18"/>
-    </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="M2" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="N2" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="O2" s="40" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>255</v>
-      </c>
-      <c r="D3">
-        <v>344</v>
-      </c>
-      <c r="E3">
-        <v>250</v>
-      </c>
-      <c r="F3">
-        <v>401</v>
-      </c>
-      <c r="G3">
-        <v>176</v>
-      </c>
-      <c r="H3">
-        <v>232</v>
-      </c>
-      <c r="I3">
-        <v>196</v>
-      </c>
-      <c r="J3">
-        <v>146</v>
-      </c>
-      <c r="K3">
-        <v>319</v>
-      </c>
-      <c r="L3">
-        <v>142</v>
-      </c>
-      <c r="M3">
-        <v>479</v>
-      </c>
-      <c r="N3">
-        <v>193</v>
-      </c>
-      <c r="O3" s="42">
-        <f>SUM(C3:N3)</f>
-        <v>3133</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>339</v>
-      </c>
-      <c r="D4">
-        <v>258</v>
-      </c>
-      <c r="E4">
-        <v>311</v>
-      </c>
-      <c r="F4">
-        <v>161</v>
-      </c>
-      <c r="G4">
-        <v>367</v>
-      </c>
-      <c r="H4">
-        <v>136</v>
-      </c>
-      <c r="I4">
-        <v>183</v>
-      </c>
-      <c r="J4">
-        <v>458</v>
-      </c>
-      <c r="K4">
-        <v>318</v>
-      </c>
-      <c r="L4">
-        <v>250</v>
-      </c>
-      <c r="M4">
-        <v>179</v>
-      </c>
-      <c r="N4">
-        <v>310</v>
-      </c>
-      <c r="O4" s="42">
-        <f t="shared" ref="O4:O7" si="0">SUM(C4:N4)</f>
-        <v>3270</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <v>269</v>
-      </c>
-      <c r="D5">
-        <v>327</v>
-      </c>
-      <c r="E5">
-        <v>341</v>
-      </c>
-      <c r="F5">
-        <v>488</v>
-      </c>
-      <c r="G5">
-        <v>214</v>
-      </c>
-      <c r="H5">
-        <v>474</v>
-      </c>
-      <c r="I5">
-        <v>451</v>
-      </c>
-      <c r="J5">
-        <v>217</v>
-      </c>
-      <c r="K5">
-        <v>325</v>
-      </c>
-      <c r="L5">
-        <v>123</v>
-      </c>
-      <c r="M5">
-        <v>301</v>
-      </c>
-      <c r="N5">
-        <v>433</v>
-      </c>
-      <c r="O5" s="42">
-        <f t="shared" si="0"/>
-        <v>3963</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>272</v>
-      </c>
-      <c r="D6">
-        <v>470</v>
-      </c>
-      <c r="E6">
-        <v>233</v>
-      </c>
-      <c r="F6">
-        <v>127</v>
-      </c>
-      <c r="G6">
-        <v>410</v>
-      </c>
-      <c r="H6">
-        <v>168</v>
-      </c>
-      <c r="I6">
-        <v>271</v>
-      </c>
-      <c r="J6">
-        <v>426</v>
-      </c>
-      <c r="K6">
-        <v>320</v>
-      </c>
-      <c r="L6">
-        <v>154</v>
-      </c>
-      <c r="M6">
-        <v>231</v>
-      </c>
-      <c r="N6">
-        <v>322</v>
-      </c>
-      <c r="O6" s="42">
-        <f t="shared" si="0"/>
-        <v>3404</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="23">
-        <v>209</v>
-      </c>
-      <c r="D7" s="23">
-        <v>423</v>
-      </c>
-      <c r="E7" s="23">
-        <v>455</v>
-      </c>
-      <c r="F7" s="23">
-        <v>314</v>
-      </c>
-      <c r="G7" s="23">
-        <v>345</v>
-      </c>
-      <c r="H7" s="23">
-        <v>295</v>
-      </c>
-      <c r="I7" s="23">
-        <v>296</v>
-      </c>
-      <c r="J7" s="23">
-        <v>262</v>
-      </c>
-      <c r="K7" s="23">
-        <v>109</v>
-      </c>
-      <c r="L7" s="23">
-        <v>225</v>
-      </c>
-      <c r="M7" s="23">
-        <v>309</v>
-      </c>
-      <c r="N7" s="23">
-        <v>420</v>
-      </c>
-      <c r="O7" s="44">
-        <f t="shared" si="0"/>
-        <v>3662</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="M10" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="N10" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="O10" s="40" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="32" cm="1">
-        <f t="array" ref="C11:N11">_xlfn.XLOOKUP(B11,B3:B7,C3:N7)</f>
-        <v>269</v>
-      </c>
-      <c r="D11" s="23">
-        <v>327</v>
-      </c>
-      <c r="E11" s="23">
-        <v>341</v>
-      </c>
-      <c r="F11" s="23">
-        <v>488</v>
-      </c>
-      <c r="G11" s="23">
-        <v>214</v>
-      </c>
-      <c r="H11" s="23">
-        <v>474</v>
-      </c>
-      <c r="I11" s="23">
-        <v>451</v>
-      </c>
-      <c r="J11" s="23">
-        <v>217</v>
-      </c>
-      <c r="K11" s="23">
-        <v>325</v>
-      </c>
-      <c r="L11" s="23">
-        <v>123</v>
-      </c>
-      <c r="M11" s="23">
-        <v>301</v>
-      </c>
-      <c r="N11" s="23">
-        <v>433</v>
-      </c>
-      <c r="O11" s="33"/>
-    </row>
-    <row r="14" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="34"/>
-    </row>
-    <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="46">
-        <f>SUM(_xlfn.XLOOKUP(B16,B3:B7,C3:N7))</f>
-        <v>3963</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="33"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="C3:O7">
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$B$11=$B3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBA01E0-FA2A-4BFC-9352-567BBD7CAB95}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="B1:H12"/>
+  <dimension ref="B1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5705,25 +6979,28 @@
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
       <c r="E1" s="18"/>
-      <c r="G1" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="13"/>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="57" t="s">
+      <c r="G1" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="56" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -5732,17 +7009,23 @@
       <c r="D2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="98" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
@@ -5758,12 +7041,18 @@
       <c r="G3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="26" t="str" cm="1">
-        <f t="array" ref="H3">_xlfn.XLOOKUP(G3,B3:B12,C3:C12&amp;": "&amp;D3:D12,"Not found",1,1)</f>
-        <v>Australia: 94</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="32" t="str" cm="1">
+        <f t="array" ref="H3:J3">_xlfn.XLOOKUP(G3,B3:B12,C3:E12,"Not found",1,1)</f>
+        <v>Australia</v>
+      </c>
+      <c r="I3" s="23">
+        <v>94</v>
+      </c>
+      <c r="J3" s="33">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
@@ -5777,7 +7066,7 @@
         <v>45.061631999999996</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
@@ -5791,7 +7080,7 @@
         <v>40.233599999999996</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
@@ -5804,12 +7093,14 @@
       <c r="E6" s="21">
         <v>151</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G6" s="95" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="97"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>3</v>
       </c>
@@ -5822,14 +7113,20 @@
       <c r="E7" s="21">
         <v>89</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="98" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="19" t="s">
         <v>5</v>
       </c>
@@ -5845,12 +7142,18 @@
       <c r="G8" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="26" t="str" cm="1">
-        <f t="array" ref="H8">_xlfn.XLOOKUP(G8,B3:B12,C3:C12&amp;": "&amp;D3:D12,"Not found",1,-1)</f>
-        <v>New Zealand: 55</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="32" t="str" cm="1">
+        <f t="array" ref="H8:J8">_xlfn.XLOOKUP(G3,B3:B12,C3:E12,"Not found",1,-1)</f>
+        <v>New Zealand</v>
+      </c>
+      <c r="I8" s="23">
+        <v>55</v>
+      </c>
+      <c r="J8" s="33">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
         <v>6</v>
       </c>
@@ -5863,8 +7166,10 @@
       <c r="E9" s="21">
         <v>90.123263999999992</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="s">
         <v>2</v>
       </c>
@@ -5878,7 +7183,7 @@
         <v>241.4016</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="s">
         <v>10</v>
       </c>
@@ -5892,7 +7197,7 @@
         <v>32.186880000000002</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="22" t="s">
         <v>7</v>
       </c>
@@ -5907,6 +7212,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G6:J6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -5936,24 +7245,24 @@
   <sheetData>
     <row r="1" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
       <c r="F1" s="18"/>
       <c r="H1" s="16" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="I1" s="30"/>
       <c r="J1" s="30"/>
       <c r="K1" s="31"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="74" t="s">
+      <c r="B2" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="70" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="15" t="s">
@@ -5962,10 +7271,10 @@
       <c r="E2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="66" t="s">
+      <c r="H2" s="63" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="15" t="s">
@@ -5974,7 +7283,7 @@
       <c r="J2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="58" t="s">
+      <c r="K2" s="57" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6029,7 +7338,7 @@
       </c>
       <c r="H4" s="45"/>
       <c r="I4" s="45"/>
-      <c r="J4" s="81"/>
+      <c r="J4" s="77"/>
       <c r="K4" s="45"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6072,7 +7381,7 @@
         <v>151</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="30"/>
@@ -6095,7 +7404,7 @@
       <c r="F7" s="21">
         <v>89</v>
       </c>
-      <c r="H7" s="66" t="s">
+      <c r="H7" s="63" t="s">
         <v>0</v>
       </c>
       <c r="I7" s="15" t="s">
@@ -6104,7 +7413,7 @@
       <c r="J7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="58" t="s">
+      <c r="K7" s="57" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6219,11 +7528,490 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C484A45-7D4E-4D7F-ADF0-3E46D9008A3C}">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="B1:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75A5781-3298-4E8E-9F13-11517EB2B60A}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="B1:O16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="3" max="14" width="8.42578125" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>255</v>
+      </c>
+      <c r="D3">
+        <v>344</v>
+      </c>
+      <c r="E3">
+        <v>250</v>
+      </c>
+      <c r="F3">
+        <v>401</v>
+      </c>
+      <c r="G3">
+        <v>176</v>
+      </c>
+      <c r="H3">
+        <v>232</v>
+      </c>
+      <c r="I3">
+        <v>196</v>
+      </c>
+      <c r="J3">
+        <v>146</v>
+      </c>
+      <c r="K3">
+        <v>319</v>
+      </c>
+      <c r="L3">
+        <v>142</v>
+      </c>
+      <c r="M3">
+        <v>479</v>
+      </c>
+      <c r="N3">
+        <v>193</v>
+      </c>
+      <c r="O3" s="42">
+        <f>SUM(C3:N3)</f>
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>339</v>
+      </c>
+      <c r="D4">
+        <v>258</v>
+      </c>
+      <c r="E4">
+        <v>311</v>
+      </c>
+      <c r="F4">
+        <v>161</v>
+      </c>
+      <c r="G4">
+        <v>367</v>
+      </c>
+      <c r="H4">
+        <v>136</v>
+      </c>
+      <c r="I4">
+        <v>183</v>
+      </c>
+      <c r="J4">
+        <v>458</v>
+      </c>
+      <c r="K4">
+        <v>318</v>
+      </c>
+      <c r="L4">
+        <v>250</v>
+      </c>
+      <c r="M4">
+        <v>179</v>
+      </c>
+      <c r="N4">
+        <v>310</v>
+      </c>
+      <c r="O4" s="42">
+        <f t="shared" ref="O4:O7" si="0">SUM(C4:N4)</f>
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>269</v>
+      </c>
+      <c r="D5">
+        <v>327</v>
+      </c>
+      <c r="E5">
+        <v>341</v>
+      </c>
+      <c r="F5">
+        <v>488</v>
+      </c>
+      <c r="G5">
+        <v>214</v>
+      </c>
+      <c r="H5">
+        <v>474</v>
+      </c>
+      <c r="I5">
+        <v>451</v>
+      </c>
+      <c r="J5">
+        <v>217</v>
+      </c>
+      <c r="K5">
+        <v>325</v>
+      </c>
+      <c r="L5">
+        <v>123</v>
+      </c>
+      <c r="M5">
+        <v>301</v>
+      </c>
+      <c r="N5">
+        <v>433</v>
+      </c>
+      <c r="O5" s="42">
+        <f t="shared" si="0"/>
+        <v>3963</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>272</v>
+      </c>
+      <c r="D6">
+        <v>470</v>
+      </c>
+      <c r="E6">
+        <v>233</v>
+      </c>
+      <c r="F6">
+        <v>127</v>
+      </c>
+      <c r="G6">
+        <v>410</v>
+      </c>
+      <c r="H6">
+        <v>168</v>
+      </c>
+      <c r="I6">
+        <v>271</v>
+      </c>
+      <c r="J6">
+        <v>426</v>
+      </c>
+      <c r="K6">
+        <v>320</v>
+      </c>
+      <c r="L6">
+        <v>154</v>
+      </c>
+      <c r="M6">
+        <v>231</v>
+      </c>
+      <c r="N6">
+        <v>322</v>
+      </c>
+      <c r="O6" s="42">
+        <f t="shared" si="0"/>
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="23">
+        <v>209</v>
+      </c>
+      <c r="D7" s="23">
+        <v>423</v>
+      </c>
+      <c r="E7" s="23">
+        <v>455</v>
+      </c>
+      <c r="F7" s="23">
+        <v>314</v>
+      </c>
+      <c r="G7" s="23">
+        <v>345</v>
+      </c>
+      <c r="H7" s="23">
+        <v>295</v>
+      </c>
+      <c r="I7" s="23">
+        <v>296</v>
+      </c>
+      <c r="J7" s="23">
+        <v>262</v>
+      </c>
+      <c r="K7" s="23">
+        <v>109</v>
+      </c>
+      <c r="L7" s="23">
+        <v>225</v>
+      </c>
+      <c r="M7" s="23">
+        <v>309</v>
+      </c>
+      <c r="N7" s="23">
+        <v>420</v>
+      </c>
+      <c r="O7" s="44">
+        <f t="shared" si="0"/>
+        <v>3662</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" s="40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="32" cm="1">
+        <f t="array" ref="C11:N11">_xlfn.XLOOKUP(B11,B3:B7,C3:N7)</f>
+        <v>269</v>
+      </c>
+      <c r="D11" s="23">
+        <v>327</v>
+      </c>
+      <c r="E11" s="23">
+        <v>341</v>
+      </c>
+      <c r="F11" s="23">
+        <v>488</v>
+      </c>
+      <c r="G11" s="23">
+        <v>214</v>
+      </c>
+      <c r="H11" s="23">
+        <v>474</v>
+      </c>
+      <c r="I11" s="23">
+        <v>451</v>
+      </c>
+      <c r="J11" s="23">
+        <v>217</v>
+      </c>
+      <c r="K11" s="23">
+        <v>325</v>
+      </c>
+      <c r="L11" s="23">
+        <v>123</v>
+      </c>
+      <c r="M11" s="23">
+        <v>301</v>
+      </c>
+      <c r="N11" s="23">
+        <v>433</v>
+      </c>
+      <c r="O11" s="33"/>
+    </row>
+    <row r="14" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="34"/>
+    </row>
+    <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="46">
+        <f>SUM(_xlfn.XLOOKUP(B16,B3:B7,C3:N7))</f>
+        <v>3963</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="33"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="C3:O7">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$B$11=$B3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F0E592-6472-4582-B449-E953E909CE14}">
+  <dimension ref="B1:H13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6234,25 +8022,23 @@
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2.7109375" customWidth="1"/>
     <col min="7" max="7" width="23.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
       <c r="E1" s="18"/>
       <c r="G1" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="31"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="31"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="56" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -6261,20 +8047,17 @@
       <c r="D2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="57" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
@@ -6290,16 +8073,12 @@
       <c r="G3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="32">
-        <f>MATCH(G3,B3:B12,0)</f>
-        <v>9</v>
-      </c>
-      <c r="I3" s="26">
+      <c r="H3" s="26">
         <f>_xlfn.XMATCH(G3,B3:B12)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
@@ -6313,7 +8092,7 @@
         <v>45.061631999999996</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
@@ -6327,7 +8106,7 @@
         <v>40.233599999999996</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
@@ -6341,12 +8120,11 @@
         <v>151</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="31"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="H6" s="31"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>3</v>
       </c>
@@ -6362,14 +8140,11 @@
       <c r="G7" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="19" t="s">
         <v>5</v>
       </c>
@@ -6383,18 +8158,14 @@
         <v>112.65408000000001</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="46">
-        <f>INDEX(D3:D12,MATCH($G8,$B3:$B12,0))</f>
-        <v>20</v>
-      </c>
-      <c r="I8" s="61">
-        <f>INDEX(E3:E12,MATCH($G8,$B3:$B12,0))</f>
-        <v>32.186880000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="H8" s="99" t="e">
+        <f>_xlfn.XMATCH(G8,B3:B12)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
         <v>6</v>
       </c>
@@ -6408,7 +8179,7 @@
         <v>90.123263999999992</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="19" t="s">
         <v>2</v>
       </c>
@@ -6422,7 +8193,7 @@
         <v>241.4016</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="19" t="s">
         <v>10</v>
       </c>
@@ -6436,12 +8207,11 @@
         <v>32.186880000000002</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="31"/>
-    </row>
-    <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="H11" s="31"/>
+    </row>
+    <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="22" t="s">
         <v>7</v>
       </c>
@@ -6454,280 +8224,20 @@
       <c r="E12" s="24">
         <v>56.327040000000004</v>
       </c>
-      <c r="G12" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="15" t="s">
+      <c r="G12" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="58" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="46">
-        <f>INDEX($B3:$E12,MATCH($G13,$B3:$B12,0),MATCH(H12,$B2:$E2,0))</f>
-        <v>20</v>
-      </c>
-      <c r="I13" s="61">
-        <f>INDEX($B3:$E12,MATCH($G13,$B3:$B12,0),MATCH(I12,$B2:$E2,0))</f>
-        <v>32.186880000000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5711E5B-134D-429F-8443-D053AAA10AC9}">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="B1:I12"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" customWidth="1"/>
-    <col min="9" max="9" width="27.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18"/>
-      <c r="G1" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="47" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3">
-        <v>75</v>
-      </c>
-      <c r="E3" s="21">
-        <v>120.7008</v>
-      </c>
-      <c r="G3" s="48" t="str" cm="1">
-        <f t="array" ref="G3:G9">_xlfn.UNIQUE(C3:C12)</f>
-        <v>Bangladesh</v>
-      </c>
-      <c r="I3" s="48" t="str" cm="1">
-        <f t="array" ref="I3:I12">_xlfn.UNIQUE(C3:C12,TRUE,FALSE)</f>
-        <v>Bangladesh</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4">
-        <v>28</v>
-      </c>
-      <c r="E4" s="21">
-        <v>45.061631999999996</v>
-      </c>
-      <c r="G4" s="50" t="str">
-        <v>United States</v>
-      </c>
-      <c r="I4" s="50" t="str">
-        <v>United States</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5">
-        <v>25</v>
-      </c>
-      <c r="E5" s="21">
-        <v>40.233599999999996</v>
-      </c>
-      <c r="G5" s="50" t="str">
-        <v>South Africa</v>
-      </c>
-      <c r="I5" s="50" t="str">
-        <v>South Africa</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
+      <c r="H13" s="26">
+        <f>_xlfn.XMATCH(G13,B2:E2)</f>
         <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6">
-        <v>94</v>
-      </c>
-      <c r="E6" s="21">
-        <v>151</v>
-      </c>
-      <c r="G6" s="50" t="str">
-        <v>Australia</v>
-      </c>
-      <c r="I6" s="50" t="str">
-        <v>Australia</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7">
-        <v>55</v>
-      </c>
-      <c r="E7" s="21">
-        <v>89</v>
-      </c>
-      <c r="G7" s="50" t="str">
-        <v>New Zealand</v>
-      </c>
-      <c r="I7" s="50" t="str">
-        <v>New Zealand</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8">
-        <v>70</v>
-      </c>
-      <c r="E8" s="21">
-        <v>112.65408000000001</v>
-      </c>
-      <c r="G8" s="50" t="str">
-        <v>Mexico</v>
-      </c>
-      <c r="I8" s="50" t="str">
-        <v>United States</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9">
-        <v>56</v>
-      </c>
-      <c r="E9" s="21">
-        <v>90.123263999999992</v>
-      </c>
-      <c r="G9" s="67" t="str">
-        <v>Brazil</v>
-      </c>
-      <c r="I9" s="50" t="str">
-        <v>Mexico</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10">
-        <v>150</v>
-      </c>
-      <c r="E10" s="21">
-        <v>241.4016</v>
-      </c>
-      <c r="I10" s="50" t="str">
-        <v>Brazil</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11">
-        <v>20</v>
-      </c>
-      <c r="E11" s="21">
-        <v>32.186880000000002</v>
-      </c>
-      <c r="I11" s="50" t="str">
-        <v>Australia</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="23">
-        <v>35</v>
-      </c>
-      <c r="E12" s="24">
-        <v>56.327040000000004</v>
-      </c>
-      <c r="I12" s="67" t="str">
-        <v>United States</v>
       </c>
     </row>
   </sheetData>

--- a/Chapter10/Chapter 10 - Dynamic Arrays.xlsx
+++ b/Chapter10/Chapter 10 - Dynamic Arrays.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Packt\Chapter 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75975F5-9C8F-42D6-8271-3D7058FFEC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE201D6-25E6-40E7-9FD6-142BA077F360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-4800" windowWidth="29040" windowHeight="16440" xr2:uid="{34308FCB-668B-4E5F-B915-B3DC17B557AA}"/>
   </bookViews>
@@ -163,6 +163,30 @@
     <comment ref="Q13" authorId="0" shapeId="0" xr:uid="{478D61EC-C0E6-465B-8644-14526438A0CA}">
       <text/>
     </comment>
+    <comment ref="Q27" authorId="0" shapeId="0" xr:uid="{B6889469-631C-4B33-A0FD-2FF0C4609662}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>David Ringstrom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -189,7 +213,7 @@
     <author>David Ringstrom</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{C34BB8E2-6659-4E7F-BE1B-2AF511681207}">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{94C486CA-BCB7-4DF3-9BCE-1458D7C34CDD}">
       <text/>
     </comment>
     <comment ref="A9" authorId="0" shapeId="0" xr:uid="{7E815236-9E6D-4B8A-9D48-9CB415DE001D}">
@@ -217,20 +241,10 @@
     <author>David Ringstrom</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{4F1FD179-D98B-409D-8BC7-C25FF8B0288C}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>`</t>
-        </r>
-      </text>
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{ED6FDFB1-BDB5-4E46-BAC2-FEAA01E7F9AC}">
+      <text/>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{C191D3C9-DA2B-46D1-8F79-4B4CE0BD4B73}">
+    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{C191D3C9-DA2B-46D1-8F79-4B4CE0BD4B73}">
       <text/>
     </comment>
   </commentList>
@@ -327,10 +341,10 @@
     <comment ref="H8" authorId="0" shapeId="0" xr:uid="{7FDEFC0A-1A91-45E3-9857-D278F1D5FF9D}">
       <text/>
     </comment>
-    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{50FFA78C-CE58-40DB-B0A6-EBEE3EFCE6BF}">
+    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{7B0D7F54-3AE0-4AFF-AC5E-31BF613EF549}">
       <text/>
     </comment>
-    <comment ref="H18" authorId="0" shapeId="0" xr:uid="{C2A06819-FC60-4294-A2F0-5D56A07E1139}">
+    <comment ref="H18" authorId="0" shapeId="0" xr:uid="{43D6A442-734F-43FD-B2A0-99268FF779C3}">
       <text/>
     </comment>
   </commentList>
@@ -369,6 +383,9 @@
       <text/>
     </comment>
     <comment ref="H8" authorId="0" shapeId="0" xr:uid="{FC7E95C1-CB8B-4718-BFC7-B19666096571}">
+      <text/>
+    </comment>
+    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{6BEBAD07-AA2D-4643-8A1D-E28F91F1131B}">
       <text/>
     </comment>
   </commentList>
@@ -503,7 +520,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="121">
   <si>
     <t>Beach</t>
   </si>
@@ -821,18 +838,6 @@
     <t>FILTER Function (Beach = cell H2) - Match Found</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>FILTER Function No matches found</t>
   </si>
   <si>
@@ -875,7 +880,13 @@
     <t>#SPILL! Caused by Obstruction in Cell B7</t>
   </si>
   <si>
-    <t>#SPILL! caused by Overwritten Results in Cell I4</t>
+    <t>Work Area</t>
+  </si>
+  <si>
+    <t>Work area</t>
+  </si>
+  <si>
+    <t>#SPILL! caused by Overwritten Results in Cell I16</t>
   </si>
 </sst>
 </file>
@@ -888,7 +899,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -991,8 +1002,21 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1B4067"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1014,6 +1038,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,7 +1179,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1317,15 +1347,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1339,6 +1360,38 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1742,7 +1795,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB11A22-C14B-4868-AE32-07F132382A1C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:I21"/>
+  <dimension ref="B1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1756,9 +1809,12 @@
     <col min="7" max="7" width="28.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="3" customWidth="1"/>
     <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="16" t="s">
         <v>40</v>
       </c>
@@ -1771,8 +1827,13 @@
       </c>
       <c r="H1" s="25"/>
       <c r="I1" s="25"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K1" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="56" t="s">
         <v>0</v>
       </c>
@@ -1794,8 +1855,17 @@
       <c r="I2" s="57" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
@@ -1819,8 +1889,13 @@
         <f>VLOOKUP($G3,$B$3:$E$12,4,FALSE)</f>
         <v>151</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="105"/>
+      <c r="M3" s="106"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
@@ -1833,8 +1908,10 @@
       <c r="E4" s="21">
         <v>45.061631999999996</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
@@ -1847,8 +1924,10 @@
       <c r="E5" s="21">
         <v>40.233599999999996</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
@@ -1866,8 +1945,13 @@
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K6" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>3</v>
       </c>
@@ -1889,8 +1973,17 @@
       <c r="I7" s="57" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K7" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="19" t="s">
         <v>5</v>
       </c>
@@ -1914,8 +2007,13 @@
         <f>VLOOKUP($G8,$B$3:$E$12,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K8" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" s="105"/>
+      <c r="M8" s="106"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
         <v>6</v>
       </c>
@@ -1928,8 +2026,10 @@
       <c r="E9" s="21">
         <v>90.123263999999992</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="19" t="s">
         <v>2</v>
       </c>
@@ -1942,8 +2042,10 @@
       <c r="E10" s="21">
         <v>241.4016</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B11" s="19" t="s">
         <v>10</v>
       </c>
@@ -1961,8 +2063,13 @@
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
-    </row>
-    <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K11" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+    </row>
+    <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="22" t="s">
         <v>7</v>
       </c>
@@ -1984,8 +2091,17 @@
       <c r="I12" s="57" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K12" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G13" s="22" t="s">
         <v>80</v>
       </c>
@@ -1997,6 +2113,11 @@
         <f>_xlfn.IFNA(VLOOKUP(G13,B3:E12,4,FALSE),"Not Found")</f>
         <v>Not Found</v>
       </c>
+      <c r="K13" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" s="105"/>
+      <c r="M13" s="106"/>
     </row>
     <row r="21" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G21" s="83"/>
@@ -2013,7 +2134,7 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5711E5B-134D-429F-8443-D053AAA10AC9}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="B1:I12"/>
+  <dimension ref="B1:M12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2028,9 +2149,13 @@
     <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2.7109375" customWidth="1"/>
     <col min="9" max="9" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" customWidth="1"/>
+    <col min="13" max="13" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="16" t="s">
         <v>40</v>
       </c>
@@ -2043,8 +2168,14 @@
       <c r="I1" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K1" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="56" t="s">
         <v>0</v>
       </c>
@@ -2063,8 +2194,14 @@
       <c r="I2" s="47" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K2" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
@@ -2085,8 +2222,10 @@
         <f t="array" ref="I3:I12">_xlfn.UNIQUE(C3:C12,TRUE,FALSE)</f>
         <v>Bangladesh</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K3" s="115"/>
+      <c r="M3" s="115"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
@@ -2105,8 +2244,10 @@
       <c r="I4" s="50" t="str">
         <v>United States</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K4" s="50"/>
+      <c r="M4" s="113"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
@@ -2125,8 +2266,10 @@
       <c r="I5" s="50" t="str">
         <v>South Africa</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K5" s="50"/>
+      <c r="M5" s="113"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
@@ -2145,8 +2288,10 @@
       <c r="I6" s="50" t="str">
         <v>Australia</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K6" s="50"/>
+      <c r="M6" s="113"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>3</v>
       </c>
@@ -2165,8 +2310,10 @@
       <c r="I7" s="50" t="str">
         <v>New Zealand</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K7" s="50"/>
+      <c r="M7" s="113"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
         <v>5</v>
       </c>
@@ -2185,8 +2332,10 @@
       <c r="I8" s="50" t="str">
         <v>United States</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K8" s="50"/>
+      <c r="M8" s="113"/>
+    </row>
+    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="19" t="s">
         <v>6</v>
       </c>
@@ -2205,8 +2354,10 @@
       <c r="I9" s="50" t="str">
         <v>Mexico</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K9" s="64"/>
+      <c r="M9" s="113"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="s">
         <v>2</v>
       </c>
@@ -2222,8 +2373,9 @@
       <c r="I10" s="50" t="str">
         <v>Brazil</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M10" s="113"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="s">
         <v>10</v>
       </c>
@@ -2239,8 +2391,9 @@
       <c r="I11" s="50" t="str">
         <v>Australia</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="113"/>
+    </row>
+    <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="22" t="s">
         <v>7</v>
       </c>
@@ -2256,6 +2409,7 @@
       <c r="I12" s="64" t="str">
         <v>United States</v>
       </c>
+      <c r="M12" s="114"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2266,11 +2420,11 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0532652-C19F-46F4-80B5-5F60C9F4588A}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="B1:Y17"/>
+  <dimension ref="B1:Y27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2323,13 +2477,13 @@
       <c r="N1" s="14"/>
       <c r="O1" s="14"/>
       <c r="Q1" s="92" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="R1" s="92"/>
       <c r="S1" s="92"/>
       <c r="T1" s="92"/>
       <c r="V1" s="92" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="W1" s="92"/>
       <c r="X1" s="92"/>
@@ -3034,8 +3188,272 @@
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
       <c r="Q15" s="6"/>
     </row>
-    <row r="17" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q17" s="6"/>
+    <row r="16" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G16" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="Q16" s="92" t="s">
+        <v>118</v>
+      </c>
+      <c r="R16" s="92"/>
+      <c r="S16" s="92"/>
+      <c r="T16" s="92"/>
+      <c r="V16" s="92" t="s">
+        <v>118</v>
+      </c>
+      <c r="W16" s="92"/>
+      <c r="X16" s="92"/>
+      <c r="Y16" s="92"/>
+    </row>
+    <row r="17" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G17" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="N17" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="R17" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="S17" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="T17" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="V17" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="W17" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="X17" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y17" s="61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G18" s="110"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="58"/>
+      <c r="Q18" s="110"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="58"/>
+      <c r="V18" s="110"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="58"/>
+    </row>
+    <row r="19" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G19" s="52"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="58"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="58"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="58"/>
+    </row>
+    <row r="20" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G20" s="52"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="58"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="58"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="58"/>
+    </row>
+    <row r="21" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G21" s="52"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="58"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="58"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="58"/>
+    </row>
+    <row r="22" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G22" s="52"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="58"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="58"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="58"/>
+    </row>
+    <row r="23" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G23" s="52"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="58"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="58"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="58"/>
+    </row>
+    <row r="24" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G24" s="52"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="58"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="58"/>
+      <c r="V24" s="52"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="58"/>
+    </row>
+    <row r="25" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G25" s="52"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="58"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="58"/>
+      <c r="V25" s="52"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="58"/>
+    </row>
+    <row r="26" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G26" s="52"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="58"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="58"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="58"/>
+    </row>
+    <row r="27" spans="7:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="59"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="60"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="60"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="60"/>
+      <c r="V27" s="59"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="35"/>
+      <c r="Y27" s="60"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E12">
@@ -3050,12 +3468,12 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85225069-3EA1-4319-B117-3D9BEE493990}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="B1:AA15"/>
+  <dimension ref="B1:AA30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3096,31 +3514,31 @@
       <c r="D1" s="17"/>
       <c r="E1" s="18"/>
       <c r="G1" s="16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
       <c r="J1" s="18"/>
       <c r="L1" s="16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
       <c r="Q1" s="16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="R1" s="17"/>
       <c r="S1" s="17"/>
       <c r="T1" s="18"/>
       <c r="V1" s="16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="W1" s="17"/>
       <c r="X1" s="17"/>
       <c r="Y1" s="18"/>
       <c r="AA1" s="65" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3167,7 +3585,7 @@
         <v>23</v>
       </c>
       <c r="Y2" s="20"/>
-      <c r="AA2" s="102" t="s">
+      <c r="AA2" s="99" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3192,7 +3610,7 @@
       </c>
       <c r="X3" s="23"/>
       <c r="Y3" s="33"/>
-      <c r="AA3" s="100" t="s">
+      <c r="AA3" s="97" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3216,13 +3634,13 @@
       <c r="I4" s="30"/>
       <c r="J4" s="31"/>
       <c r="L4" s="16" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M4" s="30"/>
       <c r="N4" s="30"/>
       <c r="O4" s="31"/>
       <c r="Q4" s="16" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R4" s="30"/>
       <c r="S4" s="30"/>
@@ -3313,7 +3731,7 @@
       <c r="J6" s="58">
         <v>151</v>
       </c>
-      <c r="L6" s="104" t="e" cm="1" vm="1">
+      <c r="L6" s="101" t="e" cm="1" vm="1">
         <f t="array" ref="L6">_xlfn._xlws.FILTER(B3:E12,B3:B12=M2)</f>
         <v>#VALUE!</v>
       </c>
@@ -3378,7 +3796,7 @@
       <c r="L7" s="89"/>
       <c r="M7" s="89"/>
       <c r="N7" s="89"/>
-      <c r="O7" s="103"/>
+      <c r="O7" s="100"/>
       <c r="Q7" s="52" t="str">
         <v>Padre Island National Seashore</v>
       </c>
@@ -3404,7 +3822,7 @@
       <c r="Y7" s="42">
         <v>112.65408000000001</v>
       </c>
-      <c r="AA7" s="101" t="str">
+      <c r="AA7" s="98" t="str">
         <v>Padre Island National Seashore: 70 miles</v>
       </c>
     </row>
@@ -3453,11 +3871,11 @@
       <c r="Y8" s="44">
         <v>56.327040000000004</v>
       </c>
-      <c r="AA8" s="100" t="str">
+      <c r="AA8" s="97" t="str">
         <v>Virginia Beach: 35 miles</v>
       </c>
     </row>
-    <row r="9" spans="2:27" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="19" t="s">
         <v>6</v>
       </c>
@@ -3471,13 +3889,13 @@
         <v>90.123263999999992</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M9" s="30"/>
       <c r="N9" s="30"/>
       <c r="O9" s="31"/>
     </row>
-    <row r="10" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="19" t="s">
         <v>2</v>
       </c>
@@ -3490,6 +3908,12 @@
       <c r="E10" s="21">
         <v>241.4016</v>
       </c>
+      <c r="G10" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="31"/>
       <c r="L10" s="56" t="s">
         <v>0</v>
       </c>
@@ -3516,7 +3940,19 @@
       <c r="E11" s="21">
         <v>32.186880000000002</v>
       </c>
-      <c r="L11" s="104" t="str" cm="1">
+      <c r="G11" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="101" t="str" cm="1">
         <f t="array" ref="L11">_xlfn._xlws.FILTER(B3:E12,B3:B12=M2,"No matches found")</f>
         <v>No matches found</v>
       </c>
@@ -3524,11 +3960,20 @@
       <c r="N11" s="35"/>
       <c r="O11" s="60"/>
       <c r="Q11" s="16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="R11" s="30"/>
       <c r="S11" s="30"/>
       <c r="T11" s="31"/>
+      <c r="V11" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="31"/>
+      <c r="AA11" s="65" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="12" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="22" t="s">
@@ -3543,10 +3988,14 @@
       <c r="E12" s="24">
         <v>56.327040000000004</v>
       </c>
+      <c r="G12" s="117"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="58"/>
       <c r="L12" s="89"/>
       <c r="M12" s="89"/>
       <c r="N12" s="89"/>
-      <c r="O12" s="103"/>
+      <c r="O12" s="100"/>
       <c r="Q12" s="38" t="s">
         <v>0</v>
       </c>
@@ -3559,8 +4008,25 @@
       <c r="T12" s="40" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="V12" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="W12" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="X12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y12" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA12" s="115"/>
+    </row>
+    <row r="13" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="59"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="60"/>
       <c r="Q13" s="51" t="str" cm="1">
         <f t="array" ref="Q13:T15">_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B3:E12,C3:C12=R2,"No matches found"),3,-1)</f>
         <v>Padre Island National Seashore</v>
@@ -3574,8 +4040,17 @@
       <c r="T13" s="58">
         <v>112.65408000000001</v>
       </c>
-    </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="V13" s="110"/>
+      <c r="Y13" s="42"/>
+      <c r="AA13" s="98"/>
+    </row>
+    <row r="14" spans="2:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L14" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="31"/>
       <c r="Q14" s="93" t="str">
         <v>Virginia Beach</v>
       </c>
@@ -3588,8 +4063,25 @@
       <c r="T14" s="58">
         <v>56.327040000000004</v>
       </c>
+      <c r="V14" s="22"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="44"/>
+      <c r="AA14" s="97"/>
     </row>
     <row r="15" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L15" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="71" t="s">
+        <v>21</v>
+      </c>
       <c r="Q15" s="59" t="str">
         <v>Long Beach</v>
       </c>
@@ -3602,6 +4094,127 @@
       <c r="T15" s="60">
         <v>45.061631999999996</v>
       </c>
+    </row>
+    <row r="16" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="118"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="60"/>
+    </row>
+    <row r="17" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="100"/>
+    </row>
+    <row r="18" spans="12:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="91"/>
+    </row>
+    <row r="19" spans="12:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L19" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="31"/>
+      <c r="Q19" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="31"/>
+    </row>
+    <row r="20" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L20" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="N20" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="R20" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="S20" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="T20" s="71" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="12:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L21" s="118"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="60"/>
+      <c r="Q21" s="117"/>
+      <c r="R21" s="89"/>
+      <c r="S21" s="89"/>
+      <c r="T21" s="58"/>
+    </row>
+    <row r="22" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="Q22" s="52"/>
+      <c r="R22" s="89"/>
+      <c r="S22" s="89"/>
+      <c r="T22" s="58"/>
+    </row>
+    <row r="23" spans="12:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q23" s="22"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="44"/>
+    </row>
+    <row r="25" spans="12:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="12:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q26" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="31"/>
+    </row>
+    <row r="27" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="Q27" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="R27" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="S27" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T27" s="40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="Q28" s="110"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="58"/>
+    </row>
+    <row r="29" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="Q29" s="93"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="58"/>
+    </row>
+    <row r="30" spans="12:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q30" s="59"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3612,7 +4225,7 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E0623D-D469-43C7-9759-56619D9C5553}">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="B1:I12"/>
+  <dimension ref="B1:I25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -3635,7 +4248,7 @@
       <c r="D1" s="17"/>
       <c r="E1" s="18"/>
       <c r="G1" s="16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H1" s="65"/>
     </row>
@@ -3849,6 +4462,49 @@
       </c>
       <c r="G12" s="22"/>
       <c r="H12" s="33"/>
+    </row>
+    <row r="16" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="7:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G17" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" s="31"/>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G18" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G19" s="110"/>
+      <c r="H19" s="119"/>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G21" s="19"/>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="19"/>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="19"/>
+      <c r="H23" s="20"/>
+    </row>
+    <row r="24" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G24" s="19"/>
+      <c r="H24" s="20"/>
+    </row>
+    <row r="25" spans="7:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="22"/>
+      <c r="H25" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3864,7 +4520,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3884,14 +4540,14 @@
   <sheetData>
     <row r="1" spans="1:12" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A1" s="92" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
       <c r="G1" s="92" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
@@ -3959,8 +4615,8 @@
         <v>34</v>
       </c>
       <c r="B6" s="79">
-        <f>-PMT(B3/12,B4,B5)</f>
-        <v>5065.8159871888538</v>
+        <f>-PMT(B3/12,B4*12,B5)</f>
+        <v>474.64959608566818</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>34</v>
@@ -5401,12 +6057,12 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EAACF5A-497B-4911-89FF-7C82876D781F}">
   <sheetPr codeName="Sheet14"/>
-  <dimension ref="B1:I12"/>
+  <dimension ref="B1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5422,7 +6078,7 @@
     <col min="9" max="9" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="57" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:7" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="14" t="s">
         <v>40</v>
       </c>
@@ -5430,13 +6086,10 @@
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
       <c r="G1" s="92" t="s">
-        <v>121</v>
-      </c>
-      <c r="I1" s="92" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="62" t="s">
         <v>0</v>
       </c>
@@ -5452,11 +6105,8 @@
       <c r="G2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
@@ -5473,12 +6123,8 @@
         <f t="array" aca="1" ref="G3" ca="1">_xlfn.UNIQUE(C3:C12)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I3" s="2" t="e" cm="1" vm="2">
-        <f t="array" aca="1" ref="I3" ca="1">_xlfn.UNIQUE(C3:C12)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
@@ -5491,11 +6137,8 @@
       <c r="E4" s="21">
         <v>45.061631999999996</v>
       </c>
-      <c r="I4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
@@ -5509,7 +6152,7 @@
         <v>40.233599999999996</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
@@ -5523,7 +6166,7 @@
         <v>151.27833600000002</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>3</v>
       </c>
@@ -5540,7 +6183,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
         <v>5</v>
       </c>
@@ -5554,7 +6197,7 @@
         <v>112.65408000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
         <v>6</v>
       </c>
@@ -5568,7 +6211,7 @@
         <v>90.123263999999992</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="s">
         <v>2</v>
       </c>
@@ -5582,7 +6225,7 @@
         <v>241.4016</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="s">
         <v>10</v>
       </c>
@@ -5596,7 +6239,7 @@
         <v>32.186880000000002</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="22" t="s">
         <v>7</v>
       </c>
@@ -5608,6 +6251,27 @@
       </c>
       <c r="E12" s="24">
         <v>56.327040000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="G13" s="92" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G14" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="2" t="e" cm="1" vm="2">
+        <f t="array" aca="1" ref="G15" ca="1">_xlfn.UNIQUE(C3:C12)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -5619,7 +6283,7 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC0E103-7344-457F-A89F-85ECF13F18EB}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="B1:D2"/>
+  <dimension ref="B1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5643,12 +6307,25 @@
     <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="49">
         <f ca="1">RAND()</f>
-        <v>0.11459690594696725</v>
+        <v>0.74158376613000054</v>
       </c>
       <c r="D2" s="49">
         <f ca="1">RANDBETWEEN(100,500)</f>
-        <v>485</v>
-      </c>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="116"/>
+      <c r="D7" s="116"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5658,7 +6335,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64366757-04B1-44E3-8AFD-220FF91CF682}">
-  <dimension ref="B1:I7"/>
+  <dimension ref="B1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5693,86 +6370,86 @@
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="48" cm="1">
         <f t="array" aca="1" ref="B2:B4" ca="1">_xlfn.RANDARRAY(3)</f>
-        <v>0.93539878577244462</v>
+        <v>0.30583281394962736</v>
       </c>
       <c r="D2" s="51" cm="1">
         <f t="array" aca="1" ref="D2:E5" ca="1">_xlfn.RANDARRAY(4,2)</f>
-        <v>0.75769633140162851</v>
+        <v>0.60891570439254439</v>
       </c>
       <c r="E2" s="37">
         <f ca="1"/>
-        <v>0.38514988151420781</v>
+        <v>0.16601356597110062</v>
       </c>
       <c r="G2" s="48" cm="1">
         <f t="array" aca="1" ref="G2:G7" ca="1">_xlfn.RANDARRAY(6,1,100,500)</f>
-        <v>140.21860928076524</v>
+        <v>339.51080266950476</v>
       </c>
       <c r="I2" s="48" cm="1">
         <f t="array" aca="1" ref="I2:I7" ca="1">_xlfn.RANDARRAY(6,1,100,500,TRUE)</f>
-        <v>277</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="50">
         <f ca="1"/>
-        <v>0.2343576723725429</v>
+        <v>0.51037992435226598</v>
       </c>
       <c r="D3" s="52">
         <f ca="1"/>
-        <v>0.83400862125591746</v>
+        <v>0.12863875841997219</v>
       </c>
       <c r="E3" s="37">
         <f ca="1"/>
-        <v>0.70336388183740395</v>
+        <v>0.76687949123318466</v>
       </c>
       <c r="G3" s="50">
         <f ca="1"/>
-        <v>409.22807234033684</v>
+        <v>458.17006398869643</v>
       </c>
       <c r="I3" s="50">
         <f ca="1"/>
-        <v>201</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="64">
         <f ca="1"/>
-        <v>0.49462578131143542</v>
+        <v>3.2593312607485325E-2</v>
       </c>
       <c r="D4" s="52">
         <f ca="1"/>
-        <v>0.28436204528624964</v>
+        <v>0.82513322954669821</v>
       </c>
       <c r="E4" s="37">
         <f ca="1"/>
-        <v>0.57699005939670145</v>
+        <v>0.8129722020561938</v>
       </c>
       <c r="G4" s="50">
         <f ca="1"/>
-        <v>486.26513373223588</v>
+        <v>444.11981926435811</v>
       </c>
       <c r="I4" s="50">
         <f ca="1"/>
-        <v>252</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="D5" s="59">
         <f ca="1"/>
-        <v>0.85923677046240665</v>
+        <v>0.15080466777437551</v>
       </c>
       <c r="E5" s="28">
         <f ca="1"/>
-        <v>0.9574624241325147</v>
+        <v>0.2583196599010138</v>
       </c>
       <c r="G5" s="50">
         <f ca="1"/>
-        <v>133.41459866549394</v>
+        <v>331.30464338985934</v>
       </c>
       <c r="I5" s="50">
         <f ca="1"/>
-        <v>155</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -5781,22 +6458,77 @@
       <c r="E6" s="3"/>
       <c r="G6" s="50">
         <f ca="1"/>
-        <v>153.69252127667482</v>
+        <v>343.82823115939902</v>
       </c>
       <c r="I6" s="50">
         <f ca="1"/>
-        <v>218</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G7" s="64">
         <f ca="1"/>
-        <v>398.81261123421933</v>
+        <v>475.49758319663476</v>
       </c>
       <c r="I7" s="64">
         <f ca="1"/>
-        <v>108</v>
-      </c>
+        <v>389</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B11" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="69"/>
+      <c r="G11" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="I11" s="67" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="115"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="37"/>
+      <c r="G12" s="115"/>
+      <c r="I12" s="115"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="50"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="37"/>
+      <c r="G13" s="50"/>
+      <c r="I13" s="50"/>
+    </row>
+    <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="64"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="37"/>
+      <c r="G14" s="50"/>
+      <c r="I14" s="50"/>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="3"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="28"/>
+      <c r="G15" s="50"/>
+      <c r="I15" s="50"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="G16" s="50"/>
+      <c r="I16" s="50"/>
+    </row>
+    <row r="17" spans="7:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="64"/>
+      <c r="I17" s="64"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5807,11 +6539,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C484A45-7D4E-4D7F-ADF0-3E46D9008A3C}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="B1:P13"/>
+  <dimension ref="B1:T13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O9" sqref="O9"/>
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5832,9 +6564,12 @@
     <col min="14" max="14" width="23.42578125" customWidth="1"/>
     <col min="15" max="15" width="15.7109375" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
+    <col min="18" max="18" width="23.42578125" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" customWidth="1"/>
+    <col min="20" max="20" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="16" t="s">
         <v>40</v>
       </c>
@@ -5855,8 +6590,13 @@
       </c>
       <c r="O1" s="30"/>
       <c r="P1" s="31"/>
-    </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="R1" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="S1" s="30"/>
+      <c r="T1" s="31"/>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" s="56" t="s">
         <v>0</v>
       </c>
@@ -5893,8 +6633,17 @@
       <c r="P2" s="40" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R2" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
@@ -5936,8 +6685,13 @@
         <f>INDEX(E3:E12,MATCH($N3,$B3:$B12,0))</f>
         <v>32.186880000000002</v>
       </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="R3" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="107"/>
+      <c r="T3" s="106"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
@@ -5951,7 +6705,7 @@
         <v>45.061631999999996</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
@@ -5965,7 +6719,7 @@
         <v>40.233599999999996</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
@@ -5983,7 +6737,7 @@
       </c>
       <c r="H6" s="31"/>
     </row>
-    <row r="7" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="19" t="s">
         <v>3</v>
       </c>
@@ -6012,8 +6766,13 @@
       </c>
       <c r="O7" s="30"/>
       <c r="P7" s="31"/>
-    </row>
-    <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R7" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="S7" s="30"/>
+      <c r="T7" s="31"/>
+    </row>
+    <row r="8" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="19" t="s">
         <v>5</v>
       </c>
@@ -6029,7 +6788,7 @@
       <c r="G8" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="H8" s="99" t="e">
+      <c r="H8" s="96" t="e">
         <f>MATCH(G8,B3:B12,0)</f>
         <v>#N/A</v>
       </c>
@@ -6051,8 +6810,17 @@
       <c r="P8" s="57" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R8" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="S8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="19" t="s">
         <v>6</v>
       </c>
@@ -6087,8 +6855,13 @@
         <f>INDEX($B3:$E12,MATCH($N9,$B3:$B12,0),MATCH(P8,$B2:$E2,0))</f>
         <v>32.186880000000002</v>
       </c>
-    </row>
-    <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R9" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="107"/>
+      <c r="T9" s="106"/>
+    </row>
+    <row r="10" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="19" t="s">
         <v>2</v>
       </c>
@@ -6102,7 +6875,7 @@
         <v>241.4016</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="19" t="s">
         <v>10</v>
       </c>
@@ -6120,7 +6893,7 @@
       </c>
       <c r="H11" s="31"/>
     </row>
-    <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="22" t="s">
         <v>7</v>
       </c>
@@ -6140,7 +6913,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G13" s="22" t="s">
         <v>20</v>
       </c>
@@ -6158,12 +6931,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC41440-5C92-4C7E-8991-FC882F26CDD2}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B1:I18"/>
+  <dimension ref="B1:M18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6175,9 +6948,12 @@
     <col min="6" max="6" width="2.7109375" customWidth="1"/>
     <col min="7" max="7" width="28.7109375" customWidth="1"/>
     <col min="8" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="28.7109375" customWidth="1"/>
+    <col min="12" max="13" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="16" t="s">
         <v>40</v>
       </c>
@@ -6190,8 +6966,13 @@
       </c>
       <c r="H1" s="25"/>
       <c r="I1" s="25"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K1" s="102" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="103"/>
+      <c r="M1" s="104"/>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="56" t="s">
         <v>0</v>
       </c>
@@ -6214,8 +6995,17 @@
       <c r="I2" s="57" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
@@ -6240,8 +7030,13 @@
         <f>SUMIF($B3:$B12,$G3,E3:E12)</f>
         <v>240</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
@@ -6255,8 +7050,10 @@
         <v>45.061631999999996</v>
       </c>
       <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+    </row>
+    <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
@@ -6270,8 +7067,10 @@
         <v>40.233599999999996</v>
       </c>
       <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
+    </row>
+    <row r="6" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
@@ -6290,8 +7089,13 @@
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K6" s="102" t="s">
+        <v>118</v>
+      </c>
+      <c r="L6" s="103"/>
+      <c r="M6" s="104"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>3</v>
       </c>
@@ -6314,8 +7118,17 @@
       <c r="I7" s="57" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K7" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="19" t="s">
         <v>5</v>
       </c>
@@ -6340,8 +7153,13 @@
         <f>SUMIF($B3:$B12,$G8,E3:E12)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K8" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
         <v>6</v>
       </c>
@@ -6355,8 +7173,10 @@
         <v>90.123263999999992</v>
       </c>
       <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+    </row>
+    <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="19" t="s">
         <v>2</v>
       </c>
@@ -6370,8 +7190,10 @@
         <v>241.4016</v>
       </c>
       <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+    </row>
+    <row r="11" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B11" s="19" t="s">
         <v>10</v>
       </c>
@@ -6390,8 +7212,13 @@
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
-    </row>
-    <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K11" s="102" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" s="103"/>
+      <c r="M11" s="104"/>
+    </row>
+    <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="22" t="s">
         <v>7</v>
       </c>
@@ -6414,29 +7241,55 @@
       <c r="I12" s="57" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K12" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G13" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H13" s="32">
-        <f>SUMIFS(D3:D12,$B$3:$B$12,$G13,$C$3:$C$12,$G12)</f>
+        <f>SUMIFS($D$3:$D$12,$B$3:$B$12,$G13,$C$3:$C$12,$G12)</f>
         <v>55</v>
       </c>
       <c r="I13" s="85">
         <f>SUMIFS(E3:E12,$B$3:$B$12,$G13,$C$3:$C$12,$G12)</f>
         <v>89</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K13" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="105"/>
+      <c r="M13" s="105"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L14" s="108"/>
+      <c r="M14" s="108"/>
+    </row>
+    <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L15" s="108"/>
+      <c r="M15" s="108"/>
+    </row>
+    <row r="16" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G16" s="16" t="s">
         <v>97</v>
       </c>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
-    </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="K16" s="102" t="s">
+        <v>118</v>
+      </c>
+      <c r="L16" s="103"/>
+      <c r="M16" s="104"/>
+    </row>
+    <row r="17" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G17" s="63" t="s">
         <v>19</v>
       </c>
@@ -6446,24 +7299,44 @@
       <c r="I17" s="57" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="7:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K17" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="7:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="22" t="s">
         <v>80</v>
       </c>
       <c r="H18" s="32">
-        <f>SUMIFS(D8:D17,$B$3:$B$12,$G18,$C$3:$C$12,$G17)</f>
+        <f>SUMIFS($D$3:$D$12,$B$3:$B$12,$G18,$C$3:$C$12,$G17)</f>
         <v>0</v>
       </c>
       <c r="I18" s="85">
         <f>SUMIFS(E8:E17,$B$3:$B$12,$G18,$C$3:$C$12,$G17)</f>
         <v>0</v>
       </c>
+      <c r="K18" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="L18" s="105"/>
+      <c r="M18" s="105"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D12">
     <sortCondition ref="B6:B12"/>
   </sortState>
+  <mergeCells count="4">
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K16:M16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6472,7 +7345,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204B798D-55D6-41C3-AA25-56E9012BB2AA}">
-  <dimension ref="B1:I13"/>
+  <dimension ref="B1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6486,9 +7359,13 @@
     <col min="7" max="7" width="28.7109375" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" customWidth="1"/>
+    <col min="11" max="11" width="28.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="16" t="s">
         <v>40</v>
       </c>
@@ -6500,8 +7377,13 @@
       </c>
       <c r="H1" s="25"/>
       <c r="I1" s="25"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K1" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="72" t="s">
         <v>0</v>
       </c>
@@ -6523,8 +7405,17 @@
       <c r="I2" s="57" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
@@ -6548,8 +7439,13 @@
         <f>_xlfn.XLOOKUP($G3,$B3:$B12,E3:E12)</f>
         <v>151</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="105"/>
+      <c r="M3" s="109"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
@@ -6564,8 +7460,10 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
@@ -6580,8 +7478,10 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
@@ -6599,8 +7499,13 @@
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K6" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>3</v>
       </c>
@@ -6622,8 +7527,17 @@
       <c r="I7" s="57" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K7" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="19" t="s">
         <v>5</v>
       </c>
@@ -6647,8 +7561,13 @@
         <f>_xlfn.XLOOKUP($G8,$B3:$B12,E3:E12)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K8" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" s="105"/>
+      <c r="M8" s="109"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
         <v>6</v>
       </c>
@@ -6663,8 +7582,10 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="19" t="s">
         <v>2</v>
       </c>
@@ -6679,8 +7600,10 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B11" s="19" t="s">
         <v>10</v>
       </c>
@@ -6698,8 +7621,13 @@
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
-    </row>
-    <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K11" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+    </row>
+    <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="22" t="s">
         <v>7</v>
       </c>
@@ -6721,8 +7649,17 @@
       <c r="I12" s="57" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K12" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G13" s="22" t="s">
         <v>80</v>
       </c>
@@ -6734,6 +7671,11 @@
         <f>_xlfn.XLOOKUP(G13,B3:B12,E3:E12,"Not Found")</f>
         <v>Not Found</v>
       </c>
+      <c r="K13" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" s="105"/>
+      <c r="M13" s="106"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6744,7 +7686,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569265D3-BCAD-4B64-9120-89F079E352F5}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:H12"/>
+  <dimension ref="B1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6756,10 +7698,13 @@
     <col min="4" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="2.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="48.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="16" t="s">
         <v>40</v>
       </c>
@@ -6767,11 +7712,15 @@
       <c r="D1" s="17"/>
       <c r="E1" s="18"/>
       <c r="G1" s="16" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J1" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" s="31"/>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="72" t="s">
         <v>0</v>
       </c>
@@ -6790,8 +7739,14 @@
       <c r="H2" s="57" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="57" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>10</v>
       </c>
@@ -6811,8 +7766,12 @@
         <f>_xlfn.XLOOKUP(G3,D3:D12,B3:B12,,-1)</f>
         <v>Playa Novillero</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J3" s="22">
+        <v>60</v>
+      </c>
+      <c r="K3" s="109"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
         <v>9</v>
       </c>
@@ -6826,7 +7785,7 @@
         <v>40.233599999999996</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="19" t="s">
         <v>8</v>
       </c>
@@ -6840,7 +7799,7 @@
         <v>45.061631999999996</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
         <v>7</v>
       </c>
@@ -6854,11 +7813,15 @@
         <v>56.327040000000004</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H6" s="31"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J6" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="K6" s="31"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>3</v>
       </c>
@@ -6877,8 +7840,14 @@
       <c r="H7" s="57" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="57" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="19" t="s">
         <v>6</v>
       </c>
@@ -6898,8 +7867,12 @@
         <f>_xlfn.XLOOKUP(G8,D3:D12,B3:B12,,1)</f>
         <v>Padre Island National Seashore</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J8" s="22">
+        <v>60</v>
+      </c>
+      <c r="K8" s="109"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
         <v>5</v>
       </c>
@@ -6913,7 +7886,7 @@
         <v>112.65408000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="19" t="s">
         <v>4</v>
       </c>
@@ -6927,7 +7900,7 @@
         <v>120.7008</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B11" s="19" t="s">
         <v>3</v>
       </c>
@@ -6940,8 +7913,16 @@
       <c r="E11" s="21">
         <v>151</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" s="31"/>
+      <c r="J11" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" s="31"/>
+    </row>
+    <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="22" t="s">
         <v>2</v>
       </c>
@@ -6954,6 +7935,31 @@
       <c r="E12" s="24">
         <v>241.4016</v>
       </c>
+      <c r="G12" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="57" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="22">
+        <v>60</v>
+      </c>
+      <c r="H13" s="120" t="str" cm="1">
+        <f t="array" ref="H13">_xlfn.XLOOKUP(G8,D3:D12,B3:B12&amp;", "&amp;C3:C12,,1)</f>
+        <v>Padre Island National Seashore, United States</v>
+      </c>
+      <c r="J13" s="22">
+        <v>60</v>
+      </c>
+      <c r="K13" s="121"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E12">
@@ -6967,7 +7973,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBA01E0-FA2A-4BFC-9352-567BBD7CAB95}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="B1:J12"/>
+  <dimension ref="B1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6983,23 +7989,34 @@
     <col min="8" max="8" width="14.7109375" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
       <c r="E1" s="18"/>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="97"/>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="104"/>
+      <c r="L1" s="102" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="104"/>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="56" t="s">
         <v>0</v>
       </c>
@@ -7021,11 +8038,23 @@
       <c r="I2" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="98" t="s">
+      <c r="J2" s="95" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="95" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
@@ -7051,8 +8080,14 @@
       <c r="J3" s="33">
         <v>151</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="105"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="33"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
@@ -7066,7 +8101,7 @@
         <v>45.061631999999996</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
@@ -7080,7 +8115,7 @@
         <v>40.233599999999996</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
@@ -7093,14 +8128,20 @@
       <c r="E6" s="21">
         <v>151</v>
       </c>
-      <c r="G6" s="95" t="s">
+      <c r="G6" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="97"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="104"/>
+      <c r="L6" s="102" t="s">
+        <v>118</v>
+      </c>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
+      <c r="O6" s="104"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>3</v>
       </c>
@@ -7122,11 +8163,23 @@
       <c r="I7" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="98" t="s">
+      <c r="J7" s="95" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="95" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="19" t="s">
         <v>5</v>
       </c>
@@ -7152,8 +8205,14 @@
       <c r="J8" s="33">
         <v>89</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L8" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="105"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="33"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
         <v>6</v>
       </c>
@@ -7169,7 +8228,7 @@
       <c r="G9" s="90"/>
       <c r="H9" s="90"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="s">
         <v>2</v>
       </c>
@@ -7183,7 +8242,7 @@
         <v>241.4016</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="s">
         <v>10</v>
       </c>
@@ -7197,7 +8256,7 @@
         <v>32.186880000000002</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="22" t="s">
         <v>7</v>
       </c>
@@ -7212,9 +8271,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="G6:J6"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="L6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7225,7 +8286,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60803DBE-7C08-4DB4-A73E-01EA90597356}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="B1:K12"/>
+  <dimension ref="B1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7520,6 +8581,243 @@
         <v>56.327040000000004</v>
       </c>
     </row>
+    <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B16" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+      <c r="H16" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="31"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="110"/>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18">
+        <v>75</v>
+      </c>
+      <c r="F18" s="21">
+        <v>120.7008</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="105"/>
+      <c r="K18" s="106"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="110"/>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>28</v>
+      </c>
+      <c r="F19" s="21">
+        <v>45.061631999999996</v>
+      </c>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="45"/>
+    </row>
+    <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="110"/>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>25</v>
+      </c>
+      <c r="F20" s="21">
+        <v>40.233599999999996</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="23"/>
+    </row>
+    <row r="21" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B21" s="110"/>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>94</v>
+      </c>
+      <c r="F21" s="21">
+        <v>151</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="31"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="110"/>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22">
+        <v>55</v>
+      </c>
+      <c r="F22" s="21">
+        <v>89</v>
+      </c>
+      <c r="H22" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="110"/>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>70</v>
+      </c>
+      <c r="F23" s="21">
+        <v>112.65408000000001</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" s="105"/>
+      <c r="K23" s="106"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="110"/>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>56</v>
+      </c>
+      <c r="F24" s="21">
+        <v>90.123263999999992</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="110"/>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25">
+        <v>150</v>
+      </c>
+      <c r="F25" s="21">
+        <v>241.4016</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="110"/>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+      <c r="F26" s="21">
+        <v>32.186880000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="111"/>
+      <c r="C27" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="23">
+        <v>35</v>
+      </c>
+      <c r="F27" s="24">
+        <v>56.327040000000004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7530,7 +8828,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75A5781-3298-4E8E-9F13-11517EB2B60A}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="B1:O16"/>
+  <dimension ref="B1:O24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -7991,6 +9289,142 @@
       <c r="M16" s="23"/>
       <c r="N16" s="23"/>
       <c r="O16" s="33"/>
+    </row>
+    <row r="18" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="N19" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="O19" s="40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="105"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="33"/>
+    </row>
+    <row r="22" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="34"/>
+    </row>
+    <row r="24" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="107"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -8006,11 +9440,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F0E592-6472-4582-B449-E953E909CE14}">
-  <dimension ref="B1:H13"/>
+  <dimension ref="B1:K13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8023,9 +9457,12 @@
     <col min="6" max="6" width="2.7109375" customWidth="1"/>
     <col min="7" max="7" width="23.42578125" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="16" t="s">
         <v>40</v>
       </c>
@@ -8036,8 +9473,12 @@
         <v>101</v>
       </c>
       <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J1" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" s="31"/>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="56" t="s">
         <v>0</v>
       </c>
@@ -8056,8 +9497,14 @@
       <c r="H2" s="40" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
@@ -8077,8 +9524,12 @@
         <f>_xlfn.XMATCH(G3,B3:B12)</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J3" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="109"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
@@ -8092,7 +9543,7 @@
         <v>45.061631999999996</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
@@ -8106,7 +9557,7 @@
         <v>40.233599999999996</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
@@ -8123,8 +9574,12 @@
         <v>102</v>
       </c>
       <c r="H6" s="31"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J6" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="K6" s="31"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>3</v>
       </c>
@@ -8143,8 +9598,14 @@
       <c r="H7" s="40" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="19" t="s">
         <v>5</v>
       </c>
@@ -8160,12 +9621,16 @@
       <c r="G8" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="H8" s="99" t="e">
+      <c r="H8" s="96" t="e">
         <f>_xlfn.XMATCH(G8,B3:B12)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J8" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="112"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
         <v>6</v>
       </c>
@@ -8179,7 +9644,7 @@
         <v>90.123263999999992</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="19" t="s">
         <v>2</v>
       </c>
@@ -8193,7 +9658,7 @@
         <v>241.4016</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="19" t="s">
         <v>10</v>
       </c>
@@ -8210,8 +9675,12 @@
         <v>103</v>
       </c>
       <c r="H11" s="31"/>
-    </row>
-    <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J11" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" s="31"/>
+    </row>
+    <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="22" t="s">
         <v>7</v>
       </c>
@@ -8230,8 +9699,14 @@
       <c r="H12" s="40" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G13" s="22" t="s">
         <v>20</v>
       </c>
@@ -8239,6 +9714,10 @@
         <f>_xlfn.XMATCH(G13,B2:E2)</f>
         <v>3</v>
       </c>
+      <c r="J13" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="109"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
